--- a/SGPandResearch/HR_FB_CARDS.xlsx
+++ b/SGPandResearch/HR_FB_CARDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FantBaseball\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aflyn\repos\FantasyPlayerEvaluation\SGPandResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F171EAF6-0AEF-408D-85B6-31E6C4BF9201}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC9C22E-07E2-457A-8A5F-C08003596491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{A1C033FF-D5C3-45E4-AE33-8237E9375469}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A1C033FF-D5C3-45E4-AE33-8237E9375469}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1069,16 +1080,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F882DA-760A-469C-A433-0582C70339DD}">
   <dimension ref="A1:W128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1149,7 +1160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
@@ -1169,14 +1180,14 @@
         <v>3.77</v>
       </c>
       <c r="G2" s="10">
-        <f>E2*9/M2</f>
+        <f t="shared" ref="G2:G33" si="0">E2*9/M2</f>
         <v>3.7690355329949243</v>
       </c>
       <c r="H2" s="10">
         <v>4.28</v>
       </c>
       <c r="I2" s="10">
-        <f>(13*N2+3*(O2+P2)-2*(Q2))/M2+R2</f>
+        <f t="shared" ref="I2:I33" si="1">(13*N2+3*(O2+P2)-2*(Q2))/M2+R2</f>
         <v>4.282918781725888</v>
       </c>
       <c r="J2" s="10">
@@ -1189,7 +1200,7 @@
         <v>131.1</v>
       </c>
       <c r="M2" s="10">
-        <f>(L2-_xlfn.FLOOR.MATH(L2))*10/3+_xlfn.FLOOR.MATH(L2)</f>
+        <f t="shared" ref="M2:M33" si="2">(L2-_xlfn.FLOOR.MATH(L2))*10/3+_xlfn.FLOOR.MATH(L2)</f>
         <v>131.33333333333331</v>
       </c>
       <c r="N2" s="10">
@@ -1208,26 +1219,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S2">
-        <f>C2*0.127-N2</f>
+        <f t="shared" ref="S2:S33" si="3">C2*0.127-N2</f>
         <v>8.7650000000000006</v>
       </c>
       <c r="T2">
-        <f>(13*(N2+S2)+3*(O2+P2)-2*Q2)/L2+R2</f>
+        <f t="shared" ref="T2:T33" si="4">(13*(N2+S2)+3*(O2+P2)-2*Q2)/L2+R2</f>
         <v>5.1538939740655989</v>
       </c>
       <c r="U2">
         <v>1</v>
       </c>
       <c r="V2">
-        <f>S2*(2.101-U2)*9/L2+G2</f>
+        <f t="shared" ref="V2:V33" si="5">S2*(2.101-U2)*9/L2+G2</f>
         <v>4.4315251210956106</v>
       </c>
       <c r="W2" s="7">
-        <f>G2-V2</f>
+        <f t="shared" ref="W2:W33" si="6">G2-V2</f>
         <v>-0.66248958810068626</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -1247,14 +1258,14 @@
         <v>2.79</v>
       </c>
       <c r="G3" s="10">
-        <f>E3*9/M3</f>
+        <f t="shared" si="0"/>
         <v>2.7880434782608696</v>
       </c>
       <c r="H3" s="10">
         <v>2.83</v>
       </c>
       <c r="I3" s="10">
-        <f>(13*N3+3*(O3+P3)-2*(Q3))/M3+R3</f>
+        <f t="shared" si="1"/>
         <v>2.8256521739130434</v>
       </c>
       <c r="J3" s="10">
@@ -1267,7 +1278,7 @@
         <v>184</v>
       </c>
       <c r="M3" s="10">
-        <f>(L3-_xlfn.FLOOR.MATH(L3))*10/3+_xlfn.FLOOR.MATH(L3)</f>
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="N3" s="10">
@@ -1286,26 +1297,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S3">
-        <f>C3*0.127-N3</f>
+        <f t="shared" si="3"/>
         <v>11.558</v>
       </c>
       <c r="T3">
-        <f>(13*(N3+S3)+3*(O3+P3)-2*Q3)/L3+R3</f>
+        <f t="shared" si="4"/>
         <v>3.6422499999999998</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="V3">
-        <f>S3*(2.101-U3)*9/L3+G3</f>
+        <f t="shared" si="5"/>
         <v>3.4104794673913044</v>
       </c>
       <c r="W3" s="7">
-        <f>G3-V3</f>
+        <f t="shared" si="6"/>
         <v>-0.62243598913043474</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -1325,14 +1336,14 @@
         <v>3.22</v>
       </c>
       <c r="G4" s="10">
-        <f>E4*9/M4</f>
+        <f t="shared" si="0"/>
         <v>3.2156057494866532</v>
       </c>
       <c r="H4" s="10">
         <v>3.85</v>
       </c>
       <c r="I4" s="10">
-        <f>(13*N4+3*(O4+P4)-2*(Q4))/M4+R4</f>
+        <f t="shared" si="1"/>
         <v>3.8463757700205337</v>
       </c>
       <c r="J4" s="10">
@@ -1345,7 +1356,7 @@
         <v>162.1</v>
       </c>
       <c r="M4" s="10">
-        <f>(L4-_xlfn.FLOOR.MATH(L4))*10/3+_xlfn.FLOOR.MATH(L4)</f>
+        <f t="shared" si="2"/>
         <v>162.33333333333331</v>
       </c>
       <c r="N4" s="10">
@@ -1364,26 +1375,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S4">
-        <f>C4*0.127-N4</f>
+        <f t="shared" si="3"/>
         <v>8.9239999999999995</v>
       </c>
       <c r="T4">
-        <f>(13*(N4+S4)+3*(O4+P4)-2*Q4)/L4+R4</f>
+        <f t="shared" si="4"/>
         <v>4.5629086983343612</v>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4">
-        <f>S4*(2.101-U4)*9/L4+G4</f>
+        <f t="shared" si="5"/>
         <v>3.7611203454150921</v>
       </c>
       <c r="W4" s="7">
-        <f>G4-V4</f>
+        <f t="shared" si="6"/>
         <v>-0.54551459592843887</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>31</v>
       </c>
@@ -1403,14 +1414,14 @@
         <v>2.98</v>
       </c>
       <c r="G5" s="10">
-        <f>E5*9/M5</f>
+        <f t="shared" si="0"/>
         <v>2.9788732394366195</v>
       </c>
       <c r="H5" s="10">
         <v>3.52</v>
       </c>
       <c r="I5" s="10">
-        <f>(13*N5+3*(O5+P5)-2*(Q5))/M5+R5</f>
+        <f t="shared" si="1"/>
         <v>3.5155633802816899</v>
       </c>
       <c r="J5" s="10">
@@ -1423,7 +1434,7 @@
         <v>142</v>
       </c>
       <c r="M5" s="10">
-        <f>(L5-_xlfn.FLOOR.MATH(L5))*10/3+_xlfn.FLOOR.MATH(L5)</f>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="N5" s="10">
@@ -1442,26 +1453,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S5">
-        <f>C5*0.127-N5</f>
+        <f t="shared" si="3"/>
         <v>7.7010000000000005</v>
       </c>
       <c r="T5">
-        <f>(13*(N5+S5)+3*(O5+P5)-2*Q5)/L5+R5</f>
+        <f t="shared" si="4"/>
         <v>4.2205845070422532</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
       <c r="V5">
-        <f>S5*(2.101-U5)*9/L5+G5</f>
+        <f t="shared" si="5"/>
         <v>3.5162620352112675</v>
       </c>
       <c r="W5" s="7">
-        <f>G5-V5</f>
+        <f t="shared" si="6"/>
         <v>-0.53738879577464793</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
@@ -1481,14 +1492,14 @@
         <v>3.74</v>
       </c>
       <c r="G6" s="10">
-        <f>E6*9/M6</f>
+        <f t="shared" si="0"/>
         <v>3.7445255474452557</v>
       </c>
       <c r="H6" s="10">
         <v>3.81</v>
       </c>
       <c r="I6" s="10">
-        <f>(13*N6+3*(O6+P6)-2*(Q6))/M6+R6</f>
+        <f t="shared" si="1"/>
         <v>3.8097445255474449</v>
       </c>
       <c r="J6" s="10">
@@ -1501,7 +1512,7 @@
         <v>137</v>
       </c>
       <c r="M6" s="10">
-        <f>(L6-_xlfn.FLOOR.MATH(L6))*10/3+_xlfn.FLOOR.MATH(L6)</f>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="N6" s="10">
@@ -1520,26 +1531,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S6">
-        <f>C6*0.127-N6</f>
+        <f t="shared" si="3"/>
         <v>6.4310000000000009</v>
       </c>
       <c r="T6">
-        <f>(13*(N6+S6)+3*(O6+P6)-2*Q6)/L6+R6</f>
+        <f t="shared" si="4"/>
         <v>4.4199854014598543</v>
       </c>
       <c r="U6">
         <v>1</v>
       </c>
       <c r="V6">
-        <f>S6*(2.101-U6)*9/L6+G6</f>
+        <f t="shared" si="5"/>
         <v>4.2096699197080296</v>
       </c>
       <c r="W6" s="7">
-        <f>G6-V6</f>
+        <f t="shared" si="6"/>
         <v>-0.46514437226277394</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>47</v>
       </c>
@@ -1559,14 +1570,14 @@
         <v>5.43</v>
       </c>
       <c r="G7" s="10">
-        <f>E7*9/M7</f>
+        <f t="shared" si="0"/>
         <v>5.4255319148936172</v>
       </c>
       <c r="H7" s="10">
         <v>4.92</v>
       </c>
       <c r="I7" s="10">
-        <f>(13*N7+3*(O7+P7)-2*(Q7))/M7+R7</f>
+        <f t="shared" si="1"/>
         <v>4.9216666666666669</v>
       </c>
       <c r="J7" s="10">
@@ -1579,7 +1590,7 @@
         <v>141</v>
       </c>
       <c r="M7" s="10">
-        <f>(L7-_xlfn.FLOOR.MATH(L7))*10/3+_xlfn.FLOOR.MATH(L7)</f>
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="N7" s="10">
@@ -1598,26 +1609,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S7">
-        <f>C7*0.127-N7</f>
+        <f t="shared" si="3"/>
         <v>6.4160000000000004</v>
       </c>
       <c r="T7">
-        <f>(13*(N7+S7)+3*(O7+P7)-2*Q7)/L7+R7</f>
+        <f t="shared" si="4"/>
         <v>5.513212765957447</v>
       </c>
       <c r="U7">
         <v>1</v>
       </c>
       <c r="V7">
-        <f>S7*(2.101-U7)*9/L7+G7</f>
+        <f t="shared" si="5"/>
         <v>5.8764265531914894</v>
       </c>
       <c r="W7" s="7">
-        <f>G7-V7</f>
+        <f t="shared" si="6"/>
         <v>-0.45089463829787224</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>50</v>
       </c>
@@ -1637,14 +1648,14 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="G8" s="10">
-        <f>E8*9/M8</f>
+        <f t="shared" si="0"/>
         <v>4.5555555555555554</v>
       </c>
       <c r="H8" s="10">
         <v>4.58</v>
       </c>
       <c r="I8" s="10">
-        <f>(13*N8+3*(O8+P8)-2*(Q8))/M8+R8</f>
+        <f t="shared" si="1"/>
         <v>4.5759876543209881</v>
       </c>
       <c r="J8" s="10">
@@ -1657,7 +1668,7 @@
         <v>162</v>
       </c>
       <c r="M8" s="10">
-        <f>(L8-_xlfn.FLOOR.MATH(L8))*10/3+_xlfn.FLOOR.MATH(L8)</f>
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="N8" s="10">
@@ -1676,26 +1687,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S8">
-        <f>C8*0.127-N8</f>
+        <f t="shared" si="3"/>
         <v>7.2580000000000027</v>
       </c>
       <c r="T8">
-        <f>(13*(N8+S8)+3*(O8+P8)-2*Q8)/L8+R8</f>
+        <f t="shared" si="4"/>
         <v>5.1584197530864202</v>
       </c>
       <c r="U8">
         <v>1</v>
       </c>
       <c r="V8">
-        <f>S8*(2.101-U8)*9/L8+G8</f>
+        <f t="shared" si="5"/>
         <v>4.9995032222222218</v>
       </c>
       <c r="W8" s="7">
-        <f>G8-V8</f>
+        <f t="shared" si="6"/>
         <v>-0.44394766666666641</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
@@ -1715,14 +1726,14 @@
         <v>3.22</v>
       </c>
       <c r="G9" s="10">
-        <f>E9*9/M9</f>
+        <f t="shared" si="0"/>
         <v>3.2158808933002487</v>
       </c>
       <c r="H9" s="10">
         <v>3.89</v>
       </c>
       <c r="I9" s="10">
-        <f>(13*N9+3*(O9+P9)-2*(Q9))/M9+R9</f>
+        <f t="shared" si="1"/>
         <v>3.8877543424317618</v>
       </c>
       <c r="J9" s="10">
@@ -1735,7 +1746,7 @@
         <v>134.1</v>
       </c>
       <c r="M9" s="10">
-        <f>(L9-_xlfn.FLOOR.MATH(L9))*10/3+_xlfn.FLOOR.MATH(L9)</f>
+        <f t="shared" si="2"/>
         <v>134.33333333333331</v>
       </c>
       <c r="N9" s="10">
@@ -1754,26 +1765,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S9">
-        <f>C9*0.127-N9</f>
+        <f t="shared" si="3"/>
         <v>5.9550000000000018</v>
       </c>
       <c r="T9">
-        <f>(13*(N9+S9)+3*(O9+P9)-2*Q9)/L9+R9</f>
+        <f t="shared" si="4"/>
         <v>4.4661483967188662</v>
       </c>
       <c r="U9">
         <v>1</v>
       </c>
       <c r="V9">
-        <f>S9*(2.101-U9)*9/L9+G9</f>
+        <f t="shared" si="5"/>
         <v>3.6559114302130005</v>
       </c>
       <c r="W9" s="7">
-        <f>G9-V9</f>
+        <f t="shared" si="6"/>
         <v>-0.44003053691275174</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
@@ -1793,14 +1804,14 @@
         <v>3.46</v>
       </c>
       <c r="G10" s="10">
-        <f>E10*9/M10</f>
+        <f t="shared" si="0"/>
         <v>3.4577656675749324</v>
       </c>
       <c r="H10" s="10">
         <v>3.57</v>
       </c>
       <c r="I10" s="10">
-        <f>(13*N10+3*(O10+P10)-2*(Q10))/M10+R10</f>
+        <f t="shared" si="1"/>
         <v>3.565626702997275</v>
       </c>
       <c r="J10" s="10">
@@ -1813,7 +1824,7 @@
         <v>122.1</v>
       </c>
       <c r="M10" s="10">
-        <f>(L10-_xlfn.FLOOR.MATH(L10))*10/3+_xlfn.FLOOR.MATH(L10)</f>
+        <f t="shared" si="2"/>
         <v>122.33333333333331</v>
       </c>
       <c r="N10" s="10">
@@ -1832,26 +1843,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S10">
-        <f>C10*0.127-N10</f>
+        <f t="shared" si="3"/>
         <v>5.0180000000000007</v>
       </c>
       <c r="T10">
-        <f>(13*(N10+S10)+3*(O10+P10)-2*Q10)/L10+R10</f>
+        <f t="shared" si="4"/>
         <v>4.1004873054873059</v>
       </c>
       <c r="U10">
         <v>1</v>
       </c>
       <c r="V10">
-        <f>S10*(2.101-U10)*9/L10+G10</f>
+        <f t="shared" si="5"/>
         <v>3.8650004095896744</v>
       </c>
       <c r="W10" s="7">
-        <f>G10-V10</f>
+        <f t="shared" si="6"/>
         <v>-0.40723474201474197</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>53</v>
       </c>
@@ -1871,14 +1882,14 @@
         <v>4.04</v>
       </c>
       <c r="G11" s="10">
-        <f>E11*9/M11</f>
+        <f t="shared" si="0"/>
         <v>4.0360824742268049</v>
       </c>
       <c r="H11" s="10">
         <v>3.83</v>
       </c>
       <c r="I11" s="10">
-        <f>(13*N11+3*(O11+P11)-2*(Q11))/M11+R11</f>
+        <f t="shared" si="1"/>
         <v>3.8271649484536083</v>
       </c>
       <c r="J11" s="10">
@@ -1891,7 +1902,7 @@
         <v>129.1</v>
       </c>
       <c r="M11" s="10">
-        <f>(L11-_xlfn.FLOOR.MATH(L11))*10/3+_xlfn.FLOOR.MATH(L11)</f>
+        <f t="shared" si="2"/>
         <v>129.33333333333331</v>
       </c>
       <c r="N11" s="10">
@@ -1910,26 +1921,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S11">
-        <f>C11*0.127-N11</f>
+        <f t="shared" si="3"/>
         <v>4.8440000000000012</v>
       </c>
       <c r="T11">
-        <f>(13*(N11+S11)+3*(O11+P11)-2*Q11)/L11+R11</f>
+        <f t="shared" si="4"/>
         <v>4.3159759876065067</v>
       </c>
       <c r="U11">
         <v>1</v>
       </c>
       <c r="V11">
-        <f>S11*(2.101-U11)*9/L11+G11</f>
+        <f t="shared" si="5"/>
         <v>4.4078810489750619</v>
       </c>
       <c r="W11" s="7">
-        <f>G11-V11</f>
+        <f t="shared" si="6"/>
         <v>-0.37179857474825706</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
@@ -1949,14 +1960,14 @@
         <v>4.78</v>
       </c>
       <c r="G12" s="10">
-        <f>E12*9/M12</f>
+        <f t="shared" si="0"/>
         <v>4.7831125827814578</v>
       </c>
       <c r="H12" s="10">
         <v>4.2699999999999996</v>
       </c>
       <c r="I12" s="10">
-        <f>(13*N12+3*(O12+P12)-2*(Q12))/M12+R12</f>
+        <f t="shared" si="1"/>
         <v>4.2732119205298016</v>
       </c>
       <c r="J12" s="10">
@@ -1969,7 +1980,7 @@
         <v>201.1</v>
       </c>
       <c r="M12" s="10">
-        <f>(L12-_xlfn.FLOOR.MATH(L12))*10/3+_xlfn.FLOOR.MATH(L12)</f>
+        <f t="shared" si="2"/>
         <v>201.33333333333331</v>
       </c>
       <c r="N12" s="10">
@@ -1988,26 +1999,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S12">
-        <f>C12*0.127-N12</f>
+        <f t="shared" si="3"/>
         <v>7.5279999999999987</v>
       </c>
       <c r="T12">
-        <f>(13*(N12+S12)+3*(O12+P12)-2*Q12)/L12+R12</f>
+        <f t="shared" si="4"/>
         <v>4.7610367976131283</v>
       </c>
       <c r="U12">
         <v>1</v>
       </c>
       <c r="V12">
-        <f>S12*(2.101-U12)*9/L12+G12</f>
+        <f t="shared" si="5"/>
         <v>5.1540472023737003</v>
       </c>
       <c r="W12" s="7">
-        <f>G12-V12</f>
+        <f t="shared" si="6"/>
         <v>-0.3709346195922425</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
@@ -2027,14 +2038,14 @@
         <v>3.2</v>
       </c>
       <c r="G13" s="10">
-        <f>E13*9/M13</f>
+        <f t="shared" si="0"/>
         <v>3.1961130742049475</v>
       </c>
       <c r="H13" s="10">
         <v>3.56</v>
       </c>
       <c r="I13" s="10">
-        <f>(13*N13+3*(O13+P13)-2*(Q13))/M13+R13</f>
+        <f t="shared" si="1"/>
         <v>3.5624204946996465</v>
       </c>
       <c r="J13" s="10">
@@ -2047,7 +2058,7 @@
         <v>188.2</v>
       </c>
       <c r="M13" s="10">
-        <f>(L13-_xlfn.FLOOR.MATH(L13))*10/3+_xlfn.FLOOR.MATH(L13)</f>
+        <f t="shared" si="2"/>
         <v>188.66666666666663</v>
       </c>
       <c r="N13" s="10">
@@ -2066,26 +2077,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S13">
-        <f>C13*0.127-N13</f>
+        <f t="shared" si="3"/>
         <v>6.5109999999999992</v>
       </c>
       <c r="T13">
-        <f>(13*(N13+S13)+3*(O13+P13)-2*Q13)/L13+R13</f>
+        <f t="shared" si="4"/>
         <v>4.0129330499468647</v>
       </c>
       <c r="U13">
         <v>1</v>
       </c>
       <c r="V13">
-        <f>S13*(2.101-U13)*9/L13+G13</f>
+        <f t="shared" si="5"/>
         <v>3.5389265651720039</v>
       </c>
       <c r="W13" s="7">
-        <f>G13-V13</f>
+        <f t="shared" si="6"/>
         <v>-0.34281349096705638</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>45</v>
       </c>
@@ -2105,14 +2116,14 @@
         <v>2.63</v>
       </c>
       <c r="G14" s="10">
-        <f>E14*9/M14</f>
+        <f t="shared" si="0"/>
         <v>2.6267942583732058</v>
       </c>
       <c r="H14" s="10">
         <v>3.16</v>
       </c>
       <c r="I14" s="10">
-        <f>(13*N14+3*(O14+P14)-2*(Q14))/M14+R14</f>
+        <f t="shared" si="1"/>
         <v>3.1640909090909091</v>
       </c>
       <c r="J14" s="10">
@@ -2125,7 +2136,7 @@
         <v>209</v>
       </c>
       <c r="M14" s="10">
-        <f>(L14-_xlfn.FLOOR.MATH(L14))*10/3+_xlfn.FLOOR.MATH(L14)</f>
+        <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="N14" s="10">
@@ -2144,26 +2155,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S14">
-        <f>C14*0.127-N14</f>
+        <f t="shared" si="3"/>
         <v>6.9239999999999995</v>
       </c>
       <c r="T14">
-        <f>(13*(N14+S14)+3*(O14+P14)-2*Q14)/L14+R14</f>
+        <f t="shared" si="4"/>
         <v>3.5947703349282292</v>
       </c>
       <c r="U14">
         <v>1</v>
       </c>
       <c r="V14">
-        <f>S14*(2.101-U14)*9/L14+G14</f>
+        <f t="shared" si="5"/>
         <v>2.9550713684210526</v>
       </c>
       <c r="W14" s="7">
-        <f>G14-V14</f>
+        <f t="shared" si="6"/>
         <v>-0.32827711004784677</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>41</v>
       </c>
@@ -2183,14 +2194,14 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="G15" s="10">
-        <f>E15*9/M15</f>
+        <f t="shared" si="0"/>
         <v>4.1059907834101397</v>
       </c>
       <c r="H15" s="10">
         <v>4.18</v>
       </c>
       <c r="I15" s="10">
-        <f>(13*N15+3*(O15+P15)-2*(Q15))/M15+R15</f>
+        <f t="shared" si="1"/>
         <v>4.181267281105991</v>
       </c>
       <c r="J15" s="10">
@@ -2203,7 +2214,7 @@
         <v>144.19999999999999</v>
       </c>
       <c r="M15" s="10">
-        <f>(L15-_xlfn.FLOOR.MATH(L15))*10/3+_xlfn.FLOOR.MATH(L15)</f>
+        <f t="shared" si="2"/>
         <v>144.66666666666663</v>
       </c>
       <c r="N15" s="10">
@@ -2222,26 +2233,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S15">
-        <f>C15*0.127-N15</f>
+        <f t="shared" si="3"/>
         <v>4.7639999999999993</v>
       </c>
       <c r="T15">
-        <f>(13*(N15+S15)+3*(O15+P15)-2*Q15)/L15+R15</f>
+        <f t="shared" si="4"/>
         <v>4.6137517337031904</v>
       </c>
       <c r="U15">
         <v>1</v>
       </c>
       <c r="V15">
-        <f>S15*(2.101-U15)*9/L15+G15</f>
+        <f t="shared" si="5"/>
         <v>4.4333588555321928</v>
       </c>
       <c r="W15" s="7">
-        <f>G15-V15</f>
+        <f t="shared" si="6"/>
         <v>-0.3273680721220531</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>48</v>
       </c>
@@ -2261,14 +2272,14 @@
         <v>3.3</v>
       </c>
       <c r="G16" s="10">
-        <f>E16*9/M16</f>
+        <f t="shared" si="0"/>
         <v>3.3013100436681233</v>
       </c>
       <c r="H16" s="10">
         <v>3.66</v>
       </c>
       <c r="I16" s="10">
-        <f>(13*N16+3*(O16+P16)-2*(Q16))/M16+R16</f>
+        <f t="shared" si="1"/>
         <v>3.6611135371179038</v>
       </c>
       <c r="J16" s="10">
@@ -2281,7 +2292,7 @@
         <v>152.19999999999999</v>
       </c>
       <c r="M16" s="10">
-        <f>(L16-_xlfn.FLOOR.MATH(L16))*10/3+_xlfn.FLOOR.MATH(L16)</f>
+        <f t="shared" si="2"/>
         <v>152.66666666666663</v>
       </c>
       <c r="N16" s="10">
@@ -2300,26 +2311,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S16">
-        <f>C16*0.127-N16</f>
+        <f t="shared" si="3"/>
         <v>4.6849999999999987</v>
       </c>
       <c r="T16">
-        <f>(13*(N16+S16)+3*(O16+P16)-2*Q16)/L16+R16</f>
+        <f t="shared" si="4"/>
         <v>4.0625229960578189</v>
       </c>
       <c r="U16">
         <v>1</v>
       </c>
       <c r="V16">
-        <f>S16*(2.101-U16)*9/L16+G16</f>
+        <f t="shared" si="5"/>
         <v>3.6063275535235766</v>
       </c>
       <c r="W16" s="7">
-        <f>G16-V16</f>
+        <f t="shared" si="6"/>
         <v>-0.30501750985545328</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
@@ -2339,14 +2350,14 @@
         <v>3.64</v>
       </c>
       <c r="G17" s="10">
-        <f>E17*9/M17</f>
+        <f t="shared" si="0"/>
         <v>3.6367346938775515</v>
       </c>
       <c r="H17" s="10">
         <v>3.87</v>
       </c>
       <c r="I17" s="10">
-        <f>(13*N17+3*(O17+P17)-2*(Q17))/M17+R17</f>
+        <f t="shared" si="1"/>
         <v>3.8733673469387755</v>
       </c>
       <c r="J17" s="10">
@@ -2359,7 +2370,7 @@
         <v>163.1</v>
       </c>
       <c r="M17" s="10">
-        <f>(L17-_xlfn.FLOOR.MATH(L17))*10/3+_xlfn.FLOOR.MATH(L17)</f>
+        <f t="shared" si="2"/>
         <v>163.33333333333331</v>
       </c>
       <c r="N17" s="10">
@@ -2378,26 +2389,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S17">
-        <f>C17*0.127-N17</f>
+        <f t="shared" si="3"/>
         <v>4.9230000000000018</v>
       </c>
       <c r="T17">
-        <f>(13*(N17+S17)+3*(O17+P17)-2*Q17)/L17+R17</f>
+        <f t="shared" si="4"/>
         <v>4.2666431637032494</v>
       </c>
       <c r="U17">
         <v>1</v>
       </c>
       <c r="V17">
-        <f>S17*(2.101-U17)*9/L17+G17</f>
+        <f t="shared" si="5"/>
         <v>3.9358273180345105</v>
       </c>
       <c r="W17" s="7">
-        <f>G17-V17</f>
+        <f t="shared" si="6"/>
         <v>-0.29909262415695892</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>55</v>
       </c>
@@ -2417,14 +2428,14 @@
         <v>3.61</v>
       </c>
       <c r="G18" s="10">
-        <f>E18*9/M18</f>
+        <f t="shared" si="0"/>
         <v>3.609375</v>
       </c>
       <c r="H18" s="10">
         <v>3.15</v>
       </c>
       <c r="I18" s="10">
-        <f>(13*N18+3*(O18+P18)-2*(Q18))/M18+R18</f>
+        <f t="shared" si="1"/>
         <v>3.1508333333333334</v>
       </c>
       <c r="J18" s="10">
@@ -2437,7 +2448,7 @@
         <v>192</v>
       </c>
       <c r="M18" s="10">
-        <f>(L18-_xlfn.FLOOR.MATH(L18))*10/3+_xlfn.FLOOR.MATH(L18)</f>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="N18" s="10">
@@ -2456,26 +2467,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S18">
-        <f>C18*0.127-N18</f>
+        <f t="shared" si="3"/>
         <v>5.6539999999999999</v>
       </c>
       <c r="T18">
-        <f>(13*(N18+S18)+3*(O18+P18)-2*Q18)/L18+R18</f>
+        <f t="shared" si="4"/>
         <v>3.5336562499999999</v>
       </c>
       <c r="U18">
         <v>1</v>
       </c>
       <c r="V18">
-        <f>S18*(2.101-U18)*9/L18+G18</f>
+        <f t="shared" si="5"/>
         <v>3.90117440625</v>
       </c>
       <c r="W18" s="7">
-        <f>G18-V18</f>
+        <f t="shared" si="6"/>
         <v>-0.29179940625</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>59</v>
       </c>
@@ -2495,14 +2506,14 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="G19" s="10">
-        <f>E19*9/M19</f>
+        <f t="shared" si="0"/>
         <v>4.3058161350844291</v>
       </c>
       <c r="H19" s="10">
         <v>4.49</v>
       </c>
       <c r="I19" s="10">
-        <f>(13*N19+3*(O19+P19)-2*(Q19))/M19+R19</f>
+        <f t="shared" si="1"/>
         <v>4.4876454033771109</v>
       </c>
       <c r="J19" s="10">
@@ -2515,7 +2526,7 @@
         <v>177.2</v>
       </c>
       <c r="M19" s="10">
-        <f>(L19-_xlfn.FLOOR.MATH(L19))*10/3+_xlfn.FLOOR.MATH(L19)</f>
+        <f t="shared" si="2"/>
         <v>177.66666666666663</v>
       </c>
       <c r="N19" s="10">
@@ -2534,26 +2545,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S19">
-        <f>C19*0.127-N19</f>
+        <f t="shared" si="3"/>
         <v>5.129999999999999</v>
       </c>
       <c r="T19">
-        <f>(13*(N19+S19)+3*(O19+P19)-2*Q19)/L19+R19</f>
+        <f t="shared" si="4"/>
         <v>4.8672460496614001</v>
       </c>
       <c r="U19">
         <v>1</v>
       </c>
       <c r="V19">
-        <f>S19*(2.101-U19)*9/L19+G19</f>
+        <f t="shared" si="5"/>
         <v>4.5926850402763026</v>
       </c>
       <c r="W19" s="7">
-        <f>G19-V19</f>
+        <f t="shared" si="6"/>
         <v>-0.28686890519187358</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>57</v>
       </c>
@@ -2573,14 +2584,14 @@
         <v>4.43</v>
       </c>
       <c r="G20" s="10">
-        <f>E20*9/M20</f>
+        <f t="shared" si="0"/>
         <v>4.427652733118971</v>
       </c>
       <c r="H20" s="10">
         <v>3.96</v>
       </c>
       <c r="I20" s="10">
-        <f>(13*N20+3*(O20+P20)-2*(Q20))/M20+R20</f>
+        <f t="shared" si="1"/>
         <v>3.9591800643086814</v>
       </c>
       <c r="J20" s="10">
@@ -2593,7 +2604,7 @@
         <v>103.2</v>
       </c>
       <c r="M20" s="10">
-        <f>(L20-_xlfn.FLOOR.MATH(L20))*10/3+_xlfn.FLOOR.MATH(L20)</f>
+        <f t="shared" si="2"/>
         <v>103.66666666666667</v>
       </c>
       <c r="N20" s="10">
@@ -2612,26 +2623,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S20">
-        <f>C20*0.127-N20</f>
+        <f t="shared" si="3"/>
         <v>2.9700000000000006</v>
       </c>
       <c r="T20">
-        <f>(13*(N20+S20)+3*(O20+P20)-2*Q20)/L20+R20</f>
+        <f t="shared" si="4"/>
         <v>4.3364922480620152</v>
       </c>
       <c r="U20">
         <v>1</v>
       </c>
       <c r="V20">
-        <f>S20*(2.101-U20)*9/L20+G20</f>
+        <f t="shared" si="5"/>
         <v>4.7128245354445522</v>
       </c>
       <c r="W20" s="7">
-        <f>G20-V20</f>
+        <f t="shared" si="6"/>
         <v>-0.28517180232558115</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>68</v>
       </c>
@@ -2651,14 +2662,14 @@
         <v>3.87</v>
       </c>
       <c r="G21" s="10">
-        <f>E21*9/M21</f>
+        <f t="shared" si="0"/>
         <v>3.8689024390243909</v>
       </c>
       <c r="H21" s="10">
         <v>4.2</v>
       </c>
       <c r="I21" s="10">
-        <f>(13*N21+3*(O21+P21)-2*(Q21))/M21+R21</f>
+        <f t="shared" si="1"/>
         <v>4.1970731707317075</v>
       </c>
       <c r="J21" s="10">
@@ -2671,7 +2682,7 @@
         <v>109.1</v>
       </c>
       <c r="M21" s="10">
-        <f>(L21-_xlfn.FLOOR.MATH(L21))*10/3+_xlfn.FLOOR.MATH(L21)</f>
+        <f t="shared" si="2"/>
         <v>109.33333333333331</v>
       </c>
       <c r="N21" s="10">
@@ -2690,26 +2701,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S21">
-        <f>C21*0.127-N21</f>
+        <f t="shared" si="3"/>
         <v>3.0500000000000007</v>
       </c>
       <c r="T21">
-        <f>(13*(N21+S21)+3*(O21+P21)-2*Q21)/L21+R21</f>
+        <f t="shared" si="4"/>
         <v>4.5625160403299727</v>
       </c>
       <c r="U21">
         <v>1</v>
       </c>
       <c r="V21">
-        <f>S21*(2.101-U21)*9/L21+G21</f>
+        <f t="shared" si="5"/>
         <v>4.1459184793543633</v>
       </c>
       <c r="W21" s="7">
-        <f>G21-V21</f>
+        <f t="shared" si="6"/>
         <v>-0.2770160403299724</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>61</v>
       </c>
@@ -2729,14 +2740,14 @@
         <v>4.58</v>
       </c>
       <c r="G22" s="10">
-        <f>E22*9/M22</f>
+        <f t="shared" si="0"/>
         <v>4.5762711864406782</v>
       </c>
       <c r="H22" s="10">
         <v>3.72</v>
       </c>
       <c r="I22" s="10">
-        <f>(13*N22+3*(O22+P22)-2*(Q22))/M22+R22</f>
+        <f t="shared" si="1"/>
         <v>3.7239265536723165</v>
       </c>
       <c r="J22" s="10">
@@ -2749,7 +2760,7 @@
         <v>177</v>
       </c>
       <c r="M22" s="10">
-        <f>(L22-_xlfn.FLOOR.MATH(L22))*10/3+_xlfn.FLOOR.MATH(L22)</f>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="N22" s="10">
@@ -2768,26 +2779,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S22">
-        <f>C22*0.127-N22</f>
+        <f t="shared" si="3"/>
         <v>4.7489999999999988</v>
       </c>
       <c r="T22">
-        <f>(13*(N22+S22)+3*(O22+P22)-2*Q22)/L22+R22</f>
+        <f t="shared" si="4"/>
         <v>4.0727231638418075</v>
       </c>
       <c r="U22">
         <v>1</v>
       </c>
       <c r="V22">
-        <f>S22*(2.101-U22)*9/L22+G22</f>
+        <f t="shared" si="5"/>
         <v>4.8421346949152539</v>
       </c>
       <c r="W22" s="7">
-        <f>G22-V22</f>
+        <f t="shared" si="6"/>
         <v>-0.26586350847457574</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>74</v>
       </c>
@@ -2807,14 +2818,14 @@
         <v>4.32</v>
       </c>
       <c r="G23" s="10">
-        <f>E23*9/M23</f>
+        <f t="shared" si="0"/>
         <v>4.3172588832487317</v>
       </c>
       <c r="H23" s="10">
         <v>3.98</v>
       </c>
       <c r="I23" s="10">
-        <f>(13*N23+3*(O23+P23)-2*(Q23))/M23+R23</f>
+        <f t="shared" si="1"/>
         <v>3.9783502538071067</v>
       </c>
       <c r="J23" s="10">
@@ -2827,7 +2838,7 @@
         <v>131.1</v>
       </c>
       <c r="M23" s="10">
-        <f>(L23-_xlfn.FLOOR.MATH(L23))*10/3+_xlfn.FLOOR.MATH(L23)</f>
+        <f t="shared" si="2"/>
         <v>131.33333333333331</v>
       </c>
       <c r="N23" s="10">
@@ -2846,26 +2857,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S23">
-        <f>C23*0.127-N23</f>
+        <f t="shared" si="3"/>
         <v>3.3359999999999985</v>
       </c>
       <c r="T23">
-        <f>(13*(N23+S23)+3*(O23+P23)-2*Q23)/L23+R23</f>
+        <f t="shared" si="4"/>
         <v>4.3104385964912275</v>
       </c>
       <c r="U23">
         <v>1</v>
       </c>
       <c r="V23">
-        <f>S23*(2.101-U23)*9/L23+G23</f>
+        <f t="shared" si="5"/>
         <v>4.5694055194043379</v>
       </c>
       <c r="W23" s="7">
-        <f>G23-V23</f>
+        <f t="shared" si="6"/>
         <v>-0.25214663615560617</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>64</v>
       </c>
@@ -2885,14 +2896,14 @@
         <v>4.12</v>
       </c>
       <c r="G24" s="10">
-        <f>E24*9/M24</f>
+        <f t="shared" si="0"/>
         <v>4.1227544910179645</v>
       </c>
       <c r="H24" s="10">
         <v>3.99</v>
       </c>
       <c r="I24" s="10">
-        <f>(13*N24+3*(O24+P24)-2*(Q24))/M24+R24</f>
+        <f t="shared" si="1"/>
         <v>3.9915269461077845</v>
       </c>
       <c r="J24" s="10">
@@ -2905,7 +2916,7 @@
         <v>111.1</v>
       </c>
       <c r="M24" s="10">
-        <f>(L24-_xlfn.FLOOR.MATH(L24))*10/3+_xlfn.FLOOR.MATH(L24)</f>
+        <f t="shared" si="2"/>
         <v>111.33333333333331</v>
       </c>
       <c r="N24" s="10">
@@ -2924,26 +2935,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S24">
-        <f>C24*0.127-N24</f>
+        <f t="shared" si="3"/>
         <v>2.6210000000000004</v>
       </c>
       <c r="T24">
-        <f>(13*(N24+S24)+3*(O24+P24)-2*Q24)/L24+R24</f>
+        <f t="shared" si="4"/>
         <v>4.2997614761476148</v>
       </c>
       <c r="U24">
         <v>1</v>
       </c>
       <c r="V24">
-        <f>S24*(2.101-U24)*9/L24+G24</f>
+        <f t="shared" si="5"/>
         <v>4.3565212686957322</v>
       </c>
       <c r="W24" s="7">
-        <f>G24-V24</f>
+        <f t="shared" si="6"/>
         <v>-0.23376677767776766</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>52</v>
       </c>
@@ -2963,14 +2974,14 @@
         <v>3.06</v>
       </c>
       <c r="G25" s="10">
-        <f>E25*9/M25</f>
+        <f t="shared" si="0"/>
         <v>3.0634615384615387</v>
       </c>
       <c r="H25" s="10">
         <v>3.02</v>
       </c>
       <c r="I25" s="10">
-        <f>(13*N25+3*(O25+P25)-2*(Q25))/M25+R25</f>
+        <f t="shared" si="1"/>
         <v>3.0184615384615383</v>
       </c>
       <c r="J25" s="10">
@@ -2983,7 +2994,7 @@
         <v>173.1</v>
       </c>
       <c r="M25" s="10">
-        <f>(L25-_xlfn.FLOOR.MATH(L25))*10/3+_xlfn.FLOOR.MATH(L25)</f>
+        <f t="shared" si="2"/>
         <v>173.33333333333331</v>
       </c>
       <c r="N25" s="10">
@@ -3002,26 +3013,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S25">
-        <f>C25*0.127-N25</f>
+        <f t="shared" si="3"/>
         <v>4.0339999999999989</v>
       </c>
       <c r="T25">
-        <f>(13*(N25+S25)+3*(O25+P25)-2*Q25)/L25+R25</f>
+        <f t="shared" si="4"/>
         <v>3.3211005199306758</v>
       </c>
       <c r="U25">
         <v>1</v>
       </c>
       <c r="V25">
-        <f>S25*(2.101-U25)*9/L25+G25</f>
+        <f t="shared" si="5"/>
         <v>3.2943853166244503</v>
       </c>
       <c r="W25" s="7">
-        <f>G25-V25</f>
+        <f t="shared" si="6"/>
         <v>-0.23092377816291165</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>66</v>
       </c>
@@ -3041,14 +3052,14 @@
         <v>4.38</v>
       </c>
       <c r="G26" s="10">
-        <f>E26*9/M26</f>
+        <f t="shared" si="0"/>
         <v>4.378378378378379</v>
       </c>
       <c r="H26" s="10">
         <v>4.53</v>
       </c>
       <c r="I26" s="10">
-        <f>(13*N26+3*(O26+P26)-2*(Q26))/M26+R26</f>
+        <f t="shared" si="1"/>
         <v>4.5349227799227805</v>
       </c>
       <c r="J26" s="10">
@@ -3061,7 +3072,7 @@
         <v>172.2</v>
       </c>
       <c r="M26" s="10">
-        <f>(L26-_xlfn.FLOOR.MATH(L26))*10/3+_xlfn.FLOOR.MATH(L26)</f>
+        <f t="shared" si="2"/>
         <v>172.66666666666663</v>
       </c>
       <c r="N26" s="10">
@@ -3080,26 +3091,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S26">
-        <f>C26*0.127-N26</f>
+        <f t="shared" si="3"/>
         <v>3.8760000000000012</v>
       </c>
       <c r="T26">
-        <f>(13*(N26+S26)+3*(O26+P26)-2*Q26)/L26+R26</f>
+        <f t="shared" si="4"/>
         <v>4.8310046457607436</v>
       </c>
       <c r="U26">
         <v>1</v>
       </c>
       <c r="V26">
-        <f>S26*(2.101-U26)*9/L26+G26</f>
+        <f t="shared" si="5"/>
         <v>4.6014171937093895</v>
       </c>
       <c r="W26" s="7">
-        <f>G26-V26</f>
+        <f t="shared" si="6"/>
         <v>-0.22303881533101055</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>70</v>
       </c>
@@ -3119,14 +3130,14 @@
         <v>3.35</v>
       </c>
       <c r="G27" s="10">
-        <f>E27*9/M27</f>
+        <f t="shared" si="0"/>
         <v>3.3513986013986021</v>
       </c>
       <c r="H27" s="10">
         <v>3.34</v>
       </c>
       <c r="I27" s="10">
-        <f>(13*N27+3*(O27+P27)-2*(Q27))/M27+R27</f>
+        <f t="shared" si="1"/>
         <v>3.3441608391608391</v>
       </c>
       <c r="J27" s="10">
@@ -3139,7 +3150,7 @@
         <v>190.2</v>
       </c>
       <c r="M27" s="10">
-        <f>(L27-_xlfn.FLOOR.MATH(L27))*10/3+_xlfn.FLOOR.MATH(L27)</f>
+        <f t="shared" si="2"/>
         <v>190.66666666666663</v>
       </c>
       <c r="N27" s="10">
@@ -3158,26 +3169,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S27">
-        <f>C27*0.127-N27</f>
+        <f t="shared" si="3"/>
         <v>4.161999999999999</v>
       </c>
       <c r="T27">
-        <f>(13*(N27+S27)+3*(O27+P27)-2*Q27)/L27+R27</f>
+        <f t="shared" si="4"/>
         <v>3.6288485804416402</v>
       </c>
       <c r="U27">
         <v>1</v>
       </c>
       <c r="V27">
-        <f>S27*(2.101-U27)*9/L27+G27</f>
+        <f t="shared" si="5"/>
         <v>3.5682296108623244</v>
       </c>
       <c r="W27" s="7">
-        <f>G27-V27</f>
+        <f t="shared" si="6"/>
         <v>-0.21683100946372225</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>62</v>
       </c>
@@ -3197,14 +3208,14 @@
         <v>2.83</v>
       </c>
       <c r="G28" s="10">
-        <f>E28*9/M28</f>
+        <f t="shared" si="0"/>
         <v>2.8280632411067201</v>
       </c>
       <c r="H28" s="10">
         <v>3.27</v>
       </c>
       <c r="I28" s="10">
-        <f>(13*N28+3*(O28+P28)-2*(Q28))/M28+R28</f>
+        <f t="shared" si="1"/>
         <v>3.2668577075098812</v>
       </c>
       <c r="J28" s="10">
@@ -3217,7 +3228,7 @@
         <v>168.2</v>
       </c>
       <c r="M28" s="10">
-        <f>(L28-_xlfn.FLOOR.MATH(L28))*10/3+_xlfn.FLOOR.MATH(L28)</f>
+        <f t="shared" si="2"/>
         <v>168.66666666666663</v>
       </c>
       <c r="N28" s="10">
@@ -3236,26 +3247,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S28">
-        <f>C28*0.127-N28</f>
+        <f t="shared" si="3"/>
         <v>3.3990000000000009</v>
       </c>
       <c r="T28">
-        <f>(13*(N28+S28)+3*(O28+P28)-2*Q28)/L28+R28</f>
+        <f t="shared" si="4"/>
         <v>3.5295957193816885</v>
       </c>
       <c r="U28">
         <v>1</v>
       </c>
       <c r="V28">
-        <f>S28*(2.101-U28)*9/L28+G28</f>
+        <f t="shared" si="5"/>
         <v>3.0283051614396572</v>
       </c>
       <c r="W28" s="7">
-        <f>G28-V28</f>
+        <f t="shared" si="6"/>
         <v>-0.20024192033293708</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>75</v>
       </c>
@@ -3275,14 +3286,14 @@
         <v>3.16</v>
       </c>
       <c r="G29" s="10">
-        <f>E29*9/M29</f>
+        <f t="shared" si="0"/>
         <v>3.1621621621621623</v>
       </c>
       <c r="H29" s="10">
         <v>2.97</v>
       </c>
       <c r="I29" s="10">
-        <f>(13*N29+3*(O29+P29)-2*(Q29))/M29+R29</f>
+        <f t="shared" si="1"/>
         <v>2.9685135135135132</v>
       </c>
       <c r="J29" s="10">
@@ -3295,7 +3306,7 @@
         <v>185</v>
       </c>
       <c r="M29" s="10">
-        <f>(L29-_xlfn.FLOOR.MATH(L29))*10/3+_xlfn.FLOOR.MATH(L29)</f>
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
       <c r="N29" s="10">
@@ -3314,26 +3325,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S29">
-        <f>C29*0.127-N29</f>
+        <f t="shared" si="3"/>
         <v>3.4789999999999992</v>
       </c>
       <c r="T29">
-        <f>(13*(N29+S29)+3*(O29+P29)-2*Q29)/L29+R29</f>
+        <f t="shared" si="4"/>
         <v>3.2129837837837836</v>
       </c>
       <c r="U29">
         <v>1</v>
       </c>
       <c r="V29">
-        <f>S29*(2.101-U29)*9/L29+G29</f>
+        <f t="shared" si="5"/>
         <v>3.3485049243243243</v>
       </c>
       <c r="W29" s="7">
-        <f>G29-V29</f>
+        <f t="shared" si="6"/>
         <v>-0.18634276216216206</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>67</v>
       </c>
@@ -3353,14 +3364,14 @@
         <v>2.75</v>
       </c>
       <c r="G30" s="10">
-        <f>E30*9/M30</f>
+        <f t="shared" si="0"/>
         <v>2.7515923566878979</v>
       </c>
       <c r="H30" s="10">
         <v>3.13</v>
       </c>
       <c r="I30" s="10">
-        <f>(13*N30+3*(O30+P30)-2*(Q30))/M30+R30</f>
+        <f t="shared" si="1"/>
         <v>3.1307961783439491</v>
       </c>
       <c r="J30" s="10">
@@ -3373,7 +3384,7 @@
         <v>104.2</v>
       </c>
       <c r="M30" s="10">
-        <f>(L30-_xlfn.FLOOR.MATH(L30))*10/3+_xlfn.FLOOR.MATH(L30)</f>
+        <f t="shared" si="2"/>
         <v>104.66666666666667</v>
       </c>
       <c r="N30" s="10">
@@ -3392,26 +3403,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S30">
-        <f>C30*0.127-N30</f>
+        <f t="shared" si="3"/>
         <v>1.9380000000000006</v>
       </c>
       <c r="T30">
-        <f>(13*(N30+S30)+3*(O30+P30)-2*Q30)/L30+R30</f>
+        <f t="shared" si="4"/>
         <v>3.3720249520153551</v>
       </c>
       <c r="U30">
         <v>1</v>
       </c>
       <c r="V30">
-        <f>S30*(2.101-U30)*9/L30+G30</f>
+        <f t="shared" si="5"/>
         <v>2.9358883451715831</v>
       </c>
       <c r="W30" s="7">
-        <f>G30-V30</f>
+        <f t="shared" si="6"/>
         <v>-0.18429598848368522</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>81</v>
       </c>
@@ -3431,14 +3442,14 @@
         <v>3.43</v>
       </c>
       <c r="G31" s="10">
-        <f>E31*9/M31</f>
+        <f t="shared" si="0"/>
         <v>3.4295612009237879</v>
       </c>
       <c r="H31" s="10">
         <v>3.96</v>
       </c>
       <c r="I31" s="10">
-        <f>(13*N31+3*(O31+P31)-2*(Q31))/M31+R31</f>
+        <f t="shared" si="1"/>
         <v>3.9616974595842955</v>
       </c>
       <c r="J31" s="10">
@@ -3451,7 +3462,7 @@
         <v>144.1</v>
       </c>
       <c r="M31" s="10">
-        <f>(L31-_xlfn.FLOOR.MATH(L31))*10/3+_xlfn.FLOOR.MATH(L31)</f>
+        <f t="shared" si="2"/>
         <v>144.33333333333331</v>
       </c>
       <c r="N31" s="10">
@@ -3470,26 +3481,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S31">
-        <f>C31*0.127-N31</f>
+        <f t="shared" si="3"/>
         <v>2.6380000000000017</v>
       </c>
       <c r="T31">
-        <f>(13*(N31+S31)+3*(O31+P31)-2*Q31)/L31+R31</f>
+        <f t="shared" si="4"/>
         <v>4.2008292852185987</v>
       </c>
       <c r="U31">
         <v>1</v>
       </c>
       <c r="V31">
-        <f>S31*(2.101-U31)*9/L31+G31</f>
+        <f t="shared" si="5"/>
         <v>3.6109626027280908</v>
       </c>
       <c r="W31" s="7">
-        <f>G31-V31</f>
+        <f t="shared" si="6"/>
         <v>-0.18140140180430286</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>72</v>
       </c>
@@ -3509,14 +3520,14 @@
         <v>3.76</v>
       </c>
       <c r="G32" s="10">
-        <f>E32*9/M32</f>
+        <f t="shared" si="0"/>
         <v>3.7640750670241294</v>
       </c>
       <c r="H32" s="10">
         <v>3.51</v>
       </c>
       <c r="I32" s="10">
-        <f>(13*N32+3*(O32+P32)-2*(Q32))/M32+R32</f>
+        <f t="shared" si="1"/>
         <v>3.512372654155496</v>
       </c>
       <c r="J32" s="10">
@@ -3529,7 +3540,7 @@
         <v>124.1</v>
       </c>
       <c r="M32" s="10">
-        <f>(L32-_xlfn.FLOOR.MATH(L32))*10/3+_xlfn.FLOOR.MATH(L32)</f>
+        <f t="shared" si="2"/>
         <v>124.33333333333331</v>
       </c>
       <c r="N32" s="10">
@@ -3548,26 +3559,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S32">
-        <f>C32*0.127-N32</f>
+        <f t="shared" si="3"/>
         <v>2.2240000000000002</v>
       </c>
       <c r="T32">
-        <f>(13*(N32+S32)+3*(O32+P32)-2*Q32)/L32+R32</f>
+        <f t="shared" si="4"/>
         <v>3.7458299758259468</v>
       </c>
       <c r="U32">
         <v>1</v>
       </c>
       <c r="V32">
-        <f>S32*(2.101-U32)*9/L32+G32</f>
+        <f t="shared" si="5"/>
         <v>3.9416545674270305</v>
       </c>
       <c r="W32" s="7">
-        <f>G32-V32</f>
+        <f t="shared" si="6"/>
         <v>-0.17757950040290105</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>82</v>
       </c>
@@ -3587,14 +3598,14 @@
         <v>5.31</v>
       </c>
       <c r="G33" s="10">
-        <f>E33*9/M33</f>
+        <f t="shared" si="0"/>
         <v>5.3125</v>
       </c>
       <c r="H33" s="10">
         <v>5.07</v>
       </c>
       <c r="I33" s="10">
-        <f>(13*N33+3*(O33+P33)-2*(Q33))/M33+R33</f>
+        <f t="shared" si="1"/>
         <v>5.0674999999999999</v>
       </c>
       <c r="J33" s="10">
@@ -3607,7 +3618,7 @@
         <v>144</v>
       </c>
       <c r="M33" s="10">
-        <f>(L33-_xlfn.FLOOR.MATH(L33))*10/3+_xlfn.FLOOR.MATH(L33)</f>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="N33" s="10">
@@ -3626,26 +3637,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S33">
-        <f>C33*0.127-N33</f>
+        <f t="shared" si="3"/>
         <v>2.5429999999999993</v>
       </c>
       <c r="T33">
-        <f>(13*(N33+S33)+3*(O33+P33)-2*Q33)/L33+R33</f>
+        <f t="shared" si="4"/>
         <v>5.2970763888888888</v>
       </c>
       <c r="U33">
         <v>1</v>
       </c>
       <c r="V33">
-        <f>S33*(2.101-U33)*9/L33+G33</f>
+        <f t="shared" si="5"/>
         <v>5.4874901874999997</v>
       </c>
       <c r="W33" s="7">
-        <f>G33-V33</f>
+        <f t="shared" si="6"/>
         <v>-0.17499018749999973</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>78</v>
       </c>
@@ -3665,14 +3676,14 @@
         <v>3.47</v>
       </c>
       <c r="G34" s="10">
-        <f>E34*9/M34</f>
+        <f t="shared" ref="G34:G65" si="7">E34*9/M34</f>
         <v>3.4714285714285715</v>
       </c>
       <c r="H34" s="10">
         <v>3.26</v>
       </c>
       <c r="I34" s="10">
-        <f>(13*N34+3*(O34+P34)-2*(Q34))/M34+R34</f>
+        <f t="shared" ref="I34:I65" si="8">(13*N34+3*(O34+P34)-2*(Q34))/M34+R34</f>
         <v>3.2645238095238094</v>
       </c>
       <c r="J34" s="10">
@@ -3685,7 +3696,7 @@
         <v>210</v>
       </c>
       <c r="M34" s="10">
-        <f>(L34-_xlfn.FLOOR.MATH(L34))*10/3+_xlfn.FLOOR.MATH(L34)</f>
+        <f t="shared" ref="M34:M65" si="9">(L34-_xlfn.FLOOR.MATH(L34))*10/3+_xlfn.FLOOR.MATH(L34)</f>
         <v>210</v>
       </c>
       <c r="N34" s="10">
@@ -3704,26 +3715,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S34">
-        <f>C34*0.127-N34</f>
+        <f t="shared" ref="S34:S65" si="10">C34*0.127-N34</f>
         <v>3.527000000000001</v>
       </c>
       <c r="T34">
-        <f>(13*(N34+S34)+3*(O34+P34)-2*Q34)/L34+R34</f>
+        <f t="shared" ref="T34:T65" si="11">(13*(N34+S34)+3*(O34+P34)-2*Q34)/L34+R34</f>
         <v>3.4828619047619047</v>
       </c>
       <c r="U34">
         <v>1</v>
       </c>
       <c r="V34">
-        <f>S34*(2.101-U34)*9/L34+G34</f>
+        <f t="shared" ref="V34:V65" si="12">S34*(2.101-U34)*9/L34+G34</f>
         <v>3.637852585714286</v>
       </c>
       <c r="W34" s="7">
-        <f>G34-V34</f>
+        <f t="shared" ref="W34:W65" si="13">G34-V34</f>
         <v>-0.16642401428571452</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>80</v>
       </c>
@@ -3743,14 +3754,14 @@
         <v>4.18</v>
       </c>
       <c r="G35" s="10">
-        <f>E35*9/M35</f>
+        <f t="shared" si="7"/>
         <v>4.1764705882352944</v>
       </c>
       <c r="H35" s="10">
         <v>4.46</v>
       </c>
       <c r="I35" s="10">
-        <f>(13*N35+3*(O35+P35)-2*(Q35))/M35+R35</f>
+        <f t="shared" si="8"/>
         <v>4.4641503267973857</v>
       </c>
       <c r="J35" s="10">
@@ -3763,7 +3774,7 @@
         <v>153</v>
       </c>
       <c r="M35" s="10">
-        <f>(L35-_xlfn.FLOOR.MATH(L35))*10/3+_xlfn.FLOOR.MATH(L35)</f>
+        <f t="shared" si="9"/>
         <v>153</v>
       </c>
       <c r="N35" s="10">
@@ -3782,26 +3793,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S35">
-        <f>C35*0.127-N35</f>
+        <f t="shared" si="10"/>
         <v>2.4789999999999992</v>
       </c>
       <c r="T35">
-        <f>(13*(N35+S35)+3*(O35+P35)-2*Q35)/L35+R35</f>
+        <f t="shared" si="11"/>
         <v>4.6747843137254899</v>
       </c>
       <c r="U35">
         <v>1</v>
       </c>
       <c r="V35">
-        <f>S35*(2.101-U35)*9/L35+G35</f>
+        <f t="shared" si="12"/>
         <v>4.3370222941176468</v>
       </c>
       <c r="W35" s="7">
-        <f>G35-V35</f>
+        <f t="shared" si="13"/>
         <v>-0.16055170588235246</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>22</v>
       </c>
@@ -3821,14 +3832,14 @@
         <v>3.86</v>
       </c>
       <c r="G36" s="10">
-        <f>E36*9/M36</f>
+        <f t="shared" si="7"/>
         <v>3.8571428571428572</v>
       </c>
       <c r="H36" s="10">
         <v>3.75</v>
       </c>
       <c r="I36" s="10">
-        <f>(13*N36+3*(O36+P36)-2*(Q36))/M36+R36</f>
+        <f t="shared" si="8"/>
         <v>3.7502380952380951</v>
       </c>
       <c r="J36" s="10">
@@ -3841,7 +3852,7 @@
         <v>105</v>
       </c>
       <c r="M36" s="10">
-        <f>(L36-_xlfn.FLOOR.MATH(L36))*10/3+_xlfn.FLOOR.MATH(L36)</f>
+        <f t="shared" si="9"/>
         <v>105</v>
       </c>
       <c r="N36" s="10">
@@ -3860,26 +3871,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S36">
-        <f>C36*0.127-N36</f>
+        <f t="shared" si="10"/>
         <v>1.6999999999999993</v>
       </c>
       <c r="T36">
-        <f>(13*(N36+S36)+3*(O36+P36)-2*Q36)/L36+R36</f>
+        <f t="shared" si="11"/>
         <v>3.9607142857142859</v>
       </c>
       <c r="U36">
         <v>1</v>
       </c>
       <c r="V36">
-        <f>S36*(2.101-U36)*9/L36+G36</f>
+        <f t="shared" si="12"/>
         <v>4.0175742857142858</v>
       </c>
       <c r="W36" s="7">
-        <f>G36-V36</f>
+        <f t="shared" si="13"/>
         <v>-0.16043142857142856</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>63</v>
       </c>
@@ -3899,14 +3910,14 @@
         <v>3.95</v>
       </c>
       <c r="G37" s="10">
-        <f>E37*9/M37</f>
+        <f t="shared" si="7"/>
         <v>3.9512195121951232</v>
       </c>
       <c r="H37" s="10">
         <v>3.58</v>
       </c>
       <c r="I37" s="10">
-        <f>(13*N37+3*(O37+P37)-2*(Q37))/M37+R37</f>
+        <f t="shared" si="8"/>
         <v>3.5769512195121953</v>
       </c>
       <c r="J37" s="10">
@@ -3919,7 +3930,7 @@
         <v>136.19999999999999</v>
       </c>
       <c r="M37" s="10">
-        <f>(L37-_xlfn.FLOOR.MATH(L37))*10/3+_xlfn.FLOOR.MATH(L37)</f>
+        <f t="shared" si="9"/>
         <v>136.66666666666663</v>
       </c>
       <c r="N37" s="10">
@@ -3938,26 +3949,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S37">
-        <f>C37*0.127-N37</f>
+        <f t="shared" si="10"/>
         <v>2.1760000000000002</v>
       </c>
       <c r="T37">
-        <f>(13*(N37+S37)+3*(O37+P37)-2*Q37)/L37+R37</f>
+        <f t="shared" si="11"/>
         <v>3.7857488986784142</v>
       </c>
       <c r="U37">
         <v>1</v>
       </c>
       <c r="V37">
-        <f>S37*(2.101-U37)*9/L37+G37</f>
+        <f t="shared" si="12"/>
         <v>4.1095307016224361</v>
       </c>
       <c r="W37" s="7">
-        <f>G37-V37</f>
+        <f t="shared" si="13"/>
         <v>-0.15831118942731282</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>86</v>
       </c>
@@ -3977,14 +3988,14 @@
         <v>3.91</v>
       </c>
       <c r="G38" s="10">
-        <f>E38*9/M38</f>
+        <f t="shared" si="7"/>
         <v>3.9056603773584904</v>
       </c>
       <c r="H38" s="10">
         <v>4.93</v>
       </c>
       <c r="I38" s="10">
-        <f>(13*N38+3*(O38+P38)-2*(Q38))/M38+R38</f>
+        <f t="shared" si="8"/>
         <v>4.9342452830188677</v>
       </c>
       <c r="J38" s="10">
@@ -3997,7 +4008,7 @@
         <v>159</v>
       </c>
       <c r="M38" s="10">
-        <f>(L38-_xlfn.FLOOR.MATH(L38))*10/3+_xlfn.FLOOR.MATH(L38)</f>
+        <f t="shared" si="9"/>
         <v>159</v>
       </c>
       <c r="N38" s="10">
@@ -4016,26 +4027,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S38">
-        <f>C38*0.127-N38</f>
+        <f t="shared" si="10"/>
         <v>2.2570000000000014</v>
       </c>
       <c r="T38">
-        <f>(13*(N38+S38)+3*(O38+P38)-2*Q38)/L38+R38</f>
+        <f t="shared" si="11"/>
         <v>5.1187798742138364</v>
       </c>
       <c r="U38">
         <v>1</v>
       </c>
       <c r="V38">
-        <f>S38*(2.101-U38)*9/L38+G38</f>
+        <f t="shared" si="12"/>
         <v>4.0463183207547164</v>
       </c>
       <c r="W38" s="7">
-        <f>G38-V38</f>
+        <f t="shared" si="13"/>
         <v>-0.14065794339622606</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>77</v>
       </c>
@@ -4055,14 +4066,14 @@
         <v>2.25</v>
       </c>
       <c r="G39" s="10">
-        <f>E39*9/M39</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="H39" s="10">
         <v>3.44</v>
       </c>
       <c r="I39" s="10">
-        <f>(13*N39+3*(O39+P39)-2*(Q39))/M39+R39</f>
+        <f t="shared" si="8"/>
         <v>3.438333333333333</v>
       </c>
       <c r="J39" s="10">
@@ -4075,7 +4086,7 @@
         <v>180</v>
       </c>
       <c r="M39" s="10">
-        <f>(L39-_xlfn.FLOOR.MATH(L39))*10/3+_xlfn.FLOOR.MATH(L39)</f>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="N39" s="10">
@@ -4094,26 +4105,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S39">
-        <f>C39*0.127-N39</f>
+        <f t="shared" si="10"/>
         <v>2.5259999999999998</v>
       </c>
       <c r="T39">
-        <f>(13*(N39+S39)+3*(O39+P39)-2*Q39)/L39+R39</f>
+        <f t="shared" si="11"/>
         <v>3.6207666666666665</v>
       </c>
       <c r="U39">
         <v>1</v>
       </c>
       <c r="V39">
-        <f>S39*(2.101-U39)*9/L39+G39</f>
+        <f t="shared" si="12"/>
         <v>2.3890563</v>
       </c>
       <c r="W39" s="7">
-        <f>G39-V39</f>
+        <f t="shared" si="13"/>
         <v>-0.13905630000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>84</v>
       </c>
@@ -4133,14 +4144,14 @@
         <v>3.58</v>
       </c>
       <c r="G40" s="10">
-        <f>E40*9/M40</f>
+        <f t="shared" si="7"/>
         <v>3.5764925373134338</v>
       </c>
       <c r="H40" s="10">
         <v>3.55</v>
       </c>
       <c r="I40" s="10">
-        <f>(13*N40+3*(O40+P40)-2*(Q40))/M40+R40</f>
+        <f t="shared" si="8"/>
         <v>3.551641791044776</v>
       </c>
       <c r="J40" s="10">
@@ -4153,7 +4164,7 @@
         <v>178.2</v>
       </c>
       <c r="M40" s="10">
-        <f>(L40-_xlfn.FLOOR.MATH(L40))*10/3+_xlfn.FLOOR.MATH(L40)</f>
+        <f t="shared" si="9"/>
         <v>178.66666666666663</v>
       </c>
       <c r="N40" s="10">
@@ -4172,26 +4183,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S40">
-        <f>C40*0.127-N40</f>
+        <f t="shared" si="10"/>
         <v>2.2570000000000014</v>
       </c>
       <c r="T40">
-        <f>(13*(N40+S40)+3*(O40+P40)-2*Q40)/L40+R40</f>
+        <f t="shared" si="11"/>
         <v>3.717070707070707</v>
       </c>
       <c r="U40">
         <v>1</v>
       </c>
       <c r="V40">
-        <f>S40*(2.101-U40)*9/L40+G40</f>
+        <f t="shared" si="12"/>
         <v>3.7019954161013127</v>
       </c>
       <c r="W40" s="7">
-        <f>G40-V40</f>
+        <f t="shared" si="13"/>
         <v>-0.12550287878787891</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>90</v>
       </c>
@@ -4211,14 +4222,14 @@
         <v>3.14</v>
       </c>
       <c r="G41" s="10">
-        <f>E41*9/M41</f>
+        <f t="shared" si="7"/>
         <v>3.1412742382271475</v>
       </c>
       <c r="H41" s="10">
         <v>4.6900000000000004</v>
       </c>
       <c r="I41" s="10">
-        <f>(13*N41+3*(O41+P41)-2*(Q41))/M41+R41</f>
+        <f t="shared" si="8"/>
         <v>4.6926731301939064</v>
       </c>
       <c r="J41" s="10">
@@ -4231,7 +4242,7 @@
         <v>120.1</v>
       </c>
       <c r="M41" s="10">
-        <f>(L41-_xlfn.FLOOR.MATH(L41))*10/3+_xlfn.FLOOR.MATH(L41)</f>
+        <f t="shared" si="9"/>
         <v>120.33333333333331</v>
       </c>
       <c r="N41" s="10">
@@ -4250,26 +4261,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S41">
-        <f>C41*0.127-N41</f>
+        <f t="shared" si="10"/>
         <v>1.3990000000000009</v>
       </c>
       <c r="T41">
-        <f>(13*(N41+S41)+3*(O41+P41)-2*Q41)/L41+R41</f>
+        <f t="shared" si="11"/>
         <v>4.8468984179850123</v>
       </c>
       <c r="U41">
         <v>1</v>
       </c>
       <c r="V41">
-        <f>S41*(2.101-U41)*9/L41+G41</f>
+        <f t="shared" si="12"/>
         <v>3.2567004746967561</v>
       </c>
       <c r="W41" s="7">
-        <f>G41-V41</f>
+        <f t="shared" si="13"/>
         <v>-0.11542623646960859</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>83</v>
       </c>
@@ -4289,14 +4300,14 @@
         <v>4.18</v>
       </c>
       <c r="G42" s="10">
-        <f>E42*9/M42</f>
+        <f t="shared" si="7"/>
         <v>4.1760000000000002</v>
       </c>
       <c r="H42" s="10">
         <v>3.9</v>
       </c>
       <c r="I42" s="10">
-        <f>(13*N42+3*(O42+P42)-2*(Q42))/M42+R42</f>
+        <f t="shared" si="8"/>
         <v>3.903</v>
       </c>
       <c r="J42" s="10">
@@ -4309,7 +4320,7 @@
         <v>125</v>
       </c>
       <c r="M42" s="10">
-        <f>(L42-_xlfn.FLOOR.MATH(L42))*10/3+_xlfn.FLOOR.MATH(L42)</f>
+        <f t="shared" si="9"/>
         <v>125</v>
       </c>
       <c r="N42" s="10">
@@ -4328,26 +4339,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S42">
-        <f>C42*0.127-N42</f>
+        <f t="shared" si="10"/>
         <v>1.3510000000000009</v>
       </c>
       <c r="T42">
-        <f>(13*(N42+S42)+3*(O42+P42)-2*Q42)/L42+R42</f>
+        <f t="shared" si="11"/>
         <v>4.0435039999999995</v>
       </c>
       <c r="U42">
         <v>1</v>
       </c>
       <c r="V42">
-        <f>S42*(2.101-U42)*9/L42+G42</f>
+        <f t="shared" si="12"/>
         <v>4.2830964720000004</v>
       </c>
       <c r="W42" s="7">
-        <f>G42-V42</f>
+        <f t="shared" si="13"/>
         <v>-0.10709647200000028</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>96</v>
       </c>
@@ -4367,14 +4378,14 @@
         <v>3.83</v>
       </c>
       <c r="G43" s="10">
-        <f>E43*9/M43</f>
+        <f t="shared" si="7"/>
         <v>3.8288508557457219</v>
       </c>
       <c r="H43" s="10">
         <v>4.66</v>
       </c>
       <c r="I43" s="10">
-        <f>(13*N43+3*(O43+P43)-2*(Q43))/M43+R43</f>
+        <f t="shared" si="8"/>
         <v>4.663312958435208</v>
       </c>
       <c r="J43" s="10">
@@ -4387,7 +4398,7 @@
         <v>136.1</v>
       </c>
       <c r="M43" s="10">
-        <f>(L43-_xlfn.FLOOR.MATH(L43))*10/3+_xlfn.FLOOR.MATH(L43)</f>
+        <f t="shared" si="9"/>
         <v>136.33333333333331</v>
       </c>
       <c r="N43" s="10">
@@ -4406,26 +4417,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S43">
-        <f>C43*0.127-N43</f>
+        <f t="shared" si="10"/>
         <v>1.4469999999999992</v>
       </c>
       <c r="T43">
-        <f>(13*(N43+S43)+3*(O43+P43)-2*Q43)/L43+R43</f>
+        <f t="shared" si="11"/>
         <v>4.8039419544452606</v>
       </c>
       <c r="U43">
         <v>1</v>
       </c>
       <c r="V43">
-        <f>S43*(2.101-U43)*9/L43+G43</f>
+        <f t="shared" si="12"/>
         <v>3.9342022370829737</v>
       </c>
       <c r="W43" s="7">
-        <f>G43-V43</f>
+        <f t="shared" si="13"/>
         <v>-0.10535138133725175</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>93</v>
       </c>
@@ -4445,14 +4456,14 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="G44" s="10">
-        <f>E44*9/M44</f>
+        <f t="shared" si="7"/>
         <v>4.4798206278026917</v>
       </c>
       <c r="H44" s="10">
         <v>4.13</v>
       </c>
       <c r="I44" s="10">
-        <f>(13*N44+3*(O44+P44)-2*(Q44))/M44+R44</f>
+        <f t="shared" si="8"/>
         <v>4.1294394618834085</v>
       </c>
       <c r="J44" s="10">
@@ -4465,7 +4476,7 @@
         <v>148.19999999999999</v>
       </c>
       <c r="M44" s="10">
-        <f>(L44-_xlfn.FLOOR.MATH(L44))*10/3+_xlfn.FLOOR.MATH(L44)</f>
+        <f t="shared" si="9"/>
         <v>148.66666666666663</v>
       </c>
       <c r="N44" s="10">
@@ -4484,26 +4495,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S44">
-        <f>C44*0.127-N44</f>
+        <f t="shared" si="10"/>
         <v>1.5740000000000016</v>
       </c>
       <c r="T44">
-        <f>(13*(N44+S44)+3*(O44+P44)-2*Q44)/L44+R44</f>
+        <f t="shared" si="11"/>
         <v>4.2702631578947372</v>
       </c>
       <c r="U44">
         <v>1</v>
       </c>
       <c r="V44">
-        <f>S44*(2.101-U44)*9/L44+G44</f>
+        <f t="shared" si="12"/>
         <v>4.5850619638350807</v>
       </c>
       <c r="W44" s="7">
-        <f>G44-V44</f>
+        <f t="shared" si="13"/>
         <v>-0.10524133603238894</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>88</v>
       </c>
@@ -4523,14 +4534,14 @@
         <v>2.98</v>
       </c>
       <c r="G45" s="10">
-        <f>E45*9/M45</f>
+        <f t="shared" si="7"/>
         <v>2.9759519038076157</v>
       </c>
       <c r="H45" s="10">
         <v>3.63</v>
       </c>
       <c r="I45" s="10">
-        <f>(13*N45+3*(O45+P45)-2*(Q45))/M45+R45</f>
+        <f t="shared" si="8"/>
         <v>3.6337575150300601</v>
       </c>
       <c r="J45" s="10">
@@ -4543,7 +4554,7 @@
         <v>166.1</v>
       </c>
       <c r="M45" s="10">
-        <f>(L45-_xlfn.FLOOR.MATH(L45))*10/3+_xlfn.FLOOR.MATH(L45)</f>
+        <f t="shared" si="9"/>
         <v>166.33333333333331</v>
       </c>
       <c r="N45" s="10">
@@ -4562,26 +4573,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S45">
-        <f>C45*0.127-N45</f>
+        <f t="shared" si="10"/>
         <v>1.6690000000000005</v>
       </c>
       <c r="T45">
-        <f>(13*(N45+S45)+3*(O45+P45)-2*Q45)/L45+R45</f>
+        <f t="shared" si="11"/>
         <v>3.7649157134256472</v>
       </c>
       <c r="U45">
         <v>1</v>
       </c>
       <c r="V45">
-        <f>S45*(2.101-U45)*9/L45+G45</f>
+        <f t="shared" si="12"/>
         <v>3.0755191584734796</v>
       </c>
       <c r="W45" s="7">
-        <f>G45-V45</f>
+        <f t="shared" si="13"/>
         <v>-9.9567254665863913E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>94</v>
       </c>
@@ -4601,14 +4612,14 @@
         <v>3.7</v>
       </c>
       <c r="G46" s="10">
-        <f>E46*9/M46</f>
+        <f t="shared" si="7"/>
         <v>3.7007722007722017</v>
       </c>
       <c r="H46" s="10">
         <v>4.2699999999999996</v>
       </c>
       <c r="I46" s="10">
-        <f>(13*N46+3*(O46+P46)-2*(Q46))/M46+R46</f>
+        <f t="shared" si="8"/>
         <v>4.2685135135135139</v>
       </c>
       <c r="J46" s="10">
@@ -4621,7 +4632,7 @@
         <v>172.2</v>
       </c>
       <c r="M46" s="10">
-        <f>(L46-_xlfn.FLOOR.MATH(L46))*10/3+_xlfn.FLOOR.MATH(L46)</f>
+        <f t="shared" si="9"/>
         <v>172.66666666666663</v>
       </c>
       <c r="N46" s="10">
@@ -4640,26 +4651,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S46">
-        <f>C46*0.127-N46</f>
+        <f t="shared" si="10"/>
         <v>1.5899999999999999</v>
       </c>
       <c r="T46">
-        <f>(13*(N46+S46)+3*(O46+P46)-2*Q46)/L46+R46</f>
+        <f t="shared" si="11"/>
         <v>4.3912950058072013</v>
       </c>
       <c r="U46">
         <v>1</v>
       </c>
       <c r="V46">
-        <f>S46*(2.101-U46)*9/L46+G46</f>
+        <f t="shared" si="12"/>
         <v>3.792266451643282</v>
       </c>
       <c r="W46" s="7">
-        <f>G46-V46</f>
+        <f t="shared" si="13"/>
         <v>-9.1494250871080318E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>91</v>
       </c>
@@ -4679,14 +4690,14 @@
         <v>3.5</v>
       </c>
       <c r="G47" s="10">
-        <f>E47*9/M47</f>
+        <f t="shared" si="7"/>
         <v>3.4953095684803008</v>
       </c>
       <c r="H47" s="10">
         <v>3.01</v>
       </c>
       <c r="I47" s="10">
-        <f>(13*N47+3*(O47+P47)-2*(Q47))/M47+R47</f>
+        <f t="shared" si="8"/>
         <v>3.0073452157598499</v>
       </c>
       <c r="J47" s="10">
@@ -4699,7 +4710,7 @@
         <v>177.2</v>
       </c>
       <c r="M47" s="10">
-        <f>(L47-_xlfn.FLOOR.MATH(L47))*10/3+_xlfn.FLOOR.MATH(L47)</f>
+        <f t="shared" si="9"/>
         <v>177.66666666666663</v>
       </c>
       <c r="N47" s="10">
@@ -4718,26 +4729,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S47">
-        <f>C47*0.127-N47</f>
+        <f t="shared" si="10"/>
         <v>1.5740000000000016</v>
       </c>
       <c r="T47">
-        <f>(13*(N47+S47)+3*(O47+P47)-2*Q47)/L47+R47</f>
+        <f t="shared" si="11"/>
         <v>3.1221670428893908</v>
       </c>
       <c r="U47">
         <v>1</v>
       </c>
       <c r="V47">
-        <f>S47*(2.101-U47)*9/L47+G47</f>
+        <f t="shared" si="12"/>
         <v>3.5833274352974569</v>
       </c>
       <c r="W47" s="7">
-        <f>G47-V47</f>
+        <f t="shared" si="13"/>
         <v>-8.8017866817156065E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>97</v>
       </c>
@@ -4757,14 +4768,14 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="G48" s="10">
-        <f>E48*9/M48</f>
+        <f t="shared" si="7"/>
         <v>4.4362606232294617</v>
       </c>
       <c r="H48" s="10">
         <v>3.9</v>
       </c>
       <c r="I48" s="10">
-        <f>(13*N48+3*(O48+P48)-2*(Q48))/M48+R48</f>
+        <f t="shared" si="8"/>
         <v>3.9008923512747873</v>
       </c>
       <c r="J48" s="10">
@@ -4777,7 +4788,7 @@
         <v>117.2</v>
       </c>
       <c r="M48" s="10">
-        <f>(L48-_xlfn.FLOOR.MATH(L48))*10/3+_xlfn.FLOOR.MATH(L48)</f>
+        <f t="shared" si="9"/>
         <v>117.66666666666667</v>
       </c>
       <c r="N48" s="10">
@@ -4796,26 +4807,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S48">
-        <f>C48*0.127-N48</f>
+        <f t="shared" si="10"/>
         <v>0.98600000000000065</v>
       </c>
       <c r="T48">
-        <f>(13*(N48+S48)+3*(O48+P48)-2*Q48)/L48+R48</f>
+        <f t="shared" si="11"/>
         <v>4.0128327645051192</v>
       </c>
       <c r="U48">
         <v>1</v>
       </c>
       <c r="V48">
-        <f>S48*(2.101-U48)*9/L48+G48</f>
+        <f t="shared" si="12"/>
         <v>4.5196247358574482</v>
       </c>
       <c r="W48" s="7">
-        <f>G48-V48</f>
+        <f t="shared" si="13"/>
         <v>-8.3364112627986486E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>101</v>
       </c>
@@ -4835,14 +4846,14 @@
         <v>3.81</v>
       </c>
       <c r="G49" s="10">
-        <f>E49*9/M49</f>
+        <f t="shared" si="7"/>
         <v>3.8058510638297878</v>
       </c>
       <c r="H49" s="10">
         <v>4.1900000000000004</v>
       </c>
       <c r="I49" s="10">
-        <f>(13*N49+3*(O49+P49)-2*(Q49))/M49+R49</f>
+        <f t="shared" si="8"/>
         <v>4.1885106382978723</v>
       </c>
       <c r="J49" s="10">
@@ -4855,7 +4866,7 @@
         <v>125.1</v>
       </c>
       <c r="M49" s="10">
-        <f>(L49-_xlfn.FLOOR.MATH(L49))*10/3+_xlfn.FLOOR.MATH(L49)</f>
+        <f t="shared" si="9"/>
         <v>125.33333333333331</v>
       </c>
       <c r="N49" s="10">
@@ -4874,26 +4885,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S49">
-        <f>C49*0.127-N49</f>
+        <f t="shared" si="10"/>
         <v>0.89100000000000179</v>
       </c>
       <c r="T49">
-        <f>(13*(N49+S49)+3*(O49+P49)-2*Q49)/L49+R49</f>
+        <f t="shared" si="11"/>
         <v>4.2828417266187051</v>
       </c>
       <c r="U49">
         <v>1</v>
       </c>
       <c r="V49">
-        <f>S49*(2.101-U49)*9/L49+G49</f>
+        <f t="shared" si="12"/>
         <v>3.8764259559161189</v>
       </c>
       <c r="W49" s="7">
-        <f>G49-V49</f>
+        <f t="shared" si="13"/>
         <v>-7.0574892086331165E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>104</v>
       </c>
@@ -4913,14 +4924,14 @@
         <v>4.46</v>
       </c>
       <c r="G50" s="10">
-        <f>E50*9/M50</f>
+        <f t="shared" si="7"/>
         <v>4.4615384615384617</v>
       </c>
       <c r="H50" s="10">
         <v>4.63</v>
       </c>
       <c r="I50" s="10">
-        <f>(13*N50+3*(O50+P50)-2*(Q50))/M50+R50</f>
+        <f t="shared" si="8"/>
         <v>4.6310683760683755</v>
       </c>
       <c r="J50" s="10">
@@ -4933,7 +4944,7 @@
         <v>117</v>
       </c>
       <c r="M50" s="10">
-        <f>(L50-_xlfn.FLOOR.MATH(L50))*10/3+_xlfn.FLOOR.MATH(L50)</f>
+        <f t="shared" si="9"/>
         <v>117</v>
       </c>
       <c r="N50" s="10">
@@ -4952,26 +4963,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S50">
-        <f>C50*0.127-N50</f>
+        <f t="shared" si="10"/>
         <v>0.79599999999999937</v>
       </c>
       <c r="T50">
-        <f>(13*(N50+S50)+3*(O50+P50)-2*Q50)/L50+R50</f>
+        <f t="shared" si="11"/>
         <v>4.7195128205128203</v>
       </c>
       <c r="U50">
         <v>1</v>
       </c>
       <c r="V50">
-        <f>S50*(2.101-U50)*9/L50+G50</f>
+        <f t="shared" si="12"/>
         <v>4.5289535384615389</v>
       </c>
       <c r="W50" s="7">
-        <f>G50-V50</f>
+        <f t="shared" si="13"/>
         <v>-6.7415076923077244E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>99</v>
       </c>
@@ -4991,14 +5002,14 @@
         <v>3.8</v>
       </c>
       <c r="G51" s="10">
-        <f>E51*9/M51</f>
+        <f t="shared" si="7"/>
         <v>3.796875</v>
       </c>
       <c r="H51" s="10">
         <v>3.87</v>
       </c>
       <c r="I51" s="10">
-        <f>(13*N51+3*(O51+P51)-2*(Q51))/M51+R51</f>
+        <f t="shared" si="8"/>
         <v>3.8721874999999999</v>
       </c>
       <c r="J51" s="10">
@@ -5011,7 +5022,7 @@
         <v>128</v>
       </c>
       <c r="M51" s="10">
-        <f>(L51-_xlfn.FLOOR.MATH(L51))*10/3+_xlfn.FLOOR.MATH(L51)</f>
+        <f t="shared" si="9"/>
         <v>128</v>
       </c>
       <c r="N51" s="10">
@@ -5030,26 +5041,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S51">
-        <f>C51*0.127-N51</f>
+        <f t="shared" si="10"/>
         <v>0.85899999999999999</v>
       </c>
       <c r="T51">
-        <f>(13*(N51+S51)+3*(O51+P51)-2*Q51)/L51+R51</f>
+        <f t="shared" si="11"/>
         <v>3.9594296875000001</v>
       </c>
       <c r="U51">
         <v>1</v>
       </c>
       <c r="V51">
-        <f>S51*(2.101-U51)*9/L51+G51</f>
+        <f t="shared" si="12"/>
         <v>3.8633736796875002</v>
       </c>
       <c r="W51" s="7">
-        <f>G51-V51</f>
+        <f t="shared" si="13"/>
         <v>-6.6498679687500228E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>100</v>
       </c>
@@ -5069,14 +5080,14 @@
         <v>3.63</v>
       </c>
       <c r="G52" s="10">
-        <f>E52*9/M52</f>
+        <f t="shared" si="7"/>
         <v>3.625</v>
       </c>
       <c r="H52" s="10">
         <v>3.88</v>
       </c>
       <c r="I52" s="10">
-        <f>(13*N52+3*(O52+P52)-2*(Q52))/M52+R52</f>
+        <f t="shared" si="8"/>
         <v>3.88</v>
       </c>
       <c r="J52" s="10">
@@ -5089,7 +5100,7 @@
         <v>144</v>
       </c>
       <c r="M52" s="10">
-        <f>(L52-_xlfn.FLOOR.MATH(L52))*10/3+_xlfn.FLOOR.MATH(L52)</f>
+        <f t="shared" si="9"/>
         <v>144</v>
       </c>
       <c r="N52" s="10">
@@ -5108,26 +5119,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S52">
-        <f>C52*0.127-N52</f>
+        <f t="shared" si="10"/>
         <v>0.875</v>
       </c>
       <c r="T52">
-        <f>(13*(N52+S52)+3*(O52+P52)-2*Q52)/L52+R52</f>
+        <f t="shared" si="11"/>
         <v>3.9589930555555553</v>
       </c>
       <c r="U52">
         <v>1</v>
       </c>
       <c r="V52">
-        <f>S52*(2.101-U52)*9/L52+G52</f>
+        <f t="shared" si="12"/>
         <v>3.6852109375</v>
       </c>
       <c r="W52" s="7">
-        <f>G52-V52</f>
+        <f t="shared" si="13"/>
         <v>-6.021093749999995E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>102</v>
       </c>
@@ -5147,14 +5158,14 @@
         <v>3.81</v>
       </c>
       <c r="G53" s="10">
-        <f>E53*9/M53</f>
+        <f t="shared" si="7"/>
         <v>3.8129770992366421</v>
       </c>
       <c r="H53" s="10">
         <v>4.42</v>
       </c>
       <c r="I53" s="10">
-        <f>(13*N53+3*(O53+P53)-2*(Q53))/M53+R53</f>
+        <f t="shared" si="8"/>
         <v>4.4229389312977103</v>
       </c>
       <c r="J53" s="10">
@@ -5167,7 +5178,7 @@
         <v>174.2</v>
       </c>
       <c r="M53" s="10">
-        <f>(L53-_xlfn.FLOOR.MATH(L53))*10/3+_xlfn.FLOOR.MATH(L53)</f>
+        <f t="shared" si="9"/>
         <v>174.66666666666663</v>
       </c>
       <c r="N53" s="10">
@@ -5186,26 +5197,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S53">
-        <f>C53*0.127-N53</f>
+        <f t="shared" si="10"/>
         <v>0.93900000000000006</v>
       </c>
       <c r="T53">
-        <f>(13*(N53+S53)+3*(O53+P53)-2*Q53)/L53+R53</f>
+        <f t="shared" si="11"/>
         <v>4.4961423650975885</v>
       </c>
       <c r="U53">
         <v>1</v>
       </c>
       <c r="V53">
-        <f>S53*(2.101-U53)*9/L53+G53</f>
+        <f t="shared" si="12"/>
         <v>3.866390135976022</v>
       </c>
       <c r="W53" s="7">
-        <f>G53-V53</f>
+        <f t="shared" si="13"/>
         <v>-5.3413036739379915E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>103</v>
       </c>
@@ -5225,14 +5236,14 @@
         <v>3.86</v>
       </c>
       <c r="G54" s="10">
-        <f>E54*9/M54</f>
+        <f t="shared" si="7"/>
         <v>3.8571428571428581</v>
       </c>
       <c r="H54" s="10">
         <v>2.85</v>
       </c>
       <c r="I54" s="10">
-        <f>(13*N54+3*(O54+P54)-2*(Q54))/M54+R54</f>
+        <f t="shared" si="8"/>
         <v>2.8532142857142855</v>
       </c>
       <c r="J54" s="10">
@@ -5245,7 +5256,7 @@
         <v>186.2</v>
       </c>
       <c r="M54" s="10">
-        <f>(L54-_xlfn.FLOOR.MATH(L54))*10/3+_xlfn.FLOOR.MATH(L54)</f>
+        <f t="shared" si="9"/>
         <v>186.66666666666663</v>
       </c>
       <c r="N54" s="10">
@@ -5264,26 +5275,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S54">
-        <f>C54*0.127-N54</f>
+        <f t="shared" si="10"/>
         <v>0.98700000000000188</v>
       </c>
       <c r="T54">
-        <f>(13*(N54+S54)+3*(O54+P54)-2*Q54)/L54+R54</f>
+        <f t="shared" si="11"/>
         <v>2.9211170784103113</v>
       </c>
       <c r="U54">
         <v>1</v>
       </c>
       <c r="V54">
-        <f>S54*(2.101-U54)*9/L54+G54</f>
+        <f t="shared" si="12"/>
         <v>3.9096680075187979</v>
       </c>
       <c r="W54" s="7">
-        <f>G54-V54</f>
+        <f t="shared" si="13"/>
         <v>-5.2525150375939855E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>105</v>
       </c>
@@ -5303,14 +5314,14 @@
         <v>3.05</v>
       </c>
       <c r="G55" s="10">
-        <f>E55*9/M55</f>
+        <f t="shared" si="7"/>
         <v>3.0457317073170738</v>
       </c>
       <c r="H55" s="10">
         <v>4.29</v>
       </c>
       <c r="I55" s="10">
-        <f>(13*N55+3*(O55+P55)-2*(Q55))/M55+R55</f>
+        <f t="shared" si="8"/>
         <v>4.2885365853658541</v>
       </c>
       <c r="J55" s="10">
@@ -5323,7 +5334,7 @@
         <v>109.1</v>
       </c>
       <c r="M55" s="10">
-        <f>(L55-_xlfn.FLOOR.MATH(L55))*10/3+_xlfn.FLOOR.MATH(L55)</f>
+        <f t="shared" si="9"/>
         <v>109.33333333333331</v>
       </c>
       <c r="N55" s="10">
@@ -5342,26 +5353,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S55">
-        <f>C55*0.127-N55</f>
+        <f t="shared" si="10"/>
         <v>0.46199999999999974</v>
       </c>
       <c r="T55">
-        <f>(13*(N55+S55)+3*(O55+P55)-2*Q55)/L55+R55</f>
+        <f t="shared" si="11"/>
         <v>4.3457974335472045</v>
       </c>
       <c r="U55">
         <v>1</v>
       </c>
       <c r="V55">
-        <f>S55*(2.101-U55)*9/L55+G55</f>
+        <f t="shared" si="12"/>
         <v>3.0876928255572205</v>
       </c>
       <c r="W55" s="7">
-        <f>G55-V55</f>
+        <f t="shared" si="13"/>
         <v>-4.19611182401467E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>106</v>
       </c>
@@ -5381,14 +5392,14 @@
         <v>5.42</v>
       </c>
       <c r="G56" s="10">
-        <f>E56*9/M56</f>
+        <f t="shared" si="7"/>
         <v>5.4164133738601823</v>
       </c>
       <c r="H56" s="10">
         <v>4.76</v>
       </c>
       <c r="I56" s="10">
-        <f>(13*N56+3*(O56+P56)-2*(Q56))/M56+R56</f>
+        <f t="shared" si="8"/>
         <v>4.7595592705167169</v>
       </c>
       <c r="J56" s="10">
@@ -5401,7 +5412,7 @@
         <v>109.2</v>
       </c>
       <c r="M56" s="10">
-        <f>(L56-_xlfn.FLOOR.MATH(L56))*10/3+_xlfn.FLOOR.MATH(L56)</f>
+        <f t="shared" si="9"/>
         <v>109.66666666666667</v>
       </c>
       <c r="N56" s="10">
@@ -5420,26 +5431,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S56">
-        <f>C56*0.127-N56</f>
+        <f t="shared" si="10"/>
         <v>9.6999999999999531E-2</v>
       </c>
       <c r="T56">
-        <f>(13*(N56+S56)+3*(O56+P56)-2*Q56)/L56+R56</f>
+        <f t="shared" si="11"/>
         <v>4.7775366300366295</v>
       </c>
       <c r="U56">
         <v>1</v>
       </c>
       <c r="V56">
-        <f>S56*(2.101-U56)*9/L56+G56</f>
+        <f t="shared" si="12"/>
         <v>5.4252153244096331</v>
       </c>
       <c r="W56" s="7">
-        <f>G56-V56</f>
+        <f t="shared" si="13"/>
         <v>-8.8019505494507655E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>107</v>
       </c>
@@ -5459,14 +5470,14 @@
         <v>3.65</v>
       </c>
       <c r="G57" s="10">
-        <f>E57*9/M57</f>
+        <f t="shared" si="7"/>
         <v>3.6537785588752203</v>
       </c>
       <c r="H57" s="10">
         <v>3.99</v>
       </c>
       <c r="I57" s="10">
-        <f>(13*N57+3*(O57+P57)-2*(Q57))/M57+R57</f>
+        <f t="shared" si="8"/>
         <v>3.9931370826010544</v>
       </c>
       <c r="J57" s="10">
@@ -5479,7 +5490,7 @@
         <v>189.2</v>
       </c>
       <c r="M57" s="10">
-        <f>(L57-_xlfn.FLOOR.MATH(L57))*10/3+_xlfn.FLOOR.MATH(L57)</f>
+        <f t="shared" si="9"/>
         <v>189.66666666666663</v>
       </c>
       <c r="N57" s="10">
@@ -5498,26 +5509,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S57">
-        <f>C57*0.127-N57</f>
+        <f t="shared" si="10"/>
         <v>0.1460000000000008</v>
       </c>
       <c r="T57">
-        <f>(13*(N57+S57)+3*(O57+P57)-2*Q57)/L57+R57</f>
+        <f t="shared" si="11"/>
         <v>4.0049894291754757</v>
       </c>
       <c r="U57">
         <v>1</v>
       </c>
       <c r="V57">
-        <f>S57*(2.101-U57)*9/L57+G57</f>
+        <f t="shared" si="12"/>
         <v>3.6614250387906537</v>
       </c>
       <c r="W57" s="7">
-        <f>G57-V57</f>
+        <f t="shared" si="13"/>
         <v>-7.6464799154334351E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>18</v>
       </c>
@@ -5537,14 +5548,14 @@
         <v>4.99</v>
       </c>
       <c r="G58" s="10">
-        <f>E58*9/M58</f>
+        <f t="shared" si="7"/>
         <v>4.9884526558891462</v>
       </c>
       <c r="H58" s="10">
         <v>4.3600000000000003</v>
       </c>
       <c r="I58" s="10">
-        <f>(13*N58+3*(O58+P58)-2*(Q58))/M58+R58</f>
+        <f t="shared" si="8"/>
         <v>4.3566166281755194</v>
       </c>
       <c r="J58" s="10">
@@ -5557,7 +5568,7 @@
         <v>144.1</v>
       </c>
       <c r="M58" s="10">
-        <f>(L58-_xlfn.FLOOR.MATH(L58))*10/3+_xlfn.FLOOR.MATH(L58)</f>
+        <f t="shared" si="9"/>
         <v>144.33333333333331</v>
       </c>
       <c r="N58" s="10">
@@ -5576,26 +5587,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S58">
-        <f>C58*0.127-N58</f>
+        <f t="shared" si="10"/>
         <v>1.8000000000000682E-2</v>
       </c>
       <c r="T58">
-        <f>(13*(N58+S58)+3*(O58+P58)-2*Q58)/L58+R58</f>
+        <f t="shared" si="11"/>
         <v>4.3600242886884111</v>
       </c>
       <c r="U58">
         <v>1</v>
       </c>
       <c r="V58">
-        <f>S58*(2.101-U58)*9/L58+G58</f>
+        <f t="shared" si="12"/>
         <v>4.9896904213298123</v>
       </c>
       <c r="W58" s="7">
-        <f>G58-V58</f>
+        <f t="shared" si="13"/>
         <v>-1.2377654406661165E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>16</v>
       </c>
@@ -5615,14 +5626,14 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="G59" s="10">
-        <f>E59*9/M59</f>
+        <f t="shared" si="7"/>
         <v>4.734375</v>
       </c>
       <c r="H59" s="10">
         <v>4.13</v>
       </c>
       <c r="I59" s="10">
-        <f>(13*N59+3*(O59+P59)-2*(Q59))/M59+R59</f>
+        <f t="shared" si="8"/>
         <v>4.13</v>
       </c>
       <c r="J59" s="10">
@@ -5635,7 +5646,7 @@
         <v>192</v>
       </c>
       <c r="M59" s="10">
-        <f>(L59-_xlfn.FLOOR.MATH(L59))*10/3+_xlfn.FLOOR.MATH(L59)</f>
+        <f t="shared" si="9"/>
         <v>192</v>
       </c>
       <c r="N59" s="10">
@@ -5654,26 +5665,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S59">
-        <f>C59*0.127-N59</f>
+        <f t="shared" si="10"/>
         <v>-1.2999999999998124E-2</v>
       </c>
       <c r="T59">
-        <f>(13*(N59+S59)+3*(O59+P59)-2*Q59)/L59+R59</f>
+        <f t="shared" si="11"/>
         <v>4.1291197916666667</v>
       </c>
       <c r="U59">
         <v>1</v>
       </c>
       <c r="V59">
-        <f>S59*(2.101-U59)*9/L59+G59</f>
+        <f t="shared" si="12"/>
         <v>4.7337040781250002</v>
       </c>
       <c r="W59" s="7">
-        <f>G59-V59</f>
+        <f t="shared" si="13"/>
         <v>6.7092187499984135E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>108</v>
       </c>
@@ -5693,14 +5704,14 @@
         <v>3.34</v>
       </c>
       <c r="G60" s="10">
-        <f>E60*9/M60</f>
+        <f t="shared" si="7"/>
         <v>3.3350253807106598</v>
       </c>
       <c r="H60" s="10">
         <v>3.81</v>
       </c>
       <c r="I60" s="10">
-        <f>(13*N60+3*(O60+P60)-2*(Q60))/M60+R60</f>
+        <f t="shared" si="8"/>
         <v>3.8082994923857867</v>
       </c>
       <c r="J60" s="10">
@@ -5713,7 +5724,7 @@
         <v>197</v>
       </c>
       <c r="M60" s="10">
-        <f>(L60-_xlfn.FLOOR.MATH(L60))*10/3+_xlfn.FLOOR.MATH(L60)</f>
+        <f t="shared" si="9"/>
         <v>197</v>
       </c>
       <c r="N60" s="10">
@@ -5732,26 +5743,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S60">
-        <f>C60*0.127-N60</f>
+        <f t="shared" si="10"/>
         <v>-5.9999999999998721E-2</v>
       </c>
       <c r="T60">
-        <f>(13*(N60+S60)+3*(O60+P60)-2*Q60)/L60+R60</f>
+        <f t="shared" si="11"/>
         <v>3.8043401015228424</v>
       </c>
       <c r="U60">
         <v>1</v>
       </c>
       <c r="V60">
-        <f>S60*(2.101-U60)*9/L60+G60</f>
+        <f t="shared" si="12"/>
         <v>3.3320074111675129</v>
       </c>
       <c r="W60" s="7">
-        <f>G60-V60</f>
+        <f t="shared" si="13"/>
         <v>3.0179695431469256E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>109</v>
       </c>
@@ -5771,14 +5782,14 @@
         <v>3.39</v>
       </c>
       <c r="G61" s="10">
-        <f>E61*9/M61</f>
+        <f t="shared" si="7"/>
         <v>3.3924268502581763</v>
       </c>
       <c r="H61" s="10">
         <v>3.81</v>
       </c>
       <c r="I61" s="10">
-        <f>(13*N61+3*(O61+P61)-2*(Q61))/M61+R61</f>
+        <f t="shared" si="8"/>
         <v>3.8126592082616177</v>
       </c>
       <c r="J61" s="10">
@@ -5791,7 +5802,7 @@
         <v>193.2</v>
       </c>
       <c r="M61" s="10">
-        <f>(L61-_xlfn.FLOOR.MATH(L61))*10/3+_xlfn.FLOOR.MATH(L61)</f>
+        <f t="shared" si="9"/>
         <v>193.66666666666663</v>
       </c>
       <c r="N61" s="10">
@@ -5810,26 +5821,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S61">
-        <f>C61*0.127-N61</f>
+        <f t="shared" si="10"/>
         <v>-0.15599999999999881</v>
       </c>
       <c r="T61">
-        <f>(13*(N61+S61)+3*(O61+P61)-2*Q61)/L61+R61</f>
+        <f t="shared" si="11"/>
         <v>3.8035093167701866</v>
       </c>
       <c r="U61">
         <v>1</v>
       </c>
       <c r="V61">
-        <f>S61*(2.101-U61)*9/L61+G61</f>
+        <f t="shared" si="12"/>
         <v>3.3844257943575551</v>
       </c>
       <c r="W61" s="7">
-        <f>G61-V61</f>
+        <f t="shared" si="13"/>
         <v>8.0010559006211679E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>110</v>
       </c>
@@ -5849,14 +5860,14 @@
         <v>3.29</v>
       </c>
       <c r="G62" s="10">
-        <f>E62*9/M62</f>
+        <f t="shared" si="7"/>
         <v>3.292682926829269</v>
       </c>
       <c r="H62" s="10">
         <v>3.85</v>
       </c>
       <c r="I62" s="10">
-        <f>(13*N62+3*(O62+P62)-2*(Q62))/M62+R62</f>
+        <f t="shared" si="8"/>
         <v>3.8459943714821763</v>
       </c>
       <c r="J62" s="10">
@@ -5869,7 +5880,7 @@
         <v>177.2</v>
       </c>
       <c r="M62" s="10">
-        <f>(L62-_xlfn.FLOOR.MATH(L62))*10/3+_xlfn.FLOOR.MATH(L62)</f>
+        <f t="shared" si="9"/>
         <v>177.66666666666663</v>
       </c>
       <c r="N62" s="10">
@@ -5888,26 +5899,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S62">
-        <f>C62*0.127-N62</f>
+        <f t="shared" si="10"/>
         <v>-0.18799999999999883</v>
       </c>
       <c r="T62">
-        <f>(13*(N62+S62)+3*(O62+P62)-2*Q62)/L62+R62</f>
+        <f t="shared" si="11"/>
         <v>3.8337584650112868</v>
       </c>
       <c r="U62">
         <v>1</v>
       </c>
       <c r="V62">
-        <f>S62*(2.101-U62)*9/L62+G62</f>
+        <f t="shared" si="12"/>
         <v>3.2821699922920229</v>
       </c>
       <c r="W62" s="7">
-        <f>G62-V62</f>
+        <f t="shared" si="13"/>
         <v>1.051293453724611E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>111</v>
       </c>
@@ -5927,14 +5938,14 @@
         <v>5.52</v>
       </c>
       <c r="G63" s="10">
-        <f>E63*9/M63</f>
+        <f t="shared" si="7"/>
         <v>5.5240083507306901</v>
       </c>
       <c r="H63" s="10">
         <v>4.29</v>
       </c>
       <c r="I63" s="10">
-        <f>(13*N63+3*(O63+P63)-2*(Q63))/M63+R63</f>
+        <f t="shared" si="8"/>
         <v>4.2884029227557416</v>
       </c>
       <c r="J63" s="10">
@@ -5947,7 +5958,7 @@
         <v>159.19999999999999</v>
       </c>
       <c r="M63" s="10">
-        <f>(L63-_xlfn.FLOOR.MATH(L63))*10/3+_xlfn.FLOOR.MATH(L63)</f>
+        <f t="shared" si="9"/>
         <v>159.66666666666663</v>
       </c>
       <c r="N63" s="10">
@@ -5966,26 +5977,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S63">
-        <f>C63*0.127-N63</f>
+        <f t="shared" si="10"/>
         <v>-0.18799999999999883</v>
       </c>
       <c r="T63">
-        <f>(13*(N63+S63)+3*(O63+P63)-2*Q63)/L63+R63</f>
+        <f t="shared" si="11"/>
         <v>4.2760804020100505</v>
       </c>
       <c r="U63">
         <v>1</v>
       </c>
       <c r="V63">
-        <f>S63*(2.101-U63)*9/L63+G63</f>
+        <f t="shared" si="12"/>
         <v>5.5123067678161171</v>
       </c>
       <c r="W63" s="7">
-        <f>G63-V63</f>
+        <f t="shared" si="13"/>
         <v>1.1701582914573017E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>113</v>
       </c>
@@ -6005,14 +6016,14 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="G64" s="10">
-        <f>E64*9/M64</f>
+        <f t="shared" si="7"/>
         <v>4.1425992779783405</v>
       </c>
       <c r="H64" s="10">
         <v>4.03</v>
       </c>
       <c r="I64" s="10">
-        <f>(13*N64+3*(O64+P64)-2*(Q64))/M64+R64</f>
+        <f t="shared" si="8"/>
         <v>4.0293682310469316</v>
       </c>
       <c r="J64" s="10">
@@ -6025,7 +6036,7 @@
         <v>184.2</v>
       </c>
       <c r="M64" s="10">
-        <f>(L64-_xlfn.FLOOR.MATH(L64))*10/3+_xlfn.FLOOR.MATH(L64)</f>
+        <f t="shared" si="9"/>
         <v>184.66666666666663</v>
       </c>
       <c r="N64" s="10">
@@ -6044,26 +6055,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S64">
-        <f>C64*0.127-N64</f>
+        <f t="shared" si="10"/>
         <v>-0.41000000000000014</v>
       </c>
       <c r="T64">
-        <f>(13*(N64+S64)+3*(O64+P64)-2*Q64)/L64+R64</f>
+        <f t="shared" si="11"/>
         <v>4.0023941368078173</v>
       </c>
       <c r="U64">
         <v>1</v>
       </c>
       <c r="V64">
-        <f>S64*(2.101-U64)*9/L64+G64</f>
+        <f t="shared" si="12"/>
         <v>4.1205434147861579</v>
       </c>
       <c r="W64" s="7">
-        <f>G64-V64</f>
+        <f t="shared" si="13"/>
         <v>2.2055863192182557E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>114</v>
       </c>
@@ -6083,14 +6094,14 @@
         <v>4.45</v>
       </c>
       <c r="G65" s="10">
-        <f>E65*9/M65</f>
+        <f t="shared" si="7"/>
         <v>4.4470588235294128</v>
       </c>
       <c r="H65" s="10">
         <v>4.99</v>
       </c>
       <c r="I65" s="10">
-        <f>(13*N65+3*(O65+P65)-2*(Q65))/M65+R65</f>
+        <f t="shared" si="8"/>
         <v>4.9914705882352948</v>
       </c>
       <c r="J65" s="10">
@@ -6103,7 +6114,7 @@
         <v>141.19999999999999</v>
       </c>
       <c r="M65" s="10">
-        <f>(L65-_xlfn.FLOOR.MATH(L65))*10/3+_xlfn.FLOOR.MATH(L65)</f>
+        <f t="shared" si="9"/>
         <v>141.66666666666663</v>
       </c>
       <c r="N65" s="10">
@@ -6122,26 +6133,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S65">
-        <f>C65*0.127-N65</f>
+        <f t="shared" si="10"/>
         <v>-0.42599999999999838</v>
       </c>
       <c r="T65">
-        <f>(13*(N65+S65)+3*(O65+P65)-2*Q65)/L65+R65</f>
+        <f t="shared" si="11"/>
         <v>4.9579886685552417</v>
       </c>
       <c r="U65">
         <v>1</v>
       </c>
       <c r="V65">
-        <f>S65*(2.101-U65)*9/L65+G65</f>
+        <f t="shared" si="12"/>
         <v>4.4171633986002341</v>
       </c>
       <c r="W65" s="7">
-        <f>G65-V65</f>
+        <f t="shared" si="13"/>
         <v>2.9895424929178738E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>115</v>
       </c>
@@ -6161,14 +6172,14 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="G66" s="10">
-        <f>E66*9/M66</f>
+        <f t="shared" ref="G66:G97" si="14">E66*9/M66</f>
         <v>4.2268370607028762</v>
       </c>
       <c r="H66" s="10">
         <v>4.0199999999999996</v>
       </c>
       <c r="I66" s="10">
-        <f>(13*N66+3*(O66+P66)-2*(Q66))/M66+R66</f>
+        <f t="shared" ref="I66:I97" si="15">(13*N66+3*(O66+P66)-2*(Q66))/M66+R66</f>
         <v>4.0217731629392972</v>
       </c>
       <c r="J66" s="10">
@@ -6181,7 +6192,7 @@
         <v>104.1</v>
       </c>
       <c r="M66" s="10">
-        <f>(L66-_xlfn.FLOOR.MATH(L66))*10/3+_xlfn.FLOOR.MATH(L66)</f>
+        <f t="shared" ref="M66:M97" si="16">(L66-_xlfn.FLOOR.MATH(L66))*10/3+_xlfn.FLOOR.MATH(L66)</f>
         <v>104.33333333333331</v>
       </c>
       <c r="N66" s="10">
@@ -6200,26 +6211,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S66">
-        <f>C66*0.127-N66</f>
+        <f t="shared" ref="S66:S97" si="17">C66*0.127-N66</f>
         <v>-0.36299999999999955</v>
       </c>
       <c r="T66">
-        <f>(13*(N66+S66)+3*(O66+P66)-2*Q66)/L66+R66</f>
+        <f t="shared" ref="T66:T97" si="18">(13*(N66+S66)+3*(O66+P66)-2*Q66)/L66+R66</f>
         <v>3.9781604226705092</v>
       </c>
       <c r="U66">
         <v>1</v>
       </c>
       <c r="V66">
-        <f>S66*(2.101-U66)*9/L66+G66</f>
+        <f t="shared" ref="V66:V97" si="19">S66*(2.101-U66)*9/L66+G66</f>
         <v>4.1922840635847205</v>
       </c>
       <c r="W66" s="7">
-        <f>G66-V66</f>
+        <f t="shared" ref="W66:W97" si="20">G66-V66</f>
         <v>3.4552997118155737E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>117</v>
       </c>
@@ -6239,14 +6250,14 @@
         <v>4.7</v>
       </c>
       <c r="G67" s="10">
-        <f>E67*9/M67</f>
+        <f t="shared" si="14"/>
         <v>4.7018469656992092</v>
       </c>
       <c r="H67" s="10">
         <v>4.96</v>
       </c>
       <c r="I67" s="10">
-        <f>(13*N67+3*(O67+P67)-2*(Q67))/M67+R67</f>
+        <f t="shared" si="15"/>
         <v>4.9647625329815304</v>
       </c>
       <c r="J67" s="10">
@@ -6259,7 +6270,7 @@
         <v>126.1</v>
       </c>
       <c r="M67" s="10">
-        <f>(L67-_xlfn.FLOOR.MATH(L67))*10/3+_xlfn.FLOOR.MATH(L67)</f>
+        <f t="shared" si="16"/>
         <v>126.33333333333331</v>
       </c>
       <c r="N67" s="10">
@@ -6278,26 +6289,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S67">
-        <f>C67*0.127-N67</f>
+        <f t="shared" si="17"/>
         <v>-0.4740000000000002</v>
       </c>
       <c r="T67">
-        <f>(13*(N67+S67)+3*(O67+P67)-2*Q67)/L67+R67</f>
+        <f t="shared" si="18"/>
         <v>4.9190602696272796</v>
       </c>
       <c r="U67">
         <v>1</v>
       </c>
       <c r="V67">
-        <f>S67*(2.101-U67)*9/L67+G67</f>
+        <f t="shared" si="19"/>
         <v>4.6645998126460766</v>
       </c>
       <c r="W67" s="7">
-        <f>G67-V67</f>
+        <f t="shared" si="20"/>
         <v>3.7247153053132642E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>118</v>
       </c>
@@ -6317,14 +6328,14 @@
         <v>3.66</v>
       </c>
       <c r="G68" s="10">
-        <f>E68*9/M68</f>
+        <f t="shared" si="14"/>
         <v>3.6649484536082473</v>
       </c>
       <c r="H68" s="10">
         <v>3.33</v>
       </c>
       <c r="I68" s="10">
-        <f>(13*N68+3*(O68+P68)-2*(Q68))/M68+R68</f>
+        <f t="shared" si="15"/>
         <v>3.332319587628866</v>
       </c>
       <c r="J68" s="10">
@@ -6337,7 +6348,7 @@
         <v>194</v>
       </c>
       <c r="M68" s="10">
-        <f>(L68-_xlfn.FLOOR.MATH(L68))*10/3+_xlfn.FLOOR.MATH(L68)</f>
+        <f t="shared" si="16"/>
         <v>194</v>
       </c>
       <c r="N68" s="10">
@@ -6356,26 +6367,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S68">
-        <f>C68*0.127-N68</f>
+        <f t="shared" si="17"/>
         <v>-0.75900000000000034</v>
       </c>
       <c r="T68">
-        <f>(13*(N68+S68)+3*(O68+P68)-2*Q68)/L68+R68</f>
+        <f t="shared" si="18"/>
         <v>3.2814587628865977</v>
       </c>
       <c r="U68">
         <v>1</v>
       </c>
       <c r="V68">
-        <f>S68*(2.101-U68)*9/L68+G68</f>
+        <f t="shared" si="19"/>
         <v>3.626180768041237</v>
       </c>
       <c r="W68" s="7">
-        <f>G68-V68</f>
+        <f t="shared" si="20"/>
         <v>3.8767685567010268E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>116</v>
       </c>
@@ -6395,14 +6406,14 @@
         <v>4.54</v>
       </c>
       <c r="G69" s="10">
-        <f>E69*9/M69</f>
+        <f t="shared" si="14"/>
         <v>4.5435203094777572</v>
       </c>
       <c r="H69" s="10">
         <v>5.15</v>
       </c>
       <c r="I69" s="10">
-        <f>(13*N69+3*(O69+P69)-2*(Q69))/M69+R69</f>
+        <f t="shared" si="15"/>
         <v>5.1524854932301745</v>
       </c>
       <c r="J69" s="10">
@@ -6415,7 +6426,7 @@
         <v>172.1</v>
       </c>
       <c r="M69" s="10">
-        <f>(L69-_xlfn.FLOOR.MATH(L69))*10/3+_xlfn.FLOOR.MATH(L69)</f>
+        <f t="shared" si="16"/>
         <v>172.33333333333331</v>
       </c>
       <c r="N69" s="10">
@@ -6434,26 +6445,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S69">
-        <f>C69*0.127-N69</f>
+        <f t="shared" si="17"/>
         <v>-0.72599999999999909</v>
       </c>
       <c r="T69">
-        <f>(13*(N69+S69)+3*(O69+P69)-2*Q69)/L69+R69</f>
+        <f t="shared" si="18"/>
         <v>5.1002178965717606</v>
       </c>
       <c r="U69">
         <v>1</v>
       </c>
       <c r="V69">
-        <f>S69*(2.101-U69)*9/L69+G69</f>
+        <f t="shared" si="19"/>
         <v>4.5017194146491688</v>
       </c>
       <c r="W69" s="7">
-        <f>G69-V69</f>
+        <f t="shared" si="20"/>
         <v>4.1800894828588397E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>119</v>
       </c>
@@ -6473,14 +6484,14 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="G70" s="10">
-        <f>E70*9/M70</f>
+        <f t="shared" si="14"/>
         <v>4.6415094339622645</v>
       </c>
       <c r="H70" s="10">
         <v>4.42</v>
       </c>
       <c r="I70" s="10">
-        <f>(13*N70+3*(O70+P70)-2*(Q70))/M70+R70</f>
+        <f t="shared" si="15"/>
         <v>4.4185220125786167</v>
       </c>
       <c r="J70" s="10">
@@ -6493,7 +6504,7 @@
         <v>159</v>
       </c>
       <c r="M70" s="10">
-        <f>(L70-_xlfn.FLOOR.MATH(L70))*10/3+_xlfn.FLOOR.MATH(L70)</f>
+        <f t="shared" si="16"/>
         <v>159</v>
       </c>
       <c r="N70" s="10">
@@ -6512,26 +6523,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S70">
-        <f>C70*0.127-N70</f>
+        <f t="shared" si="17"/>
         <v>-0.75900000000000034</v>
       </c>
       <c r="T70">
-        <f>(13*(N70+S70)+3*(O70+P70)-2*Q70)/L70+R70</f>
+        <f t="shared" si="18"/>
         <v>4.3564654088050307</v>
       </c>
       <c r="U70">
         <v>1</v>
       </c>
       <c r="V70">
-        <f>S70*(2.101-U70)*9/L70+G70</f>
+        <f t="shared" si="19"/>
         <v>4.594207981132076</v>
       </c>
       <c r="W70" s="7">
-        <f>G70-V70</f>
+        <f t="shared" si="20"/>
         <v>4.7301452830188495E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>120</v>
       </c>
@@ -6551,14 +6562,14 @@
         <v>3.6</v>
       </c>
       <c r="G71" s="10">
-        <f>E71*9/M71</f>
+        <f t="shared" si="14"/>
         <v>3.6</v>
       </c>
       <c r="H71" s="10">
         <v>4.28</v>
       </c>
       <c r="I71" s="10">
-        <f>(13*N71+3*(O71+P71)-2*(Q71))/M71+R71</f>
+        <f t="shared" si="15"/>
         <v>4.2799999999999994</v>
       </c>
       <c r="J71" s="10">
@@ -6571,7 +6582,7 @@
         <v>200</v>
       </c>
       <c r="M71" s="10">
-        <f>(L71-_xlfn.FLOOR.MATH(L71))*10/3+_xlfn.FLOOR.MATH(L71)</f>
+        <f t="shared" si="16"/>
         <v>200</v>
       </c>
       <c r="N71" s="10">
@@ -6590,26 +6601,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S71">
-        <f>C71*0.127-N71</f>
+        <f t="shared" si="17"/>
         <v>-1.0760000000000005</v>
       </c>
       <c r="T71">
-        <f>(13*(N71+S71)+3*(O71+P71)-2*Q71)/L71+R71</f>
+        <f t="shared" si="18"/>
         <v>4.2100599999999995</v>
       </c>
       <c r="U71">
         <v>1</v>
       </c>
       <c r="V71">
-        <f>S71*(2.101-U71)*9/L71+G71</f>
+        <f t="shared" si="19"/>
         <v>3.5466895800000002</v>
       </c>
       <c r="W71" s="7">
-        <f>G71-V71</f>
+        <f t="shared" si="20"/>
         <v>5.3310419999999858E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>123</v>
       </c>
@@ -6629,14 +6640,14 @@
         <v>3.29</v>
       </c>
       <c r="G72" s="10">
-        <f>E72*9/M72</f>
+        <f t="shared" si="14"/>
         <v>3.2869565217391306</v>
       </c>
       <c r="H72" s="10">
         <v>3.92</v>
       </c>
       <c r="I72" s="10">
-        <f>(13*N72+3*(O72+P72)-2*(Q72))/M72+R72</f>
+        <f t="shared" si="15"/>
         <v>3.9158695652173909</v>
       </c>
       <c r="J72" s="10">
@@ -6649,7 +6660,7 @@
         <v>115</v>
       </c>
       <c r="M72" s="10">
-        <f>(L72-_xlfn.FLOOR.MATH(L72))*10/3+_xlfn.FLOOR.MATH(L72)</f>
+        <f t="shared" si="16"/>
         <v>115</v>
       </c>
       <c r="N72" s="10">
@@ -6668,26 +6679,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S72">
-        <f>C72*0.127-N72</f>
+        <f t="shared" si="17"/>
         <v>-0.64899999999999913</v>
       </c>
       <c r="T72">
-        <f>(13*(N72+S72)+3*(O72+P72)-2*Q72)/L72+R72</f>
+        <f t="shared" si="18"/>
         <v>3.842504347826087</v>
       </c>
       <c r="U72">
         <v>1</v>
       </c>
       <c r="V72">
-        <f>S72*(2.101-U72)*9/L72+G72</f>
+        <f t="shared" si="19"/>
         <v>3.2310352956521742</v>
       </c>
       <c r="W72" s="7">
-        <f>G72-V72</f>
+        <f t="shared" si="20"/>
         <v>5.5921226086956377E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>124</v>
       </c>
@@ -6707,14 +6718,14 @@
         <v>3.57</v>
       </c>
       <c r="G73" s="10">
-        <f>E73*9/M73</f>
+        <f t="shared" si="14"/>
         <v>3.5671981776765382</v>
       </c>
       <c r="H73" s="10">
         <v>3.83</v>
       </c>
       <c r="I73" s="10">
-        <f>(13*N73+3*(O73+P73)-2*(Q73))/M73+R73</f>
+        <f t="shared" si="15"/>
         <v>3.829031890660592</v>
       </c>
       <c r="J73" s="10">
@@ -6727,7 +6738,7 @@
         <v>146.1</v>
       </c>
       <c r="M73" s="10">
-        <f>(L73-_xlfn.FLOOR.MATH(L73))*10/3+_xlfn.FLOOR.MATH(L73)</f>
+        <f t="shared" si="16"/>
         <v>146.33333333333331</v>
       </c>
       <c r="N73" s="10">
@@ -6746,26 +6757,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S73">
-        <f>C73*0.127-N73</f>
+        <f t="shared" si="17"/>
         <v>-0.83899999999999864</v>
       </c>
       <c r="T73">
-        <f>(13*(N73+S73)+3*(O73+P73)-2*Q73)/L73+R73</f>
+        <f t="shared" si="18"/>
         <v>3.7552943189596166</v>
       </c>
       <c r="U73">
         <v>1</v>
       </c>
       <c r="V73">
-        <f>S73*(2.101-U73)*9/L73+G73</f>
+        <f t="shared" si="19"/>
         <v>3.5102943378408096</v>
       </c>
       <c r="W73" s="7">
-        <f>G73-V73</f>
+        <f t="shared" si="20"/>
         <v>5.6903839835728665E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>121</v>
       </c>
@@ -6785,14 +6796,14 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="G74" s="10">
-        <f>E74*9/M74</f>
+        <f t="shared" si="14"/>
         <v>4.1538461538461542</v>
       </c>
       <c r="H74" s="10">
         <v>4.66</v>
       </c>
       <c r="I74" s="10">
-        <f>(13*N74+3*(O74+P74)-2*(Q74))/M74+R74</f>
+        <f t="shared" si="15"/>
         <v>4.6599773755656111</v>
       </c>
       <c r="J74" s="10">
@@ -6805,7 +6816,7 @@
         <v>147.1</v>
       </c>
       <c r="M74" s="10">
-        <f>(L74-_xlfn.FLOOR.MATH(L74))*10/3+_xlfn.FLOOR.MATH(L74)</f>
+        <f t="shared" si="16"/>
         <v>147.33333333333331</v>
       </c>
       <c r="N74" s="10">
@@ -6824,26 +6835,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S74">
-        <f>C74*0.127-N74</f>
+        <f t="shared" si="17"/>
         <v>-0.90200000000000102</v>
       </c>
       <c r="T74">
-        <f>(13*(N74+S74)+3*(O74+P74)-2*Q74)/L74+R74</f>
+        <f t="shared" si="18"/>
         <v>4.5824915023793338</v>
       </c>
       <c r="U74">
         <v>1</v>
       </c>
       <c r="V74">
-        <f>S74*(2.101-U74)*9/L74+G74</f>
+        <f t="shared" si="19"/>
         <v>4.0930853244783769</v>
       </c>
       <c r="W74" s="7">
-        <f>G74-V74</f>
+        <f t="shared" si="20"/>
         <v>6.0760829367777269E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>122</v>
       </c>
@@ -6863,14 +6874,14 @@
         <v>4.3</v>
       </c>
       <c r="G75" s="10">
-        <f>E75*9/M75</f>
+        <f t="shared" si="14"/>
         <v>4.295454545454545</v>
       </c>
       <c r="H75" s="10">
         <v>3.8</v>
       </c>
       <c r="I75" s="10">
-        <f>(13*N75+3*(O75+P75)-2*(Q75))/M75+R75</f>
+        <f t="shared" si="15"/>
         <v>3.8004545454545453</v>
       </c>
       <c r="J75" s="10">
@@ -6883,7 +6894,7 @@
         <v>102.2</v>
       </c>
       <c r="M75" s="10">
-        <f>(L75-_xlfn.FLOOR.MATH(L75))*10/3+_xlfn.FLOOR.MATH(L75)</f>
+        <f t="shared" si="16"/>
         <v>102.66666666666667</v>
       </c>
       <c r="N75" s="10">
@@ -6902,26 +6913,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S75">
-        <f>C75*0.127-N75</f>
+        <f t="shared" si="17"/>
         <v>-0.64899999999999913</v>
       </c>
       <c r="T75">
-        <f>(13*(N75+S75)+3*(O75+P75)-2*Q75)/L75+R75</f>
+        <f t="shared" si="18"/>
         <v>3.7203913894324852</v>
       </c>
       <c r="U75">
         <v>1</v>
       </c>
       <c r="V75">
-        <f>S75*(2.101-U75)*9/L75+G75</f>
+        <f t="shared" si="19"/>
         <v>4.2325294867461301</v>
       </c>
       <c r="W75" s="7">
-        <f>G75-V75</f>
+        <f t="shared" si="20"/>
         <v>6.2925058708414916E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>125</v>
       </c>
@@ -6941,14 +6952,14 @@
         <v>3.73</v>
       </c>
       <c r="G76" s="10">
-        <f>E76*9/M76</f>
+        <f t="shared" si="14"/>
         <v>3.7290209790209796</v>
       </c>
       <c r="H76" s="10">
         <v>3.85</v>
       </c>
       <c r="I76" s="10">
-        <f>(13*N76+3*(O76+P76)-2*(Q76))/M76+R76</f>
+        <f t="shared" si="15"/>
         <v>3.8476573426573428</v>
       </c>
       <c r="J76" s="10">
@@ -6961,7 +6972,7 @@
         <v>190.2</v>
       </c>
       <c r="M76" s="10">
-        <f>(L76-_xlfn.FLOOR.MATH(L76))*10/3+_xlfn.FLOOR.MATH(L76)</f>
+        <f t="shared" si="16"/>
         <v>190.66666666666663</v>
       </c>
       <c r="N76" s="10">
@@ -6980,26 +6991,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S76">
-        <f>C76*0.127-N76</f>
+        <f t="shared" si="17"/>
         <v>-1.3140000000000001</v>
       </c>
       <c r="T76">
-        <f>(13*(N76+S76)+3*(O76+P76)-2*Q76)/L76+R76</f>
+        <f t="shared" si="18"/>
         <v>3.7593007360672974</v>
       </c>
       <c r="U76">
         <v>1</v>
       </c>
       <c r="V76">
-        <f>S76*(2.101-U76)*9/L76+G76</f>
+        <f t="shared" si="19"/>
         <v>3.6605644805982669</v>
       </c>
       <c r="W76" s="7">
-        <f>G76-V76</f>
+        <f t="shared" si="20"/>
         <v>6.845649842271273E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>128</v>
       </c>
@@ -7019,14 +7030,14 @@
         <v>3.99</v>
       </c>
       <c r="G77" s="10">
-        <f>E77*9/M77</f>
+        <f t="shared" si="14"/>
         <v>3.993569131832797</v>
       </c>
       <c r="H77" s="10">
         <v>4.01</v>
       </c>
       <c r="I77" s="10">
-        <f>(13*N77+3*(O77+P77)-2*(Q77))/M77+R77</f>
+        <f t="shared" si="15"/>
         <v>4.0074115755627009</v>
       </c>
       <c r="J77" s="10">
@@ -7039,7 +7050,7 @@
         <v>103.2</v>
       </c>
       <c r="M77" s="10">
-        <f>(L77-_xlfn.FLOOR.MATH(L77))*10/3+_xlfn.FLOOR.MATH(L77)</f>
+        <f t="shared" si="16"/>
         <v>103.66666666666667</v>
       </c>
       <c r="N77" s="10">
@@ -7058,26 +7069,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S77">
-        <f>C77*0.127-N77</f>
+        <f t="shared" si="17"/>
         <v>-0.79199999999999982</v>
       </c>
       <c r="T77">
-        <f>(13*(N77+S77)+3*(O77+P77)-2*Q77)/L77+R77</f>
+        <f t="shared" si="18"/>
         <v>3.911046511627907</v>
       </c>
       <c r="U77">
         <v>1</v>
       </c>
       <c r="V77">
-        <f>S77*(2.101-U77)*9/L77+G77</f>
+        <f t="shared" si="19"/>
         <v>3.9175233178793087</v>
       </c>
       <c r="W77" s="7">
-        <f>G77-V77</f>
+        <f t="shared" si="20"/>
         <v>7.6045813953488306E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>130</v>
       </c>
@@ -7097,14 +7108,14 @@
         <v>4.21</v>
       </c>
       <c r="G78" s="10">
-        <f>E78*9/M78</f>
+        <f t="shared" si="14"/>
         <v>4.2144082332761581</v>
       </c>
       <c r="H78" s="10">
         <v>3.8</v>
       </c>
       <c r="I78" s="10">
-        <f>(13*N78+3*(O78+P78)-2*(Q78))/M78+R78</f>
+        <f t="shared" si="15"/>
         <v>3.8004545454545453</v>
       </c>
       <c r="J78" s="10">
@@ -7117,7 +7128,7 @@
         <v>194.1</v>
       </c>
       <c r="M78" s="10">
-        <f>(L78-_xlfn.FLOOR.MATH(L78))*10/3+_xlfn.FLOOR.MATH(L78)</f>
+        <f t="shared" si="16"/>
         <v>194.33333333333331</v>
       </c>
       <c r="N78" s="10">
@@ -7136,26 +7147,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S78">
-        <f>C78*0.127-N78</f>
+        <f t="shared" si="17"/>
         <v>-1.504999999999999</v>
       </c>
       <c r="T78">
-        <f>(13*(N78+S78)+3*(O78+P78)-2*Q78)/L78+R78</f>
+        <f t="shared" si="18"/>
         <v>3.7003116950025761</v>
       </c>
       <c r="U78">
         <v>1</v>
       </c>
       <c r="V78">
-        <f>S78*(2.101-U78)*9/L78+G78</f>
+        <f t="shared" si="19"/>
         <v>4.1375764712977965</v>
       </c>
       <c r="W78" s="7">
-        <f>G78-V78</f>
+        <f t="shared" si="20"/>
         <v>7.6831761978361612E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>126</v>
       </c>
@@ -7175,14 +7186,14 @@
         <v>5.41</v>
       </c>
       <c r="G79" s="10">
-        <f>E79*9/M79</f>
+        <f t="shared" si="14"/>
         <v>5.4123006833712992</v>
       </c>
       <c r="H79" s="10">
         <v>4.87</v>
       </c>
       <c r="I79" s="10">
-        <f>(13*N79+3*(O79+P79)-2*(Q79))/M79+R79</f>
+        <f t="shared" si="15"/>
         <v>4.8677562642369026</v>
       </c>
       <c r="J79" s="10">
@@ -7195,7 +7206,7 @@
         <v>146.1</v>
       </c>
       <c r="M79" s="10">
-        <f>(L79-_xlfn.FLOOR.MATH(L79))*10/3+_xlfn.FLOOR.MATH(L79)</f>
+        <f t="shared" si="16"/>
         <v>146.33333333333331</v>
       </c>
       <c r="N79" s="10">
@@ -7214,26 +7225,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S79">
-        <f>C79*0.127-N79</f>
+        <f t="shared" si="17"/>
         <v>-1.1559999999999988</v>
       </c>
       <c r="T79">
-        <f>(13*(N79+S79)+3*(O79+P79)-2*Q79)/L79+R79</f>
+        <f t="shared" si="18"/>
         <v>4.7674709103353869</v>
       </c>
       <c r="U79">
         <v>1</v>
       </c>
       <c r="V79">
-        <f>S79*(2.101-U79)*9/L79+G79</f>
+        <f t="shared" si="19"/>
         <v>5.3338968230016892</v>
       </c>
       <c r="W79" s="7">
-        <f>G79-V79</f>
+        <f t="shared" si="20"/>
         <v>7.8403860369610001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>131</v>
       </c>
@@ -7253,14 +7264,14 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="G80" s="10">
-        <f>E80*9/M80</f>
+        <f t="shared" si="14"/>
         <v>4.555012224938876</v>
       </c>
       <c r="H80" s="10">
         <v>4.03</v>
       </c>
       <c r="I80" s="10">
-        <f>(13*N80+3*(O80+P80)-2*(Q80))/M80+R80</f>
+        <f t="shared" si="15"/>
         <v>4.0251711491442546</v>
       </c>
       <c r="J80" s="10">
@@ -7273,7 +7284,7 @@
         <v>136.1</v>
       </c>
       <c r="M80" s="10">
-        <f>(L80-_xlfn.FLOOR.MATH(L80))*10/3+_xlfn.FLOOR.MATH(L80)</f>
+        <f t="shared" si="16"/>
         <v>136.33333333333331</v>
       </c>
       <c r="N80" s="10">
@@ -7292,26 +7303,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S80">
-        <f>C80*0.127-N80</f>
+        <f t="shared" si="17"/>
         <v>-1.1089999999999982</v>
       </c>
       <c r="T80">
-        <f>(13*(N80+S80)+3*(O80+P80)-2*Q80)/L80+R80</f>
+        <f t="shared" si="18"/>
         <v>3.9205620867009552</v>
       </c>
       <c r="U80">
         <v>1</v>
       </c>
       <c r="V80">
-        <f>S80*(2.101-U80)*9/L80+G80</f>
+        <f t="shared" si="19"/>
         <v>4.4742695283922194</v>
       </c>
       <c r="W80" s="7">
-        <f>G80-V80</f>
+        <f t="shared" si="20"/>
         <v>8.0742696546656667E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>129</v>
       </c>
@@ -7331,14 +7342,14 @@
         <v>4.12</v>
       </c>
       <c r="G81" s="10">
-        <f>E81*9/M81</f>
+        <f t="shared" si="14"/>
         <v>4.1186440677966107</v>
       </c>
       <c r="H81" s="10">
         <v>4.47</v>
       </c>
       <c r="I81" s="10">
-        <f>(13*N81+3*(O81+P81)-2*(Q81))/M81+R81</f>
+        <f t="shared" si="15"/>
         <v>4.4689830508474575</v>
       </c>
       <c r="J81" s="10">
@@ -7351,7 +7362,7 @@
         <v>157.1</v>
       </c>
       <c r="M81" s="10">
-        <f>(L81-_xlfn.FLOOR.MATH(L81))*10/3+_xlfn.FLOOR.MATH(L81)</f>
+        <f t="shared" si="16"/>
         <v>157.33333333333331</v>
       </c>
       <c r="N81" s="10">
@@ -7370,26 +7381,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S81">
-        <f>C81*0.127-N81</f>
+        <f t="shared" si="17"/>
         <v>-1.2989999999999995</v>
       </c>
       <c r="T81">
-        <f>(13*(N81+S81)+3*(O81+P81)-2*Q81)/L81+R81</f>
+        <f t="shared" si="18"/>
         <v>4.3632940802036924</v>
       </c>
       <c r="U81">
         <v>1</v>
       </c>
       <c r="V81">
-        <f>S81*(2.101-U81)*9/L81+G81</f>
+        <f t="shared" si="19"/>
         <v>4.0367103249576548</v>
       </c>
       <c r="W81" s="7">
-        <f>G81-V81</f>
+        <f t="shared" si="20"/>
         <v>8.1933742838955936E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>140</v>
       </c>
@@ -7409,14 +7420,14 @@
         <v>3.45</v>
       </c>
       <c r="G82" s="10">
-        <f>E82*9/M82</f>
+        <f t="shared" si="14"/>
         <v>3.4545454545454546</v>
       </c>
       <c r="H82" s="10">
         <v>3.5</v>
       </c>
       <c r="I82" s="10">
-        <f>(13*N82+3*(O82+P82)-2*(Q82))/M82+R82</f>
+        <f t="shared" si="15"/>
         <v>3.4974242424242421</v>
       </c>
       <c r="J82" s="10">
@@ -7429,7 +7440,7 @@
         <v>198</v>
       </c>
       <c r="M82" s="10">
-        <f>(L82-_xlfn.FLOOR.MATH(L82))*10/3+_xlfn.FLOOR.MATH(L82)</f>
+        <f t="shared" si="16"/>
         <v>198</v>
       </c>
       <c r="N82" s="10">
@@ -7448,26 +7459,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S82">
-        <f>C82*0.127-N82</f>
+        <f t="shared" si="17"/>
         <v>-1.7280000000000015</v>
       </c>
       <c r="T82">
-        <f>(13*(N82+S82)+3*(O82+P82)-2*Q82)/L82+R82</f>
+        <f t="shared" si="18"/>
         <v>3.3839696969696966</v>
       </c>
       <c r="U82">
         <v>1</v>
       </c>
       <c r="V82">
-        <f>S82*(2.101-U82)*9/L82+G82</f>
+        <f t="shared" si="19"/>
         <v>3.368066909090909</v>
       </c>
       <c r="W82" s="7">
-        <f>G82-V82</f>
+        <f t="shared" si="20"/>
         <v>8.6478545454545586E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>127</v>
       </c>
@@ -7487,14 +7498,14 @@
         <v>4.84</v>
       </c>
       <c r="G83" s="10">
-        <f>E83*9/M83</f>
+        <f t="shared" si="14"/>
         <v>4.8401727861771064</v>
       </c>
       <c r="H83" s="10">
         <v>4.6100000000000003</v>
       </c>
       <c r="I83" s="10">
-        <f>(13*N83+3*(O83+P83)-2*(Q83))/M83+R83</f>
+        <f t="shared" si="15"/>
         <v>4.6092116630669544</v>
       </c>
       <c r="J83" s="10">
@@ -7507,7 +7518,7 @@
         <v>154.1</v>
       </c>
       <c r="M83" s="10">
-        <f>(L83-_xlfn.FLOOR.MATH(L83))*10/3+_xlfn.FLOOR.MATH(L83)</f>
+        <f t="shared" si="16"/>
         <v>154.33333333333331</v>
       </c>
       <c r="N83" s="10">
@@ -7526,26 +7537,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S83">
-        <f>C83*0.127-N83</f>
+        <f t="shared" si="17"/>
         <v>-1.472999999999999</v>
       </c>
       <c r="T83">
-        <f>(13*(N83+S83)+3*(O83+P83)-2*Q83)/L83+R83</f>
+        <f t="shared" si="18"/>
         <v>4.4869987021414666</v>
       </c>
       <c r="U83">
         <v>1</v>
       </c>
       <c r="V83">
-        <f>S83*(2.101-U83)*9/L83+G83</f>
+        <f t="shared" si="19"/>
         <v>4.7454553494477096</v>
       </c>
       <c r="W83" s="7">
-        <f>G83-V83</f>
+        <f t="shared" si="20"/>
         <v>9.4717436729396809E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>139</v>
       </c>
@@ -7565,14 +7576,14 @@
         <v>3.43</v>
       </c>
       <c r="G84" s="10">
-        <f>E84*9/M84</f>
+        <f t="shared" si="14"/>
         <v>3.425981873111783</v>
       </c>
       <c r="H84" s="10">
         <v>3.92</v>
       </c>
       <c r="I84" s="10">
-        <f>(13*N84+3*(O84+P84)-2*(Q84))/M84+R84</f>
+        <f t="shared" si="15"/>
         <v>3.9166314199395771</v>
       </c>
       <c r="J84" s="10">
@@ -7585,7 +7596,7 @@
         <v>110.1</v>
       </c>
       <c r="M84" s="10">
-        <f>(L84-_xlfn.FLOOR.MATH(L84))*10/3+_xlfn.FLOOR.MATH(L84)</f>
+        <f t="shared" si="16"/>
         <v>110.33333333333331</v>
       </c>
       <c r="N84" s="10">
@@ -7604,26 +7615,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S84">
-        <f>C84*0.127-N84</f>
+        <f t="shared" si="17"/>
         <v>-1.0779999999999994</v>
       </c>
       <c r="T84">
-        <f>(13*(N84+S84)+3*(O84+P84)-2*Q84)/L84+R84</f>
+        <f t="shared" si="18"/>
         <v>3.7907493188010899</v>
       </c>
       <c r="U84">
         <v>1</v>
       </c>
       <c r="V84">
-        <f>S84*(2.101-U84)*9/L84+G84</f>
+        <f t="shared" si="19"/>
         <v>3.3289618731117829</v>
       </c>
       <c r="W84" s="7">
-        <f>G84-V84</f>
+        <f t="shared" si="20"/>
         <v>9.7020000000000106E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>137</v>
       </c>
@@ -7643,14 +7654,14 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="G85" s="10">
-        <f>E85*9/M85</f>
+        <f t="shared" si="14"/>
         <v>4.3524590163934427</v>
       </c>
       <c r="H85" s="10">
         <v>3.93</v>
       </c>
       <c r="I85" s="10">
-        <f>(13*N85+3*(O85+P85)-2*(Q85))/M85+R85</f>
+        <f t="shared" si="15"/>
         <v>3.9271311475409836</v>
       </c>
       <c r="J85" s="10">
@@ -7663,7 +7674,7 @@
         <v>122</v>
       </c>
       <c r="M85" s="10">
-        <f>(L85-_xlfn.FLOOR.MATH(L85))*10/3+_xlfn.FLOOR.MATH(L85)</f>
+        <f t="shared" si="16"/>
         <v>122</v>
       </c>
       <c r="N85" s="10">
@@ -7682,26 +7693,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S85">
-        <f>C85*0.127-N85</f>
+        <f t="shared" si="17"/>
         <v>-1.3949999999999996</v>
       </c>
       <c r="T85">
-        <f>(13*(N85+S85)+3*(O85+P85)-2*Q85)/L85+R85</f>
+        <f t="shared" si="18"/>
         <v>3.7784836065573773</v>
       </c>
       <c r="U85">
         <v>1</v>
       </c>
       <c r="V85">
-        <f>S85*(2.101-U85)*9/L85+G85</f>
+        <f t="shared" si="19"/>
         <v>4.2391552868852456</v>
       </c>
       <c r="W85" s="7">
-        <f>G85-V85</f>
+        <f t="shared" si="20"/>
         <v>0.11330372950819712</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>145</v>
       </c>
@@ -7721,14 +7732,14 @@
         <v>3.53</v>
       </c>
       <c r="G86" s="10">
-        <f>E86*9/M86</f>
+        <f t="shared" si="14"/>
         <v>3.5249999999999999</v>
       </c>
       <c r="H86" s="10">
         <v>2.91</v>
       </c>
       <c r="I86" s="10">
-        <f>(13*N86+3*(O86+P86)-2*(Q86))/M86+R86</f>
+        <f t="shared" si="15"/>
         <v>2.9133333333333331</v>
       </c>
       <c r="J86" s="10">
@@ -7741,7 +7752,7 @@
         <v>120</v>
       </c>
       <c r="M86" s="10">
-        <f>(L86-_xlfn.FLOOR.MATH(L86))*10/3+_xlfn.FLOOR.MATH(L86)</f>
+        <f t="shared" si="16"/>
         <v>120</v>
       </c>
       <c r="N86" s="10">
@@ -7760,26 +7771,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S86">
-        <f>C86*0.127-N86</f>
+        <f t="shared" si="17"/>
         <v>-1.5700000000000003</v>
       </c>
       <c r="T86">
-        <f>(13*(N86+S86)+3*(O86+P86)-2*Q86)/L86+R86</f>
+        <f t="shared" si="18"/>
         <v>2.7432500000000002</v>
       </c>
       <c r="U86">
         <v>1</v>
       </c>
       <c r="V86">
-        <f>S86*(2.101-U86)*9/L86+G86</f>
+        <f t="shared" si="19"/>
         <v>3.39535725</v>
       </c>
       <c r="W86" s="7">
-        <f>G86-V86</f>
+        <f t="shared" si="20"/>
         <v>0.12964274999999992</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>135</v>
       </c>
@@ -7799,14 +7810,14 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="G87" s="10">
-        <f>E87*9/M87</f>
+        <f t="shared" si="14"/>
         <v>4.6115702479338845</v>
       </c>
       <c r="H87" s="10">
         <v>5.3</v>
       </c>
       <c r="I87" s="10">
-        <f>(13*N87+3*(O87+P87)-2*(Q87))/M87+R87</f>
+        <f t="shared" si="15"/>
         <v>5.3045867768595034</v>
       </c>
       <c r="J87" s="10">
@@ -7819,7 +7830,7 @@
         <v>121</v>
       </c>
       <c r="M87" s="10">
-        <f>(L87-_xlfn.FLOOR.MATH(L87))*10/3+_xlfn.FLOOR.MATH(L87)</f>
+        <f t="shared" si="16"/>
         <v>121</v>
       </c>
       <c r="N87" s="10">
@@ -7838,26 +7849,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S87">
-        <f>C87*0.127-N87</f>
+        <f t="shared" si="17"/>
         <v>-1.5850000000000009</v>
       </c>
       <c r="T87">
-        <f>(13*(N87+S87)+3*(O87+P87)-2*Q87)/L87+R87</f>
+        <f t="shared" si="18"/>
         <v>5.134297520661157</v>
       </c>
       <c r="U87">
         <v>1</v>
       </c>
       <c r="V87">
-        <f>S87*(2.101-U87)*9/L87+G87</f>
+        <f t="shared" si="19"/>
         <v>4.4817705371900827</v>
       </c>
       <c r="W87" s="7">
-        <f>G87-V87</f>
+        <f t="shared" si="20"/>
         <v>0.12979971074380181</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>132</v>
       </c>
@@ -7877,14 +7888,14 @@
         <v>5.03</v>
       </c>
       <c r="G88" s="10">
-        <f>E88*9/M88</f>
+        <f t="shared" si="14"/>
         <v>5.0299785867237699</v>
       </c>
       <c r="H88" s="10">
         <v>5.3</v>
       </c>
       <c r="I88" s="10">
-        <f>(13*N88+3*(O88+P88)-2*(Q88))/M88+R88</f>
+        <f t="shared" si="15"/>
         <v>5.297826552462527</v>
       </c>
       <c r="J88" s="10">
@@ -7897,7 +7908,7 @@
         <v>155.19999999999999</v>
       </c>
       <c r="M88" s="10">
-        <f>(L88-_xlfn.FLOOR.MATH(L88))*10/3+_xlfn.FLOOR.MATH(L88)</f>
+        <f t="shared" si="16"/>
         <v>155.66666666666663</v>
       </c>
       <c r="N88" s="10">
@@ -7916,26 +7927,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S88">
-        <f>C88*0.127-N88</f>
+        <f t="shared" si="17"/>
         <v>-2.0760000000000005</v>
       </c>
       <c r="T88">
-        <f>(13*(N88+S88)+3*(O88+P88)-2*Q88)/L88+R88</f>
+        <f t="shared" si="18"/>
         <v>5.1300773195876292</v>
       </c>
       <c r="U88">
         <v>1</v>
       </c>
       <c r="V88">
-        <f>S88*(2.101-U88)*9/L88+G88</f>
+        <f t="shared" si="19"/>
         <v>4.8974329423938725</v>
       </c>
       <c r="W88" s="7">
-        <f>G88-V88</f>
+        <f t="shared" si="20"/>
         <v>0.13254564432989735</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>138</v>
       </c>
@@ -7955,14 +7966,14 @@
         <v>4.12</v>
       </c>
       <c r="G89" s="10">
-        <f>E89*9/M89</f>
+        <f t="shared" si="14"/>
         <v>4.1177606177606183</v>
       </c>
       <c r="H89" s="10">
         <v>4.51</v>
       </c>
       <c r="I89" s="10">
-        <f>(13*N89+3*(O89+P89)-2*(Q89))/M89+R89</f>
+        <f t="shared" si="15"/>
         <v>4.5117567567567569</v>
       </c>
       <c r="J89" s="10">
@@ -7975,7 +7986,7 @@
         <v>172.2</v>
       </c>
       <c r="M89" s="10">
-        <f>(L89-_xlfn.FLOOR.MATH(L89))*10/3+_xlfn.FLOOR.MATH(L89)</f>
+        <f t="shared" si="16"/>
         <v>172.66666666666663</v>
       </c>
       <c r="N89" s="10">
@@ -7994,26 +8005,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S89">
-        <f>C89*0.127-N89</f>
+        <f t="shared" si="17"/>
         <v>-2.3619999999999983</v>
       </c>
       <c r="T89">
-        <f>(13*(N89+S89)+3*(O89+P89)-2*Q89)/L89+R89</f>
+        <f t="shared" si="18"/>
         <v>4.3368466898954701</v>
       </c>
       <c r="U89">
         <v>1</v>
       </c>
       <c r="V89">
-        <f>S89*(2.101-U89)*9/L89+G89</f>
+        <f t="shared" si="19"/>
         <v>3.9818427431961583</v>
       </c>
       <c r="W89" s="7">
-        <f>G89-V89</f>
+        <f t="shared" si="20"/>
         <v>0.13591787456446003</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>134</v>
       </c>
@@ -8033,14 +8044,14 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="G90" s="10">
-        <f>E90*9/M90</f>
+        <f t="shared" si="14"/>
         <v>4.9805825242718447</v>
       </c>
       <c r="H90" s="10">
         <v>5.43</v>
       </c>
       <c r="I90" s="10">
-        <f>(13*N90+3*(O90+P90)-2*(Q90))/M90+R90</f>
+        <f t="shared" si="15"/>
         <v>5.4297572815533979</v>
       </c>
       <c r="J90" s="10">
@@ -8053,7 +8064,7 @@
         <v>103</v>
       </c>
       <c r="M90" s="10">
-        <f>(L90-_xlfn.FLOOR.MATH(L90))*10/3+_xlfn.FLOOR.MATH(L90)</f>
+        <f t="shared" si="16"/>
         <v>103</v>
       </c>
       <c r="N90" s="10">
@@ -8072,26 +8083,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S90">
-        <f>C90*0.127-N90</f>
+        <f t="shared" si="17"/>
         <v>-1.4740000000000002</v>
       </c>
       <c r="T90">
-        <f>(13*(N90+S90)+3*(O90+P90)-2*Q90)/L90+R90</f>
+        <f t="shared" si="18"/>
         <v>5.2437184466019415</v>
       </c>
       <c r="U90">
         <v>1</v>
       </c>
       <c r="V90">
-        <f>S90*(2.101-U90)*9/L90+G90</f>
+        <f t="shared" si="19"/>
         <v>4.8387779999999996</v>
       </c>
       <c r="W90" s="7">
-        <f>G90-V90</f>
+        <f t="shared" si="20"/>
         <v>0.14180452427184509</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>153</v>
       </c>
@@ -8111,14 +8122,14 @@
         <v>3.25</v>
       </c>
       <c r="G91" s="10">
-        <f>E91*9/M91</f>
+        <f t="shared" si="14"/>
         <v>3.25</v>
       </c>
       <c r="H91" s="10">
         <v>3.16</v>
       </c>
       <c r="I91" s="10">
-        <f>(13*N91+3*(O91+P91)-2*(Q91))/M91+R91</f>
+        <f t="shared" si="15"/>
         <v>3.1624074074074073</v>
       </c>
       <c r="J91" s="10">
@@ -8131,7 +8142,7 @@
         <v>216</v>
       </c>
       <c r="M91" s="10">
-        <f>(L91-_xlfn.FLOOR.MATH(L91))*10/3+_xlfn.FLOOR.MATH(L91)</f>
+        <f t="shared" si="16"/>
         <v>216</v>
       </c>
       <c r="N91" s="10">
@@ -8150,26 +8161,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S91">
-        <f>C91*0.127-N91</f>
+        <f t="shared" si="17"/>
         <v>-3.4899999999999984</v>
       </c>
       <c r="T91">
-        <f>(13*(N91+S91)+3*(O91+P91)-2*Q91)/L91+R91</f>
+        <f t="shared" si="18"/>
         <v>2.9523611111111112</v>
       </c>
       <c r="U91">
         <v>1</v>
       </c>
       <c r="V91">
-        <f>S91*(2.101-U91)*9/L91+G91</f>
+        <f t="shared" si="19"/>
         <v>3.0898962500000002</v>
       </c>
       <c r="W91" s="7">
-        <f>G91-V91</f>
+        <f t="shared" si="20"/>
         <v>0.16010374999999977</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>136</v>
       </c>
@@ -8189,14 +8200,14 @@
         <v>7.4</v>
       </c>
       <c r="G92" s="10">
-        <f>E92*9/M92</f>
+        <f t="shared" si="14"/>
         <v>7.3960396039603964</v>
       </c>
       <c r="H92" s="10">
         <v>5.99</v>
       </c>
       <c r="I92" s="10">
-        <f>(13*N92+3*(O92+P92)-2*(Q92))/M92+R92</f>
+        <f t="shared" si="15"/>
         <v>5.9876732673267323</v>
       </c>
       <c r="J92" s="10">
@@ -8209,7 +8220,7 @@
         <v>101</v>
       </c>
       <c r="M92" s="10">
-        <f>(L92-_xlfn.FLOOR.MATH(L92))*10/3+_xlfn.FLOOR.MATH(L92)</f>
+        <f t="shared" si="16"/>
         <v>101</v>
       </c>
       <c r="N92" s="10">
@@ -8228,26 +8239,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S92">
-        <f>C92*0.127-N92</f>
+        <f t="shared" si="17"/>
         <v>-1.7119999999999997</v>
       </c>
       <c r="T92">
-        <f>(13*(N92+S92)+3*(O92+P92)-2*Q92)/L92+R92</f>
+        <f t="shared" si="18"/>
         <v>5.7673168316831687</v>
       </c>
       <c r="U92">
         <v>1</v>
       </c>
       <c r="V92">
-        <f>S92*(2.101-U92)*9/L92+G92</f>
+        <f t="shared" si="19"/>
         <v>7.2280771485148518</v>
       </c>
       <c r="W92" s="7">
-        <f>G92-V92</f>
+        <f t="shared" si="20"/>
         <v>0.16796245544554456</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>142</v>
       </c>
@@ -8267,14 +8278,14 @@
         <v>5.36</v>
       </c>
       <c r="G93" s="10">
-        <f>E93*9/M93</f>
+        <f t="shared" si="14"/>
         <v>5.3617021276595747</v>
       </c>
       <c r="H93" s="10">
         <v>5.3</v>
       </c>
       <c r="I93" s="10">
-        <f>(13*N93+3*(O93+P93)-2*(Q93))/M93+R93</f>
+        <f t="shared" si="15"/>
         <v>5.2975531914893619</v>
       </c>
       <c r="J93" s="10">
@@ -8287,7 +8298,7 @@
         <v>141</v>
       </c>
       <c r="M93" s="10">
-        <f>(L93-_xlfn.FLOOR.MATH(L93))*10/3+_xlfn.FLOOR.MATH(L93)</f>
+        <f t="shared" si="16"/>
         <v>141</v>
       </c>
       <c r="N93" s="10">
@@ -8306,26 +8317,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S93">
-        <f>C93*0.127-N93</f>
+        <f t="shared" si="17"/>
         <v>-2.41</v>
       </c>
       <c r="T93">
-        <f>(13*(N93+S93)+3*(O93+P93)-2*Q93)/L93+R93</f>
+        <f t="shared" si="18"/>
         <v>5.0753546099290787</v>
       </c>
       <c r="U93">
         <v>1</v>
       </c>
       <c r="V93">
-        <f>S93*(2.101-U93)*9/L93+G93</f>
+        <f t="shared" si="19"/>
         <v>5.1923355319148934</v>
       </c>
       <c r="W93" s="7">
-        <f>G93-V93</f>
+        <f t="shared" si="20"/>
         <v>0.16936659574468127</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>144</v>
       </c>
@@ -8345,14 +8356,14 @@
         <v>4.82</v>
       </c>
       <c r="G94" s="10">
-        <f>E94*9/M94</f>
+        <f t="shared" si="14"/>
         <v>4.8214285714285712</v>
       </c>
       <c r="H94" s="10">
         <v>4.25</v>
       </c>
       <c r="I94" s="10">
-        <f>(13*N94+3*(O94+P94)-2*(Q94))/M94+R94</f>
+        <f t="shared" si="15"/>
         <v>4.2460714285714287</v>
       </c>
       <c r="J94" s="10">
@@ -8365,7 +8376,7 @@
         <v>112</v>
       </c>
       <c r="M94" s="10">
-        <f>(L94-_xlfn.FLOOR.MATH(L94))*10/3+_xlfn.FLOOR.MATH(L94)</f>
+        <f t="shared" si="16"/>
         <v>112</v>
       </c>
       <c r="N94" s="10">
@@ -8384,26 +8395,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S94">
-        <f>C94*0.127-N94</f>
+        <f t="shared" si="17"/>
         <v>-2.1089999999999982</v>
       </c>
       <c r="T94">
-        <f>(13*(N94+S94)+3*(O94+P94)-2*Q94)/L94+R94</f>
+        <f t="shared" si="18"/>
         <v>4.0012767857142855</v>
       </c>
       <c r="U94">
         <v>1</v>
       </c>
       <c r="V94">
-        <f>S94*(2.101-U94)*9/L94+G94</f>
+        <f t="shared" si="19"/>
         <v>4.6348385624999997</v>
       </c>
       <c r="W94" s="7">
-        <f>G94-V94</f>
+        <f t="shared" si="20"/>
         <v>0.18659000892857147</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>143</v>
       </c>
@@ -8423,14 +8434,14 @@
         <v>5</v>
       </c>
       <c r="G95" s="10">
-        <f>E95*9/M95</f>
+        <f t="shared" si="14"/>
         <v>4.9953161592505859</v>
       </c>
       <c r="H95" s="10">
         <v>4.96</v>
       </c>
       <c r="I95" s="10">
-        <f>(13*N95+3*(O95+P95)-2*(Q95))/M95+R95</f>
+        <f t="shared" si="15"/>
         <v>4.9552341920374712</v>
       </c>
       <c r="J95" s="10">
@@ -8443,7 +8454,7 @@
         <v>142.1</v>
       </c>
       <c r="M95" s="10">
-        <f>(L95-_xlfn.FLOOR.MATH(L95))*10/3+_xlfn.FLOOR.MATH(L95)</f>
+        <f t="shared" si="16"/>
         <v>142.33333333333331</v>
       </c>
       <c r="N95" s="10">
@@ -8462,26 +8473,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S95">
-        <f>C95*0.127-N95</f>
+        <f t="shared" si="17"/>
         <v>-2.7590000000000003</v>
       </c>
       <c r="T95">
-        <f>(13*(N95+S95)+3*(O95+P95)-2*Q95)/L95+R95</f>
+        <f t="shared" si="18"/>
         <v>4.7056192821956362</v>
       </c>
       <c r="U95">
         <v>1</v>
       </c>
       <c r="V95">
-        <f>S95*(2.101-U95)*9/L95+G95</f>
+        <f t="shared" si="19"/>
         <v>4.8029239636137104</v>
       </c>
       <c r="W95" s="7">
-        <f>G95-V95</f>
+        <f t="shared" si="20"/>
         <v>0.19239219563687548</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>151</v>
       </c>
@@ -8501,14 +8512,14 @@
         <v>3.66</v>
       </c>
       <c r="G96" s="10">
-        <f>E96*9/M96</f>
+        <f t="shared" si="14"/>
         <v>3.6638830897703558</v>
       </c>
       <c r="H96" s="10">
         <v>3.68</v>
       </c>
       <c r="I96" s="10">
-        <f>(13*N96+3*(O96+P96)-2*(Q96))/M96+R96</f>
+        <f t="shared" si="15"/>
         <v>3.6808872651356994</v>
       </c>
       <c r="J96" s="10">
@@ -8521,7 +8532,7 @@
         <v>159.19999999999999</v>
       </c>
       <c r="M96" s="10">
-        <f>(L96-_xlfn.FLOOR.MATH(L96))*10/3+_xlfn.FLOOR.MATH(L96)</f>
+        <f t="shared" si="16"/>
         <v>159.66666666666663</v>
       </c>
       <c r="N96" s="10">
@@ -8540,26 +8551,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S96">
-        <f>C96*0.127-N96</f>
+        <f t="shared" si="17"/>
         <v>-3.2360000000000007</v>
       </c>
       <c r="T96">
-        <f>(13*(N96+S96)+3*(O96+P96)-2*Q96)/L96+R96</f>
+        <f t="shared" si="18"/>
         <v>3.4178894472361807</v>
       </c>
       <c r="U96">
         <v>1</v>
       </c>
       <c r="V96">
-        <f>S96*(2.101-U96)*9/L96+G96</f>
+        <f t="shared" si="19"/>
         <v>3.4624664817301549</v>
       </c>
       <c r="W96" s="7">
-        <f>G96-V96</f>
+        <f t="shared" si="20"/>
         <v>0.2014166080402009</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>141</v>
       </c>
@@ -8579,14 +8590,14 @@
         <v>6.28</v>
       </c>
       <c r="G97" s="10">
-        <f>E97*9/M97</f>
+        <f t="shared" si="14"/>
         <v>6.28142589118199</v>
       </c>
       <c r="H97" s="10">
         <v>5.62</v>
       </c>
       <c r="I97" s="10">
-        <f>(13*N97+3*(O97+P97)-2*(Q97))/M97+R97</f>
+        <f t="shared" si="15"/>
         <v>5.6189774859287063</v>
       </c>
       <c r="J97" s="10">
@@ -8599,7 +8610,7 @@
         <v>177.2</v>
       </c>
       <c r="M97" s="10">
-        <f>(L97-_xlfn.FLOOR.MATH(L97))*10/3+_xlfn.FLOOR.MATH(L97)</f>
+        <f t="shared" si="16"/>
         <v>177.66666666666663</v>
       </c>
       <c r="N97" s="10">
@@ -8618,26 +8629,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S97">
-        <f>C97*0.127-N97</f>
+        <f t="shared" si="17"/>
         <v>-3.820999999999998</v>
       </c>
       <c r="T97">
-        <f>(13*(N97+S97)+3*(O97+P97)-2*Q97)/L97+R97</f>
+        <f t="shared" si="18"/>
         <v>5.3448814898419865</v>
       </c>
       <c r="U97">
         <v>1</v>
       </c>
       <c r="V97">
-        <f>S97*(2.101-U97)*9/L97+G97</f>
+        <f t="shared" si="19"/>
         <v>6.0677560886989204</v>
       </c>
       <c r="W97" s="7">
-        <f>G97-V97</f>
+        <f t="shared" si="20"/>
         <v>0.21366980248306966</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>146</v>
       </c>
@@ -8657,14 +8668,14 @@
         <v>3.77</v>
       </c>
       <c r="G98" s="10">
-        <f>E98*9/M98</f>
+        <f t="shared" ref="G98:G128" si="21">E98*9/M98</f>
         <v>3.7729257641921405</v>
       </c>
       <c r="H98" s="10">
         <v>4.32</v>
       </c>
       <c r="I98" s="10">
-        <f>(13*N98+3*(O98+P98)-2*(Q98))/M98+R98</f>
+        <f t="shared" ref="I98:I128" si="22">(13*N98+3*(O98+P98)-2*(Q98))/M98+R98</f>
         <v>4.3226855895196508</v>
       </c>
       <c r="J98" s="10">
@@ -8677,7 +8688,7 @@
         <v>152.19999999999999</v>
       </c>
       <c r="M98" s="10">
-        <f>(L98-_xlfn.FLOOR.MATH(L98))*10/3+_xlfn.FLOOR.MATH(L98)</f>
+        <f t="shared" ref="M98:M129" si="23">(L98-_xlfn.FLOOR.MATH(L98))*10/3+_xlfn.FLOOR.MATH(L98)</f>
         <v>152.66666666666663</v>
       </c>
       <c r="N98" s="10">
@@ -8696,26 +8707,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S98">
-        <f>C98*0.127-N98</f>
+        <f t="shared" ref="S98:S128" si="24">C98*0.127-N98</f>
         <v>-3.6159999999999997</v>
       </c>
       <c r="T98">
-        <f>(13*(N98+S98)+3*(O98+P98)-2*Q98)/L98+R98</f>
+        <f t="shared" ref="T98:T129" si="25">(13*(N98+S98)+3*(O98+P98)-2*Q98)/L98+R98</f>
         <v>4.0171024967148492</v>
       </c>
       <c r="U98">
         <v>1</v>
       </c>
       <c r="V98">
-        <f>S98*(2.101-U98)*9/L98+G98</f>
+        <f t="shared" ref="V98:V129" si="26">S98*(2.101-U98)*9/L98+G98</f>
         <v>3.5375056327860959</v>
       </c>
       <c r="W98" s="7">
-        <f>G98-V98</f>
+        <f t="shared" ref="W98:W129" si="27">G98-V98</f>
         <v>0.23542013140604467</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>148</v>
       </c>
@@ -8735,14 +8746,14 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="G99" s="10">
-        <f>E99*9/M99</f>
+        <f t="shared" si="21"/>
         <v>5.0585480093676818</v>
       </c>
       <c r="H99" s="10">
         <v>4.74</v>
       </c>
       <c r="I99" s="10">
-        <f>(13*N99+3*(O99+P99)-2*(Q99))/M99+R99</f>
+        <f t="shared" si="22"/>
         <v>4.7444613583138171</v>
       </c>
       <c r="J99" s="10">
@@ -8755,7 +8766,7 @@
         <v>142.1</v>
       </c>
       <c r="M99" s="10">
-        <f>(L99-_xlfn.FLOOR.MATH(L99))*10/3+_xlfn.FLOOR.MATH(L99)</f>
+        <f t="shared" si="23"/>
         <v>142.33333333333331</v>
       </c>
       <c r="N99" s="10">
@@ -8774,26 +8785,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S99">
-        <f>C99*0.127-N99</f>
+        <f t="shared" si="24"/>
         <v>-3.536999999999999</v>
       </c>
       <c r="T99">
-        <f>(13*(N99+S99)+3*(O99+P99)-2*Q99)/L99+R99</f>
+        <f t="shared" si="25"/>
         <v>4.4233251231527095</v>
       </c>
       <c r="U99">
         <v>1</v>
       </c>
       <c r="V99">
-        <f>S99*(2.101-U99)*9/L99+G99</f>
+        <f t="shared" si="26"/>
         <v>4.8119038643993495</v>
       </c>
       <c r="W99" s="7">
-        <f>G99-V99</f>
+        <f t="shared" si="27"/>
         <v>0.24664414496833231</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>152</v>
       </c>
@@ -8813,14 +8824,14 @@
         <v>3.86</v>
       </c>
       <c r="G100" s="10">
-        <f>E100*9/M100</f>
+        <f t="shared" si="21"/>
         <v>3.8648111332007962</v>
       </c>
       <c r="H100" s="10">
         <v>4.12</v>
       </c>
       <c r="I100" s="10">
-        <f>(13*N100+3*(O100+P100)-2*(Q100))/M100+R100</f>
+        <f t="shared" si="22"/>
         <v>4.1198111332007956</v>
       </c>
       <c r="J100" s="10">
@@ -8833,7 +8844,7 @@
         <v>167.2</v>
       </c>
       <c r="M100" s="10">
-        <f>(L100-_xlfn.FLOOR.MATH(L100))*10/3+_xlfn.FLOOR.MATH(L100)</f>
+        <f t="shared" si="23"/>
         <v>167.66666666666663</v>
       </c>
       <c r="N100" s="10">
@@ -8852,26 +8863,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S100">
-        <f>C100*0.127-N100</f>
+        <f t="shared" si="24"/>
         <v>-4.5210000000000008</v>
       </c>
       <c r="T100">
-        <f>(13*(N100+S100)+3*(O100+P100)-2*Q100)/L100+R100</f>
+        <f t="shared" si="25"/>
         <v>3.7707117224880382</v>
       </c>
       <c r="U100">
         <v>1</v>
       </c>
       <c r="V100">
-        <f>S100*(2.101-U100)*9/L100+G100</f>
+        <f t="shared" si="26"/>
         <v>3.5968769884639542</v>
       </c>
       <c r="W100" s="7">
-        <f>G100-V100</f>
+        <f t="shared" si="27"/>
         <v>0.26793414473684196</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>149</v>
       </c>
@@ -8891,14 +8902,14 @@
         <v>5.5</v>
       </c>
       <c r="G101" s="10">
-        <f>E101*9/M101</f>
+        <f t="shared" si="21"/>
         <v>5.5035971223021587</v>
       </c>
       <c r="H101" s="10">
         <v>5.43</v>
       </c>
       <c r="I101" s="10">
-        <f>(13*N101+3*(O101+P101)-2*(Q101))/M101+R101</f>
+        <f t="shared" si="22"/>
         <v>5.4276618705035968</v>
       </c>
       <c r="J101" s="10">
@@ -8911,7 +8922,7 @@
         <v>139</v>
       </c>
       <c r="M101" s="10">
-        <f>(L101-_xlfn.FLOOR.MATH(L101))*10/3+_xlfn.FLOOR.MATH(L101)</f>
+        <f t="shared" si="23"/>
         <v>139</v>
       </c>
       <c r="N101" s="10">
@@ -8930,26 +8941,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S101">
-        <f>C101*0.127-N101</f>
+        <f t="shared" si="24"/>
         <v>-3.7749999999999986</v>
       </c>
       <c r="T101">
-        <f>(13*(N101+S101)+3*(O101+P101)-2*Q101)/L101+R101</f>
+        <f t="shared" si="25"/>
         <v>5.0746043165467629</v>
       </c>
       <c r="U101">
         <v>1</v>
       </c>
       <c r="V101">
-        <f>S101*(2.101-U101)*9/L101+G101</f>
+        <f t="shared" si="26"/>
         <v>5.2344857913669074</v>
       </c>
       <c r="W101" s="7">
-        <f>G101-V101</f>
+        <f t="shared" si="27"/>
         <v>0.2691113309352513</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>147</v>
       </c>
@@ -8969,14 +8980,14 @@
         <v>3.64</v>
       </c>
       <c r="G102" s="10">
-        <f>E102*9/M102</f>
+        <f t="shared" si="21"/>
         <v>3.6404494382022472</v>
       </c>
       <c r="H102" s="10">
         <v>4.9800000000000004</v>
       </c>
       <c r="I102" s="10">
-        <f>(13*N102+3*(O102+P102)-2*(Q102))/M102+R102</f>
+        <f t="shared" si="22"/>
         <v>4.9825280898876407</v>
       </c>
       <c r="J102" s="10">
@@ -8989,7 +9000,7 @@
         <v>118.2</v>
       </c>
       <c r="M102" s="10">
-        <f>(L102-_xlfn.FLOOR.MATH(L102))*10/3+_xlfn.FLOOR.MATH(L102)</f>
+        <f t="shared" si="23"/>
         <v>118.66666666666667</v>
       </c>
       <c r="N102" s="10">
@@ -9008,26 +9019,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S102">
-        <f>C102*0.127-N102</f>
+        <f t="shared" si="24"/>
         <v>-3.2830000000000013</v>
       </c>
       <c r="T102">
-        <f>(13*(N102+S102)+3*(O102+P102)-2*Q102)/L102+R102</f>
+        <f t="shared" si="25"/>
         <v>4.6282741116751263</v>
       </c>
       <c r="U102">
         <v>1</v>
       </c>
       <c r="V102">
-        <f>S102*(2.101-U102)*9/L102+G102</f>
+        <f t="shared" si="26"/>
         <v>3.3652273823646834</v>
       </c>
       <c r="W102" s="7">
-        <f>G102-V102</f>
+        <f t="shared" si="27"/>
         <v>0.27522205583756376</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>158</v>
       </c>
@@ -9047,14 +9058,14 @@
         <v>5.01</v>
       </c>
       <c r="G103" s="10">
-        <f>E103*9/M103</f>
+        <f t="shared" si="21"/>
         <v>5.0094339622641506</v>
       </c>
       <c r="H103" s="10">
         <v>4.43</v>
       </c>
       <c r="I103" s="10">
-        <f>(13*N103+3*(O103+P103)-2*(Q103))/M103+R103</f>
+        <f t="shared" si="22"/>
         <v>4.4342452830188677</v>
       </c>
       <c r="J103" s="10">
@@ -9067,7 +9078,7 @@
         <v>106</v>
       </c>
       <c r="M103" s="10">
-        <f>(L103-_xlfn.FLOOR.MATH(L103))*10/3+_xlfn.FLOOR.MATH(L103)</f>
+        <f t="shared" si="23"/>
         <v>106</v>
       </c>
       <c r="N103" s="10">
@@ -9086,26 +9097,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S103">
-        <f>C103*0.127-N103</f>
+        <f t="shared" si="24"/>
         <v>-2.9510000000000005</v>
       </c>
       <c r="T103">
-        <f>(13*(N103+S103)+3*(O103+P103)-2*Q103)/L103+R103</f>
+        <f t="shared" si="25"/>
         <v>4.0723301886792456</v>
       </c>
       <c r="U103">
         <v>1</v>
       </c>
       <c r="V103">
-        <f>S103*(2.101-U103)*9/L103+G103</f>
+        <f t="shared" si="26"/>
         <v>4.7335711415094339</v>
       </c>
       <c r="W103" s="7">
-        <f>G103-V103</f>
+        <f t="shared" si="27"/>
         <v>0.27586282075471669</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>150</v>
       </c>
@@ -9125,14 +9136,14 @@
         <v>4.51</v>
       </c>
       <c r="G104" s="10">
-        <f>E104*9/M104</f>
+        <f t="shared" si="21"/>
         <v>4.5092783505154648</v>
       </c>
       <c r="H104" s="10">
         <v>4.13</v>
       </c>
       <c r="I104" s="10">
-        <f>(13*N104+3*(O104+P104)-2*(Q104))/M104+R104</f>
+        <f t="shared" si="22"/>
         <v>4.1333505154639179</v>
       </c>
       <c r="J104" s="10">
@@ -9145,7 +9156,7 @@
         <v>161.19999999999999</v>
       </c>
       <c r="M104" s="10">
-        <f>(L104-_xlfn.FLOOR.MATH(L104))*10/3+_xlfn.FLOOR.MATH(L104)</f>
+        <f t="shared" si="23"/>
         <v>161.66666666666663</v>
       </c>
       <c r="N104" s="10">
@@ -9164,26 +9175,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S104">
-        <f>C104*0.127-N104</f>
+        <f t="shared" si="24"/>
         <v>-4.6950000000000003</v>
       </c>
       <c r="T104">
-        <f>(13*(N104+S104)+3*(O104+P104)-2*Q104)/L104+R104</f>
+        <f t="shared" si="25"/>
         <v>3.7572642679900743</v>
       </c>
       <c r="U104">
         <v>1</v>
       </c>
       <c r="V104">
-        <f>S104*(2.101-U104)*9/L104+G104</f>
+        <f t="shared" si="26"/>
         <v>4.2206756520042985</v>
       </c>
       <c r="W104" s="7">
-        <f>G104-V104</f>
+        <f t="shared" si="27"/>
         <v>0.28860269851116627</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>154</v>
       </c>
@@ -9203,14 +9214,14 @@
         <v>4.46</v>
       </c>
       <c r="G105" s="10">
-        <f>E105*9/M105</f>
+        <f t="shared" si="21"/>
         <v>4.4612736660929437</v>
       </c>
       <c r="H105" s="10">
         <v>4.03</v>
       </c>
       <c r="I105" s="10">
-        <f>(13*N105+3*(O105+P105)-2*(Q105))/M105+R105</f>
+        <f t="shared" si="22"/>
         <v>4.0295266781411359</v>
       </c>
       <c r="J105" s="10">
@@ -9223,7 +9234,7 @@
         <v>193.2</v>
       </c>
       <c r="M105" s="10">
-        <f>(L105-_xlfn.FLOOR.MATH(L105))*10/3+_xlfn.FLOOR.MATH(L105)</f>
+        <f t="shared" si="23"/>
         <v>193.66666666666663</v>
       </c>
       <c r="N105" s="10">
@@ -9242,26 +9253,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S105">
-        <f>C105*0.127-N105</f>
+        <f t="shared" si="24"/>
         <v>-5.9649999999999999</v>
       </c>
       <c r="T105">
-        <f>(13*(N105+S105)+3*(O105+P105)-2*Q105)/L105+R105</f>
+        <f t="shared" si="25"/>
         <v>3.6300258799171843</v>
       </c>
       <c r="U105">
         <v>1</v>
       </c>
       <c r="V105">
-        <f>S105*(2.101-U105)*9/L105+G105</f>
+        <f t="shared" si="26"/>
         <v>4.1553358555339379</v>
       </c>
       <c r="W105" s="7">
-        <f>G105-V105</f>
+        <f t="shared" si="27"/>
         <v>0.30593781055900582</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>155</v>
       </c>
@@ -9281,14 +9292,14 @@
         <v>4.04</v>
       </c>
       <c r="G106" s="10">
-        <f>E106*9/M106</f>
+        <f t="shared" si="21"/>
         <v>4.0373831775700948</v>
       </c>
       <c r="H106" s="10">
         <v>3.96</v>
       </c>
       <c r="I106" s="10">
-        <f>(13*N106+3*(O106+P106)-2*(Q106))/M106+R106</f>
+        <f t="shared" si="22"/>
         <v>3.9629439252336449</v>
       </c>
       <c r="J106" s="10">
@@ -9301,7 +9312,7 @@
         <v>142.19999999999999</v>
       </c>
       <c r="M106" s="10">
-        <f>(L106-_xlfn.FLOOR.MATH(L106))*10/3+_xlfn.FLOOR.MATH(L106)</f>
+        <f t="shared" si="23"/>
         <v>142.66666666666663</v>
       </c>
       <c r="N106" s="10">
@@ -9320,26 +9331,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S106">
-        <f>C106*0.127-N106</f>
+        <f t="shared" si="24"/>
         <v>-4.5850000000000009</v>
       </c>
       <c r="T106">
-        <f>(13*(N106+S106)+3*(O106+P106)-2*Q106)/L106+R106</f>
+        <f t="shared" si="25"/>
         <v>3.5461040787623066</v>
       </c>
       <c r="U106">
         <v>1</v>
       </c>
       <c r="V106">
-        <f>S106*(2.101-U106)*9/L106+G106</f>
+        <f t="shared" si="26"/>
         <v>3.7178841269371832</v>
       </c>
       <c r="W106" s="7">
-        <f>G106-V106</f>
+        <f t="shared" si="27"/>
         <v>0.31949905063291162</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>162</v>
       </c>
@@ -9359,14 +9370,14 @@
         <v>3.14</v>
       </c>
       <c r="G107" s="10">
-        <f>E107*9/M107</f>
+        <f t="shared" si="21"/>
         <v>3.1363636363636362</v>
       </c>
       <c r="H107" s="10">
         <v>4</v>
       </c>
       <c r="I107" s="10">
-        <f>(13*N107+3*(O107+P107)-2*(Q107))/M107+R107</f>
+        <f t="shared" si="22"/>
         <v>3.9974242424242421</v>
       </c>
       <c r="J107" s="10">
@@ -9379,7 +9390,7 @@
         <v>132</v>
       </c>
       <c r="M107" s="10">
-        <f>(L107-_xlfn.FLOOR.MATH(L107))*10/3+_xlfn.FLOOR.MATH(L107)</f>
+        <f t="shared" si="23"/>
         <v>132</v>
       </c>
       <c r="N107" s="10">
@@ -9398,26 +9409,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S107">
-        <f>C107*0.127-N107</f>
+        <f t="shared" si="24"/>
         <v>-4.2839999999999989</v>
       </c>
       <c r="T107">
-        <f>(13*(N107+S107)+3*(O107+P107)-2*Q107)/L107+R107</f>
+        <f t="shared" si="25"/>
         <v>3.5755151515151513</v>
       </c>
       <c r="U107">
         <v>1</v>
       </c>
       <c r="V107">
-        <f>S107*(2.101-U107)*9/L107+G107</f>
+        <f t="shared" si="26"/>
         <v>2.8147715454545454</v>
       </c>
       <c r="W107" s="7">
-        <f>G107-V107</f>
+        <f t="shared" si="27"/>
         <v>0.3215920909090908</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>156</v>
       </c>
@@ -9437,14 +9448,14 @@
         <v>3.86</v>
       </c>
       <c r="G108" s="10">
-        <f>E108*9/M108</f>
+        <f t="shared" si="21"/>
         <v>3.8571428571428581</v>
       </c>
       <c r="H108" s="10">
         <v>3.85</v>
       </c>
       <c r="I108" s="10">
-        <f>(13*N108+3*(O108+P108)-2*(Q108))/M108+R108</f>
+        <f t="shared" si="22"/>
         <v>3.8465492957746479</v>
       </c>
       <c r="J108" s="10">
@@ -9457,7 +9468,7 @@
         <v>165.2</v>
       </c>
       <c r="M108" s="10">
-        <f>(L108-_xlfn.FLOOR.MATH(L108))*10/3+_xlfn.FLOOR.MATH(L108)</f>
+        <f t="shared" si="23"/>
         <v>165.66666666666663</v>
       </c>
       <c r="N108" s="10">
@@ -9476,26 +9487,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S108">
-        <f>C108*0.127-N108</f>
+        <f t="shared" si="24"/>
         <v>-5.4259999999999984</v>
       </c>
       <c r="T108">
-        <f>(13*(N108+S108)+3*(O108+P108)-2*Q108)/L108+R108</f>
+        <f t="shared" si="25"/>
         <v>3.4212348668280872</v>
       </c>
       <c r="U108">
         <v>1</v>
       </c>
       <c r="V108">
-        <f>S108*(2.101-U108)*9/L108+G108</f>
+        <f t="shared" si="26"/>
         <v>3.5316813922518171</v>
       </c>
       <c r="W108" s="7">
-        <f>G108-V108</f>
+        <f t="shared" si="27"/>
         <v>0.325461464891041</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>164</v>
       </c>
@@ -9515,14 +9526,14 @@
         <v>2.46</v>
       </c>
       <c r="G109" s="10">
-        <f>E109*9/M109</f>
+        <f t="shared" si="21"/>
         <v>2.4607594936708868</v>
       </c>
       <c r="H109" s="10">
         <v>4.03</v>
       </c>
       <c r="I109" s="10">
-        <f>(13*N109+3*(O109+P109)-2*(Q109))/M109+R109</f>
+        <f t="shared" si="22"/>
         <v>4.0296835443037979</v>
       </c>
       <c r="J109" s="10">
@@ -9535,7 +9546,7 @@
         <v>131.19999999999999</v>
       </c>
       <c r="M109" s="10">
-        <f>(L109-_xlfn.FLOOR.MATH(L109))*10/3+_xlfn.FLOOR.MATH(L109)</f>
+        <f t="shared" si="23"/>
         <v>131.66666666666663</v>
       </c>
       <c r="N109" s="10">
@@ -9554,26 +9565,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S109">
-        <f>C109*0.127-N109</f>
+        <f t="shared" si="24"/>
         <v>-4.6489999999999991</v>
       </c>
       <c r="T109">
-        <f>(13*(N109+S109)+3*(O109+P109)-2*Q109)/L109+R109</f>
+        <f t="shared" si="25"/>
         <v>3.5717911585365854</v>
       </c>
       <c r="U109">
         <v>1</v>
       </c>
       <c r="V109">
-        <f>S109*(2.101-U109)*9/L109+G109</f>
+        <f t="shared" si="26"/>
         <v>2.1096395165367405</v>
       </c>
       <c r="W109" s="7">
-        <f>G109-V109</f>
+        <f t="shared" si="27"/>
         <v>0.35111997713414622</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>157</v>
       </c>
@@ -9593,14 +9604,14 @@
         <v>4.32</v>
       </c>
       <c r="G110" s="10">
-        <f>E110*9/M110</f>
+        <f t="shared" si="21"/>
         <v>4.3228346456692917</v>
       </c>
       <c r="H110" s="10">
         <v>4.29</v>
       </c>
       <c r="I110" s="10">
-        <f>(13*N110+3*(O110+P110)-2*(Q110))/M110+R110</f>
+        <f t="shared" si="22"/>
         <v>4.2864960629921258</v>
       </c>
       <c r="J110" s="10">
@@ -9613,7 +9624,7 @@
         <v>127</v>
       </c>
       <c r="M110" s="10">
-        <f>(L110-_xlfn.FLOOR.MATH(L110))*10/3+_xlfn.FLOOR.MATH(L110)</f>
+        <f t="shared" si="23"/>
         <v>127</v>
       </c>
       <c r="N110" s="10">
@@ -9632,26 +9643,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S110">
-        <f>C110*0.127-N110</f>
+        <f t="shared" si="24"/>
         <v>-4.6009999999999991</v>
       </c>
       <c r="T110">
-        <f>(13*(N110+S110)+3*(O110+P110)-2*Q110)/L110+R110</f>
+        <f t="shared" si="25"/>
         <v>3.8155275590551181</v>
       </c>
       <c r="U110">
         <v>1</v>
       </c>
       <c r="V110">
-        <f>S110*(2.101-U110)*9/L110+G110</f>
+        <f t="shared" si="26"/>
         <v>3.9638479606299217</v>
       </c>
       <c r="W110" s="7">
-        <f>G110-V110</f>
+        <f t="shared" si="27"/>
         <v>0.35898668503936992</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>163</v>
       </c>
@@ -9671,14 +9682,14 @@
         <v>4.76</v>
       </c>
       <c r="G111" s="10">
-        <f>E111*9/M111</f>
+        <f t="shared" si="21"/>
         <v>4.7574370709382166</v>
       </c>
       <c r="H111" s="10">
         <v>5.0599999999999996</v>
       </c>
       <c r="I111" s="10">
-        <f>(13*N111+3*(O111+P111)-2*(Q111))/M111+R111</f>
+        <f t="shared" si="22"/>
         <v>5.0604919908466819</v>
       </c>
       <c r="J111" s="10">
@@ -9691,7 +9702,7 @@
         <v>145.19999999999999</v>
       </c>
       <c r="M111" s="10">
-        <f>(L111-_xlfn.FLOOR.MATH(L111))*10/3+_xlfn.FLOOR.MATH(L111)</f>
+        <f t="shared" si="23"/>
         <v>145.66666666666663</v>
       </c>
       <c r="N111" s="10">
@@ -9710,26 +9721,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S111">
-        <f>C111*0.127-N111</f>
+        <f t="shared" si="24"/>
         <v>-5.4740000000000002</v>
       </c>
       <c r="T111">
-        <f>(13*(N111+S111)+3*(O111+P111)-2*Q111)/L111+R111</f>
+        <f t="shared" si="25"/>
         <v>4.5761983471074377</v>
       </c>
       <c r="U111">
         <v>1</v>
       </c>
       <c r="V111">
-        <f>S111*(2.101-U111)*9/L111+G111</f>
+        <f t="shared" si="26"/>
         <v>4.3838705006902829</v>
       </c>
       <c r="W111" s="7">
-        <f>G111-V111</f>
+        <f t="shared" si="27"/>
         <v>0.3735665702479336</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>174</v>
       </c>
@@ -9749,14 +9760,14 @@
         <v>3.87</v>
       </c>
       <c r="G112" s="10">
-        <f>E112*9/M112</f>
+        <f t="shared" si="21"/>
         <v>3.8656387665198242</v>
       </c>
       <c r="H112" s="10">
         <v>4.01</v>
       </c>
       <c r="I112" s="10">
-        <f>(13*N112+3*(O112+P112)-2*(Q112))/M112+R112</f>
+        <f t="shared" si="22"/>
         <v>4.008303964757709</v>
       </c>
       <c r="J112" s="10">
@@ -9769,7 +9780,7 @@
         <v>151.1</v>
       </c>
       <c r="M112" s="10">
-        <f>(L112-_xlfn.FLOOR.MATH(L112))*10/3+_xlfn.FLOOR.MATH(L112)</f>
+        <f t="shared" si="23"/>
         <v>151.33333333333331</v>
       </c>
       <c r="N112" s="10">
@@ -9788,26 +9799,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S112">
-        <f>C112*0.127-N112</f>
+        <f t="shared" si="24"/>
         <v>-5.7919999999999998</v>
       </c>
       <c r="T112">
-        <f>(13*(N112+S112)+3*(O112+P112)-2*Q112)/L112+R112</f>
+        <f t="shared" si="25"/>
         <v>3.5111482461945731</v>
       </c>
       <c r="U112">
         <v>1</v>
       </c>
       <c r="V112">
-        <f>S112*(2.101-U112)*9/L112+G112</f>
+        <f t="shared" si="26"/>
         <v>3.485804696367607</v>
       </c>
       <c r="W112" s="7">
-        <f>G112-V112</f>
+        <f t="shared" si="27"/>
         <v>0.37983407015221715</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>168</v>
       </c>
@@ -9827,14 +9838,14 @@
         <v>4.24</v>
       </c>
       <c r="G113" s="10">
-        <f>E113*9/M113</f>
+        <f t="shared" si="21"/>
         <v>4.2420382165605099</v>
       </c>
       <c r="H113" s="10">
         <v>4.54</v>
       </c>
       <c r="I113" s="10">
-        <f>(13*N113+3*(O113+P113)-2*(Q113))/M113+R113</f>
+        <f t="shared" si="22"/>
         <v>4.5352547770700635</v>
       </c>
       <c r="J113" s="10">
@@ -9847,7 +9858,7 @@
         <v>157</v>
       </c>
       <c r="M113" s="10">
-        <f>(L113-_xlfn.FLOOR.MATH(L113))*10/3+_xlfn.FLOOR.MATH(L113)</f>
+        <f t="shared" si="23"/>
         <v>157</v>
       </c>
       <c r="N113" s="10">
@@ -9866,26 +9877,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S113">
-        <f>C113*0.127-N113</f>
+        <f t="shared" si="24"/>
         <v>-6.2199999999999989</v>
       </c>
       <c r="T113">
-        <f>(13*(N113+S113)+3*(O113+P113)-2*Q113)/L113+R113</f>
+        <f t="shared" si="25"/>
         <v>4.0202229299363053</v>
       </c>
       <c r="U113">
         <v>1</v>
       </c>
       <c r="V113">
-        <f>S113*(2.101-U113)*9/L113+G113</f>
+        <f t="shared" si="26"/>
         <v>3.8494650955414018</v>
       </c>
       <c r="W113" s="7">
-        <f>G113-V113</f>
+        <f t="shared" si="27"/>
         <v>0.39257312101910813</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>160</v>
       </c>
@@ -9905,14 +9916,14 @@
         <v>5.2</v>
       </c>
       <c r="G114" s="10">
-        <f>E114*9/M114</f>
+        <f t="shared" si="21"/>
         <v>5.2</v>
       </c>
       <c r="H114" s="10">
         <v>5.28</v>
       </c>
       <c r="I114" s="10">
-        <f>(13*N114+3*(O114+P114)-2*(Q114))/M114+R114</f>
+        <f t="shared" si="22"/>
         <v>5.277222222222222</v>
       </c>
       <c r="J114" s="10">
@@ -9925,7 +9936,7 @@
         <v>180</v>
       </c>
       <c r="M114" s="10">
-        <f>(L114-_xlfn.FLOOR.MATH(L114))*10/3+_xlfn.FLOOR.MATH(L114)</f>
+        <f t="shared" si="23"/>
         <v>180</v>
       </c>
       <c r="N114" s="10">
@@ -9944,26 +9955,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S114">
-        <f>C114*0.127-N114</f>
+        <f t="shared" si="24"/>
         <v>-7.2190000000000012</v>
       </c>
       <c r="T114">
-        <f>(13*(N114+S114)+3*(O114+P114)-2*Q114)/L114+R114</f>
+        <f t="shared" si="25"/>
         <v>4.7558499999999997</v>
       </c>
       <c r="U114">
         <v>1</v>
       </c>
       <c r="V114">
-        <f>S114*(2.101-U114)*9/L114+G114</f>
+        <f t="shared" si="26"/>
         <v>4.8025940499999997</v>
       </c>
       <c r="W114" s="7">
-        <f>G114-V114</f>
+        <f t="shared" si="27"/>
         <v>0.39740595000000045</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>159</v>
       </c>
@@ -9983,14 +9994,14 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G115" s="10">
-        <f>E115*9/M115</f>
+        <f t="shared" si="21"/>
         <v>4.6022727272727284</v>
       </c>
       <c r="H115" s="10">
         <v>4.6900000000000004</v>
       </c>
       <c r="I115" s="10">
-        <f>(13*N115+3*(O115+P115)-2*(Q115))/M115+R115</f>
+        <f t="shared" si="22"/>
         <v>4.6868181818181824</v>
       </c>
       <c r="J115" s="10">
@@ -10003,7 +10014,7 @@
         <v>117.1</v>
       </c>
       <c r="M115" s="10">
-        <f>(L115-_xlfn.FLOOR.MATH(L115))*10/3+_xlfn.FLOOR.MATH(L115)</f>
+        <f t="shared" si="23"/>
         <v>117.33333333333331</v>
       </c>
       <c r="N115" s="10">
@@ -10022,26 +10033,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S115">
-        <f>C115*0.127-N115</f>
+        <f t="shared" si="24"/>
         <v>-5.0769999999999982</v>
       </c>
       <c r="T115">
-        <f>(13*(N115+S115)+3*(O115+P115)-2*Q115)/L115+R115</f>
+        <f t="shared" si="25"/>
         <v>4.1260418445772844</v>
       </c>
       <c r="U115">
         <v>1</v>
       </c>
       <c r="V115">
-        <f>S115*(2.101-U115)*9/L115+G115</f>
+        <f t="shared" si="26"/>
         <v>4.17265707398494</v>
       </c>
       <c r="W115" s="7">
-        <f>G115-V115</f>
+        <f t="shared" si="27"/>
         <v>0.42961565328778839</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>165</v>
       </c>
@@ -10061,14 +10072,14 @@
         <v>4.55</v>
       </c>
       <c r="G116" s="10">
-        <f>E116*9/M116</f>
+        <f t="shared" si="21"/>
         <v>4.5481283422459891</v>
       </c>
       <c r="H116" s="10">
         <v>4.9000000000000004</v>
       </c>
       <c r="I116" s="10">
-        <f>(13*N116+3*(O116+P116)-2*(Q116))/M116+R116</f>
+        <f t="shared" si="22"/>
         <v>4.8993850267379679</v>
       </c>
       <c r="J116" s="10">
@@ -10081,7 +10092,7 @@
         <v>124.2</v>
       </c>
       <c r="M116" s="10">
-        <f>(L116-_xlfn.FLOOR.MATH(L116))*10/3+_xlfn.FLOOR.MATH(L116)</f>
+        <f t="shared" si="23"/>
         <v>124.66666666666667</v>
       </c>
       <c r="N116" s="10">
@@ -10100,26 +10111,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S116">
-        <f>C116*0.127-N116</f>
+        <f t="shared" si="24"/>
         <v>-5.7280000000000015</v>
       </c>
       <c r="T116">
-        <f>(13*(N116+S116)+3*(O116+P116)-2*Q116)/L116+R116</f>
+        <f t="shared" si="25"/>
         <v>4.3060144927536221</v>
       </c>
       <c r="U116">
         <v>1</v>
       </c>
       <c r="V116">
-        <f>S116*(2.101-U116)*9/L116+G116</f>
+        <f t="shared" si="26"/>
         <v>4.0911335596372931</v>
       </c>
       <c r="W116" s="7">
-        <f>G116-V116</f>
+        <f t="shared" si="27"/>
         <v>0.45699478260869597</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>167</v>
       </c>
@@ -10139,14 +10150,14 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="G117" s="10">
-        <f>E117*9/M117</f>
+        <f t="shared" si="21"/>
         <v>4.5552147239263805</v>
       </c>
       <c r="H117" s="10">
         <v>4.6500000000000004</v>
       </c>
       <c r="I117" s="10">
-        <f>(13*N117+3*(O117+P117)-2*(Q117))/M117+R117</f>
+        <f t="shared" si="22"/>
         <v>4.6537730061349691</v>
       </c>
       <c r="J117" s="10">
@@ -10159,7 +10170,7 @@
         <v>108.2</v>
       </c>
       <c r="M117" s="10">
-        <f>(L117-_xlfn.FLOOR.MATH(L117))*10/3+_xlfn.FLOOR.MATH(L117)</f>
+        <f t="shared" si="23"/>
         <v>108.66666666666667</v>
       </c>
       <c r="N117" s="10">
@@ -10178,26 +10189,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S117">
-        <f>C117*0.127-N117</f>
+        <f t="shared" si="24"/>
         <v>-5.141</v>
       </c>
       <c r="T117">
-        <f>(13*(N117+S117)+3*(O117+P117)-2*Q117)/L117+R117</f>
+        <f t="shared" si="25"/>
         <v>4.0421256931608136</v>
       </c>
       <c r="U117">
         <v>1</v>
       </c>
       <c r="V117">
-        <f>S117*(2.101-U117)*9/L117+G117</f>
+        <f t="shared" si="26"/>
         <v>4.0843998533163992</v>
       </c>
       <c r="W117" s="7">
-        <f>G117-V117</f>
+        <f t="shared" si="27"/>
         <v>0.47081487060998128</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>161</v>
       </c>
@@ -10217,14 +10228,14 @@
         <v>6.9</v>
       </c>
       <c r="G118" s="10">
-        <f>E118*9/M118</f>
+        <f t="shared" si="21"/>
         <v>6.8990536277602521</v>
       </c>
       <c r="H118" s="10">
         <v>5.81</v>
       </c>
       <c r="I118" s="10">
-        <f>(13*N118+3*(O118+P118)-2*(Q118))/M118+R118</f>
+        <f t="shared" si="22"/>
         <v>5.810205047318612</v>
       </c>
       <c r="J118" s="10">
@@ -10237,7 +10248,7 @@
         <v>105.2</v>
       </c>
       <c r="M118" s="10">
-        <f>(L118-_xlfn.FLOOR.MATH(L118))*10/3+_xlfn.FLOOR.MATH(L118)</f>
+        <f t="shared" si="23"/>
         <v>105.66666666666667</v>
       </c>
       <c r="N118" s="10">
@@ -10256,26 +10267,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S118">
-        <f>C118*0.127-N118</f>
+        <f t="shared" si="24"/>
         <v>-5.5689999999999991</v>
       </c>
       <c r="T118">
-        <f>(13*(N118+S118)+3*(O118+P118)-2*Q118)/L118+R118</f>
+        <f t="shared" si="25"/>
         <v>5.1333555133079845</v>
       </c>
       <c r="U118">
         <v>1</v>
       </c>
       <c r="V118">
-        <f>S118*(2.101-U118)*9/L118+G118</f>
+        <f t="shared" si="26"/>
         <v>6.3744982950606328</v>
       </c>
       <c r="W118" s="7">
-        <f>G118-V118</f>
+        <f t="shared" si="27"/>
         <v>0.52455533269961929</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>178</v>
       </c>
@@ -10295,14 +10306,14 @@
         <v>5.03</v>
       </c>
       <c r="G119" s="10">
-        <f>E119*9/M119</f>
+        <f t="shared" si="21"/>
         <v>5.0270270270270272</v>
       </c>
       <c r="H119" s="5">
         <v>4.34</v>
       </c>
       <c r="I119" s="10">
-        <f>(13*N119+3*(O119+P119)-2*(Q119))/M119+R119</f>
+        <f t="shared" si="22"/>
         <v>4.3360810810810815</v>
       </c>
       <c r="J119" s="5">
@@ -10315,7 +10326,7 @@
         <v>111</v>
       </c>
       <c r="M119" s="10">
-        <f>(L119-_xlfn.FLOOR.MATH(L119))*10/3+_xlfn.FLOOR.MATH(L119)</f>
+        <f t="shared" si="23"/>
         <v>111</v>
       </c>
       <c r="N119" s="5">
@@ -10334,26 +10345,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S119">
-        <f>C119*0.127-N119</f>
+        <f t="shared" si="24"/>
         <v>-6.347999999999999</v>
       </c>
       <c r="T119">
-        <f>(13*(N119+S119)+3*(O119+P119)-2*Q119)/L119+R119</f>
+        <f t="shared" si="25"/>
         <v>3.5926216216216216</v>
       </c>
       <c r="U119">
         <v>1</v>
       </c>
       <c r="V119">
-        <f>S119*(2.101-U119)*9/L119+G119</f>
+        <f t="shared" si="26"/>
         <v>4.4603393513513518</v>
       </c>
       <c r="W119" s="7">
-        <f>G119-V119</f>
+        <f t="shared" si="27"/>
         <v>0.56668767567567535</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>166</v>
       </c>
@@ -10373,14 +10384,14 @@
         <v>5.55</v>
       </c>
       <c r="G120" s="10">
-        <f>E120*9/M120</f>
+        <f t="shared" si="21"/>
         <v>5.5496535796766748</v>
       </c>
       <c r="H120" s="10">
         <v>5.98</v>
       </c>
       <c r="I120" s="10">
-        <f>(13*N120+3*(O120+P120)-2*(Q120))/M120+R120</f>
+        <f t="shared" si="22"/>
         <v>5.9847921478060044</v>
       </c>
       <c r="J120" s="10">
@@ -10393,7 +10404,7 @@
         <v>144.1</v>
       </c>
       <c r="M120" s="10">
-        <f>(L120-_xlfn.FLOOR.MATH(L120))*10/3+_xlfn.FLOOR.MATH(L120)</f>
+        <f t="shared" si="23"/>
         <v>144.33333333333331</v>
       </c>
       <c r="N120" s="10">
@@ -10412,26 +10423,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S120">
-        <f>C120*0.127-N120</f>
+        <f t="shared" si="24"/>
         <v>-8.6000000000000014</v>
       </c>
       <c r="T120">
-        <f>(13*(N120+S120)+3*(O120+P120)-2*Q120)/L120+R120</f>
+        <f t="shared" si="25"/>
         <v>5.2133622484385844</v>
       </c>
       <c r="U120">
         <v>1</v>
       </c>
       <c r="V120">
-        <f>S120*(2.101-U120)*9/L120+G120</f>
+        <f t="shared" si="26"/>
         <v>4.9582767580250442</v>
       </c>
       <c r="W120" s="7">
-        <f>G120-V120</f>
+        <f t="shared" si="27"/>
         <v>0.59137682165163064</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>173</v>
       </c>
@@ -10451,14 +10462,14 @@
         <v>4.42</v>
       </c>
       <c r="G121" s="10">
-        <f>E121*9/M121</f>
+        <f t="shared" si="21"/>
         <v>4.4229828850855748</v>
       </c>
       <c r="H121" s="10">
         <v>4.8899999999999997</v>
       </c>
       <c r="I121" s="10">
-        <f>(13*N121+3*(O121+P121)-2*(Q121))/M121+R121</f>
+        <f t="shared" si="22"/>
         <v>4.8906968215158928</v>
       </c>
       <c r="J121" s="10">
@@ -10471,7 +10482,7 @@
         <v>136.1</v>
       </c>
       <c r="M121" s="10">
-        <f>(L121-_xlfn.FLOOR.MATH(L121))*10/3+_xlfn.FLOOR.MATH(L121)</f>
+        <f t="shared" si="23"/>
         <v>136.33333333333331</v>
       </c>
       <c r="N121" s="10">
@@ -10490,26 +10501,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S121">
-        <f>C121*0.127-N121</f>
+        <f t="shared" si="24"/>
         <v>-8.2040000000000006</v>
       </c>
       <c r="T121">
-        <f>(13*(N121+S121)+3*(O121+P121)-2*Q121)/L121+R121</f>
+        <f t="shared" si="25"/>
         <v>4.1098714180749445</v>
       </c>
       <c r="U121">
         <v>1</v>
       </c>
       <c r="V121">
-        <f>S121*(2.101-U121)*9/L121+G121</f>
+        <f t="shared" si="26"/>
         <v>3.825676228215626</v>
       </c>
       <c r="W121" s="7">
-        <f>G121-V121</f>
+        <f t="shared" si="27"/>
         <v>0.59730665686994877</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>169</v>
       </c>
@@ -10529,14 +10540,14 @@
         <v>5.43</v>
       </c>
       <c r="G122" s="10">
-        <f>E122*9/M122</f>
+        <f t="shared" si="21"/>
         <v>5.4278350515463929</v>
       </c>
       <c r="H122" s="10">
         <v>6.46</v>
       </c>
       <c r="I122" s="10">
-        <f>(13*N122+3*(O122+P122)-2*(Q122))/M122+R122</f>
+        <f t="shared" si="22"/>
         <v>6.4637628865979391</v>
       </c>
       <c r="J122" s="10">
@@ -10549,7 +10560,7 @@
         <v>129.1</v>
       </c>
       <c r="M122" s="10">
-        <f>(L122-_xlfn.FLOOR.MATH(L122))*10/3+_xlfn.FLOOR.MATH(L122)</f>
+        <f t="shared" si="23"/>
         <v>129.33333333333331</v>
       </c>
       <c r="N122" s="10">
@@ -10568,26 +10579,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S122">
-        <f>C122*0.127-N122</f>
+        <f t="shared" si="24"/>
         <v>-7.7910000000000004</v>
       </c>
       <c r="T122">
-        <f>(13*(N122+S122)+3*(O122+P122)-2*Q122)/L122+R122</f>
+        <f t="shared" si="25"/>
         <v>5.6850309837335402</v>
       </c>
       <c r="U122">
         <v>1</v>
       </c>
       <c r="V122">
-        <f>S122*(2.101-U122)*9/L122+G122</f>
+        <f t="shared" si="26"/>
         <v>4.8298411011203664</v>
       </c>
       <c r="W122" s="7">
-        <f>G122-V122</f>
+        <f t="shared" si="27"/>
         <v>0.59799395042602654</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>170</v>
       </c>
@@ -10607,14 +10618,14 @@
         <v>4.88</v>
       </c>
       <c r="G123" s="10">
-        <f>E123*9/M123</f>
+        <f t="shared" si="21"/>
         <v>4.8824593128390603</v>
       </c>
       <c r="H123" s="10">
         <v>5.27</v>
       </c>
       <c r="I123" s="10">
-        <f>(13*N123+3*(O123+P123)-2*(Q123))/M123+R123</f>
+        <f t="shared" si="22"/>
         <v>5.2676582278481012</v>
       </c>
       <c r="J123" s="10">
@@ -10627,7 +10638,7 @@
         <v>184.1</v>
       </c>
       <c r="M123" s="10">
-        <f>(L123-_xlfn.FLOOR.MATH(L123))*10/3+_xlfn.FLOOR.MATH(L123)</f>
+        <f t="shared" si="23"/>
         <v>184.33333333333331</v>
       </c>
       <c r="N123" s="10">
@@ -10646,26 +10657,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S123">
-        <f>C123*0.127-N123</f>
+        <f t="shared" si="24"/>
         <v>-11.663</v>
       </c>
       <c r="T123">
-        <f>(13*(N123+S123)+3*(O123+P123)-2*Q123)/L123+R123</f>
+        <f t="shared" si="25"/>
         <v>4.4466404128191197</v>
       </c>
       <c r="U123">
         <v>1</v>
       </c>
       <c r="V123">
-        <f>S123*(2.101-U123)*9/L123+G123</f>
+        <f t="shared" si="26"/>
         <v>4.2547098994767572</v>
       </c>
       <c r="W123" s="7">
-        <f>G123-V123</f>
+        <f t="shared" si="27"/>
         <v>0.62774941336230317</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>177</v>
       </c>
@@ -10685,14 +10696,14 @@
         <v>5.09</v>
       </c>
       <c r="G124" s="10">
-        <f>E124*9/M124</f>
+        <f t="shared" si="21"/>
         <v>5.087794432548181</v>
       </c>
       <c r="H124" s="10">
         <v>4.37</v>
       </c>
       <c r="I124" s="10">
-        <f>(13*N124+3*(O124+P124)-2*(Q124))/M124+R124</f>
+        <f t="shared" si="22"/>
         <v>4.3727730192719489</v>
       </c>
       <c r="J124" s="10">
@@ -10705,7 +10716,7 @@
         <v>155.19999999999999</v>
       </c>
       <c r="M124" s="10">
-        <f>(L124-_xlfn.FLOOR.MATH(L124))*10/3+_xlfn.FLOOR.MATH(L124)</f>
+        <f t="shared" si="23"/>
         <v>155.66666666666663</v>
       </c>
       <c r="N124" s="10">
@@ -10724,26 +10735,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S124">
-        <f>C124*0.127-N124</f>
+        <f t="shared" si="24"/>
         <v>-10.251999999999999</v>
       </c>
       <c r="T124">
-        <f>(13*(N124+S124)+3*(O124+P124)-2*Q124)/L124+R124</f>
+        <f t="shared" si="25"/>
         <v>3.517396907216495</v>
       </c>
       <c r="U124">
         <v>1</v>
       </c>
       <c r="V124">
-        <f>S124*(2.101-U124)*9/L124+G124</f>
+        <f t="shared" si="26"/>
         <v>4.4332385820327174</v>
       </c>
       <c r="W124" s="7">
-        <f>G124-V124</f>
+        <f t="shared" si="27"/>
         <v>0.65455585051546361</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>172</v>
       </c>
@@ -10763,14 +10774,14 @@
         <v>6.4</v>
       </c>
       <c r="G125" s="10">
-        <f>E125*9/M125</f>
+        <f t="shared" si="21"/>
         <v>6.4043126684636116</v>
       </c>
       <c r="H125" s="10">
         <v>5.61</v>
       </c>
       <c r="I125" s="10">
-        <f>(13*N125+3*(O125+P125)-2*(Q125))/M125+R125</f>
+        <f t="shared" si="22"/>
         <v>5.6080997304582212</v>
       </c>
       <c r="J125" s="10">
@@ -10783,7 +10794,7 @@
         <v>123.2</v>
       </c>
       <c r="M125" s="10">
-        <f>(L125-_xlfn.FLOOR.MATH(L125))*10/3+_xlfn.FLOOR.MATH(L125)</f>
+        <f t="shared" si="23"/>
         <v>123.66666666666667</v>
       </c>
       <c r="N125" s="10">
@@ -10802,26 +10813,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S125">
-        <f>C125*0.127-N125</f>
+        <f t="shared" si="24"/>
         <v>-8.68</v>
       </c>
       <c r="T125">
-        <f>(13*(N125+S125)+3*(O125+P125)-2*Q125)/L125+R125</f>
+        <f t="shared" si="25"/>
         <v>4.7011038961038967</v>
       </c>
       <c r="U125">
         <v>1</v>
       </c>
       <c r="V125">
-        <f>S125*(2.101-U125)*9/L125+G125</f>
+        <f t="shared" si="26"/>
         <v>5.7061785775545211</v>
       </c>
       <c r="W125" s="7">
-        <f>G125-V125</f>
+        <f t="shared" si="27"/>
         <v>0.69813409090909051</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>175</v>
       </c>
@@ -10841,14 +10852,14 @@
         <v>5.59</v>
       </c>
       <c r="G126" s="10">
-        <f>E126*9/M126</f>
+        <f t="shared" si="21"/>
         <v>5.5891719745222925</v>
       </c>
       <c r="H126" s="10">
         <v>4.79</v>
       </c>
       <c r="I126" s="10">
-        <f>(13*N126+3*(O126+P126)-2*(Q126))/M126+R126</f>
+        <f t="shared" si="22"/>
         <v>4.7932165605095545</v>
       </c>
       <c r="J126" s="10">
@@ -10861,7 +10872,7 @@
         <v>104.2</v>
       </c>
       <c r="M126" s="10">
-        <f>(L126-_xlfn.FLOOR.MATH(L126))*10/3+_xlfn.FLOOR.MATH(L126)</f>
+        <f t="shared" si="23"/>
         <v>104.66666666666667</v>
       </c>
       <c r="N126" s="10">
@@ -10880,26 +10891,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S126">
-        <f>C126*0.127-N126</f>
+        <f t="shared" si="24"/>
         <v>-7.76</v>
       </c>
       <c r="T126">
-        <f>(13*(N126+S126)+3*(O126+P126)-2*Q126)/L126+R126</f>
+        <f t="shared" si="25"/>
         <v>3.8319673704414585</v>
       </c>
       <c r="U126">
         <v>1</v>
       </c>
       <c r="V126">
-        <f>S126*(2.101-U126)*9/L126+G126</f>
+        <f t="shared" si="26"/>
         <v>4.8512272528332332</v>
       </c>
       <c r="W126" s="7">
-        <f>G126-V126</f>
+        <f t="shared" si="27"/>
         <v>0.73794472168905934</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>14</v>
       </c>
@@ -10919,14 +10930,14 @@
         <v>5.73</v>
       </c>
       <c r="G127" s="10">
-        <f>E127*9/M127</f>
+        <f t="shared" si="21"/>
         <v>5.7332123411978237</v>
       </c>
       <c r="H127" s="10">
         <v>5.53</v>
       </c>
       <c r="I127" s="10">
-        <f>(13*N127+3*(O127+P127)-2*(Q127))/M127+R127</f>
+        <f t="shared" si="22"/>
         <v>5.5308620689655177</v>
       </c>
       <c r="J127" s="10">
@@ -10939,7 +10950,7 @@
         <v>183.2</v>
       </c>
       <c r="M127" s="10">
-        <f>(L127-_xlfn.FLOOR.MATH(L127))*10/3+_xlfn.FLOOR.MATH(L127)</f>
+        <f t="shared" si="23"/>
         <v>183.66666666666663</v>
       </c>
       <c r="N127" s="10">
@@ -10958,26 +10969,26 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S127">
-        <f>C127*0.127-N127</f>
+        <f t="shared" si="24"/>
         <v>-14.663</v>
       </c>
       <c r="T127">
-        <f>(13*(N127+S127)+3*(O127+P127)-2*Q127)/L127+R127</f>
+        <f t="shared" si="25"/>
         <v>4.4961626637554586</v>
       </c>
       <c r="U127">
         <v>1</v>
       </c>
       <c r="V127">
-        <f>S127*(2.101-U127)*9/L127+G127</f>
+        <f t="shared" si="26"/>
         <v>4.9401137222021907</v>
       </c>
       <c r="W127" s="7">
-        <f>G127-V127</f>
+        <f t="shared" si="27"/>
         <v>0.79309861899563305</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>176</v>
       </c>
@@ -10997,14 +11008,14 @@
         <v>6.86</v>
       </c>
       <c r="G128" s="10">
-        <f>E128*9/M128</f>
+        <f t="shared" si="21"/>
         <v>6.8599348534201967</v>
       </c>
       <c r="H128" s="10">
         <v>6.22</v>
       </c>
       <c r="I128" s="10">
-        <f>(13*N128+3*(O128+P128)-2*(Q128))/M128+R128</f>
+        <f t="shared" si="22"/>
         <v>6.2159120521172646</v>
       </c>
       <c r="J128" s="10">
@@ -11017,7 +11028,7 @@
         <v>102.1</v>
       </c>
       <c r="M128" s="10">
-        <f>(L128-_xlfn.FLOOR.MATH(L128))*10/3+_xlfn.FLOOR.MATH(L128)</f>
+        <f t="shared" si="23"/>
         <v>102.33333333333331</v>
       </c>
       <c r="N128" s="10">
@@ -11036,27 +11047,27 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="S128">
-        <f>C128*0.127-N128</f>
+        <f t="shared" si="24"/>
         <v>-8.6170000000000009</v>
       </c>
       <c r="T128">
-        <f>(13*(N128+S128)+3*(O128+P128)-2*Q128)/L128+R128</f>
+        <f t="shared" si="25"/>
         <v>5.1255093046033302</v>
       </c>
       <c r="U128">
         <v>1</v>
       </c>
       <c r="V128">
-        <f>S128*(2.101-U128)*9/L128+G128</f>
+        <f t="shared" si="26"/>
         <v>6.0236385458785708</v>
       </c>
       <c r="W128" s="7">
-        <f>G128-V128</f>
+        <f t="shared" si="27"/>
         <v>0.83629630754162587</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:W131">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W131">
     <sortCondition ref="W1"/>
   </sortState>
   <hyperlinks>
